--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9251291370133088</v>
+        <v>0.9251291370133076</v>
       </c>
       <c r="D2">
-        <v>1.01104339010653</v>
+        <v>1.011043390106529</v>
       </c>
       <c r="E2">
-        <v>0.940142695945144</v>
+        <v>0.9401426959451423</v>
       </c>
       <c r="F2">
-        <v>0.9530723981670529</v>
+        <v>0.9530723981670518</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.035437388845155</v>
       </c>
       <c r="J2">
-        <v>0.9498056190332382</v>
+        <v>0.9498056190332368</v>
       </c>
       <c r="K2">
         <v>1.022350987394999</v>
       </c>
       <c r="L2">
-        <v>0.9525041106684287</v>
+        <v>0.9525041106684272</v>
       </c>
       <c r="M2">
-        <v>0.9652266796711498</v>
+        <v>0.9652266796711487</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9402645640661564</v>
+        <v>0.9402645640661562</v>
       </c>
       <c r="D3">
         <v>1.016562984388011</v>
       </c>
       <c r="E3">
-        <v>0.9530676128847302</v>
+        <v>0.95306761288473</v>
       </c>
       <c r="F3">
-        <v>0.9658613268076655</v>
+        <v>0.9658613268076651</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038626175472833</v>
+        <v>1.038626175472832</v>
       </c>
       <c r="J3">
-        <v>0.9625276359866626</v>
+        <v>0.9625276359866625</v>
       </c>
       <c r="K3">
         <v>1.026988235764571</v>
       </c>
       <c r="L3">
-        <v>0.9643384395615512</v>
+        <v>0.9643384395615509</v>
       </c>
       <c r="M3">
-        <v>0.9769504930869667</v>
+        <v>0.9769504930869666</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9494763192196283</v>
+        <v>0.9494763192196276</v>
       </c>
       <c r="D4">
         <v>1.019951083532117</v>
       </c>
       <c r="E4">
-        <v>0.9609445898670859</v>
+        <v>0.9609445898670852</v>
       </c>
       <c r="F4">
-        <v>0.9736729386596782</v>
+        <v>0.9736729386596775</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040554481486566</v>
+        <v>1.040554481486565</v>
       </c>
       <c r="J4">
-        <v>0.9702670933768353</v>
+        <v>0.9702670933768346</v>
       </c>
       <c r="K4">
-        <v>1.029814535149358</v>
+        <v>1.029814535149357</v>
       </c>
       <c r="L4">
-        <v>0.9715384116661219</v>
+        <v>0.9715384116661212</v>
       </c>
       <c r="M4">
-        <v>0.9840998482878172</v>
+        <v>0.9840998482878163</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9532254440361881</v>
+        <v>0.9532254440361885</v>
       </c>
       <c r="D5">
         <v>1.021335748509465</v>
       </c>
       <c r="E5">
-        <v>0.9641525857639505</v>
+        <v>0.9641525857639506</v>
       </c>
       <c r="F5">
-        <v>0.9768579611896443</v>
+        <v>0.9768579611896445</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>0.9744677923653848</v>
       </c>
       <c r="M5">
-        <v>0.987012111546575</v>
+        <v>0.9870121115465753</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9538481007080343</v>
+        <v>0.9538481007080355</v>
       </c>
       <c r="D6">
-        <v>1.021566021056569</v>
+        <v>1.02156602105657</v>
       </c>
       <c r="E6">
-        <v>0.9646854852333357</v>
+        <v>0.9646854852333371</v>
       </c>
       <c r="F6">
-        <v>0.9773872448051644</v>
+        <v>0.9773872448051654</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.041465378292793</v>
       </c>
       <c r="J6">
-        <v>0.9739387610778271</v>
+        <v>0.9739387610778282</v>
       </c>
       <c r="K6">
         <v>1.031156050391707</v>
       </c>
       <c r="L6">
-        <v>0.9749542405701241</v>
+        <v>0.9749542405701254</v>
       </c>
       <c r="M6">
-        <v>0.9874959086888383</v>
+        <v>0.9874959086888393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9495268818130809</v>
+        <v>0.9495268818130799</v>
       </c>
       <c r="D7">
-        <v>1.019969736437097</v>
+        <v>1.019969736437096</v>
       </c>
       <c r="E7">
-        <v>0.9609878465997337</v>
+        <v>0.9609878465997329</v>
       </c>
       <c r="F7">
-        <v>0.9737158717689038</v>
+        <v>0.973715871768903</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040565033481609</v>
       </c>
       <c r="J7">
-        <v>0.9703095643476611</v>
+        <v>0.9703095643476602</v>
       </c>
       <c r="K7">
-        <v>1.029830051066915</v>
+        <v>1.029830051066914</v>
       </c>
       <c r="L7">
-        <v>0.9715779229890946</v>
+        <v>0.9715779229890937</v>
       </c>
       <c r="M7">
-        <v>0.9841391155062938</v>
+        <v>0.984139115506293</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9303752698664657</v>
+        <v>0.9303752698664659</v>
       </c>
       <c r="D8">
         <v>1.012949556138415</v>
       </c>
       <c r="E8">
-        <v>0.9446200610035314</v>
+        <v>0.9446200610035319</v>
       </c>
       <c r="F8">
-        <v>0.9574985004320294</v>
+        <v>0.9574985004320297</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03654502758191</v>
       </c>
       <c r="J8">
-        <v>0.9542157706793082</v>
+        <v>0.9542157706793084</v>
       </c>
       <c r="K8">
         <v>1.023956928602076</v>
       </c>
       <c r="L8">
-        <v>0.9566063894548972</v>
+        <v>0.9566063894548978</v>
       </c>
       <c r="M8">
-        <v>0.9692867123778135</v>
+        <v>0.9692867123778137</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8912363749077086</v>
+        <v>0.891236374907707</v>
       </c>
       <c r="D9">
-        <v>0.998927796274977</v>
+        <v>0.9989277962749763</v>
       </c>
       <c r="E9">
-        <v>0.9112908786345485</v>
+        <v>0.9112908786345467</v>
       </c>
       <c r="F9">
-        <v>0.9246642230111015</v>
+        <v>0.9246642230111001</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028250227827109</v>
       </c>
       <c r="J9">
-        <v>0.9213152972768028</v>
+        <v>0.9213152972768013</v>
       </c>
       <c r="K9">
         <v>1.01203829322244</v>
       </c>
       <c r="L9">
-        <v>0.9260082638276336</v>
+        <v>0.926008263827632</v>
       </c>
       <c r="M9">
-        <v>0.939110505957501</v>
+        <v>0.9391105059574999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8596324902871549</v>
+        <v>0.859632490287155</v>
       </c>
       <c r="D10">
-        <v>0.9879817861183181</v>
+        <v>0.9879817861183176</v>
       </c>
       <c r="E10">
-        <v>0.884523013455944</v>
+        <v>0.8845230134559441</v>
       </c>
       <c r="F10">
         <v>0.898501989913074</v>
@@ -743,16 +743,16 @@
         <v>1.021554343719763</v>
       </c>
       <c r="J10">
-        <v>0.8947823547971817</v>
+        <v>0.8947823547971819</v>
       </c>
       <c r="K10">
         <v>1.002571477320184</v>
       </c>
       <c r="L10">
-        <v>0.9013453190572568</v>
+        <v>0.901345319057257</v>
       </c>
       <c r="M10">
-        <v>0.9149822689696223</v>
+        <v>0.9149822689696222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8439195670105887</v>
+        <v>0.8439195670105897</v>
       </c>
       <c r="D11">
-        <v>0.9826807568204291</v>
+        <v>0.9826807568204298</v>
       </c>
       <c r="E11">
-        <v>0.871271671460274</v>
+        <v>0.871271671460275</v>
       </c>
       <c r="F11">
-        <v>0.8856279932784044</v>
+        <v>0.8856279932784054</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018246227840293</v>
+        <v>1.018246227840294</v>
       </c>
       <c r="J11">
-        <v>0.8816143297196462</v>
+        <v>0.8816143297196474</v>
       </c>
       <c r="K11">
-        <v>0.9979368503491662</v>
+        <v>0.9979368503491669</v>
       </c>
       <c r="L11">
-        <v>0.8891115254622703</v>
+        <v>0.8891115254622713</v>
       </c>
       <c r="M11">
-        <v>0.9030853980548977</v>
+        <v>0.9030853980548988</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,10 +801,10 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8376749612428143</v>
+        <v>0.8376749612428144</v>
       </c>
       <c r="D12">
-        <v>0.9806017115075247</v>
+        <v>0.9806017115075245</v>
       </c>
       <c r="E12">
         <v>0.8660170047873972</v>
@@ -819,16 +819,16 @@
         <v>1.016937332702356</v>
       </c>
       <c r="J12">
-        <v>0.8763868407451011</v>
+        <v>0.876386840745101</v>
       </c>
       <c r="K12">
-        <v>0.9961102335577212</v>
+        <v>0.9961102335577211</v>
       </c>
       <c r="L12">
-        <v>0.8842562645802379</v>
+        <v>0.8842562645802381</v>
       </c>
       <c r="M12">
-        <v>0.8983779505022296</v>
+        <v>0.8983779505022295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8390352154721273</v>
+        <v>0.8390352154721247</v>
       </c>
       <c r="D13">
-        <v>0.9810532165592512</v>
+        <v>0.9810532165592507</v>
       </c>
       <c r="E13">
-        <v>0.8671610350394761</v>
+        <v>0.8671610350394733</v>
       </c>
       <c r="F13">
-        <v>0.8816456558929183</v>
+        <v>0.881645655892917</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01722213281904</v>
+        <v>1.017222132819039</v>
       </c>
       <c r="J13">
-        <v>0.8775252353957078</v>
+        <v>0.8775252353957054</v>
       </c>
       <c r="K13">
-        <v>0.9965073488427046</v>
+        <v>0.9965073488427042</v>
       </c>
       <c r="L13">
-        <v>0.8853135289996763</v>
+        <v>0.8853135289996739</v>
       </c>
       <c r="M13">
-        <v>0.8994023270090925</v>
+        <v>0.899402327009091</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8434125143192415</v>
+        <v>0.8434125143192412</v>
       </c>
       <c r="D14">
-        <v>0.9825113439551144</v>
+        <v>0.9825113439551142</v>
       </c>
       <c r="E14">
-        <v>0.8708447454434659</v>
+        <v>0.8708447454434658</v>
       </c>
       <c r="F14">
-        <v>0.8852141385603997</v>
+        <v>0.8852141385603992</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018139812679868</v>
       </c>
       <c r="J14">
-        <v>0.8811897353039563</v>
+        <v>0.8811897353039561</v>
       </c>
       <c r="K14">
-        <v>0.9977881959010595</v>
+        <v>0.9977881959010594</v>
       </c>
       <c r="L14">
-        <v>0.8887171345009888</v>
+        <v>0.888717134500989</v>
       </c>
       <c r="M14">
-        <v>0.9027027086961399</v>
+        <v>0.9027027086961396</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8460513899046384</v>
+        <v>0.8460513899046381</v>
       </c>
       <c r="D15">
-        <v>0.983394171765168</v>
+        <v>0.9833941717651679</v>
       </c>
       <c r="E15">
-        <v>0.8730670997516407</v>
+        <v>0.8730670997516403</v>
       </c>
       <c r="F15">
-        <v>0.8873690875523129</v>
+        <v>0.8873690875523128</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,13 +933,13 @@
         <v>1.018693883004825</v>
       </c>
       <c r="J15">
-        <v>0.8833997128448374</v>
+        <v>0.8833997128448372</v>
       </c>
       <c r="K15">
-        <v>0.9985624822780411</v>
+        <v>0.9985624822780412</v>
       </c>
       <c r="L15">
-        <v>0.8907699625453962</v>
+        <v>0.8907699625453958</v>
       </c>
       <c r="M15">
         <v>0.9046952134494275</v>
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8606249044273605</v>
+        <v>0.8606249044273602</v>
       </c>
       <c r="D16">
-        <v>0.9883198582615426</v>
+        <v>0.9883198582615424</v>
       </c>
       <c r="E16">
-        <v>0.885361306955737</v>
+        <v>0.8853613069557369</v>
       </c>
       <c r="F16">
-        <v>0.8993182154285124</v>
+        <v>0.8993182154285125</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.021763888456976</v>
       </c>
       <c r="J16">
-        <v>0.8956146585331598</v>
+        <v>0.8956146585331596</v>
       </c>
       <c r="K16">
         <v>1.002865944447271</v>
       </c>
       <c r="L16">
-        <v>0.9021187257153632</v>
+        <v>0.9021187257153631</v>
       </c>
       <c r="M16">
         <v>0.9157360353559095</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8691653534502666</v>
+        <v>0.8691653534502667</v>
       </c>
       <c r="D17">
-        <v>0.9912447828842494</v>
+        <v>0.99124478288425</v>
       </c>
       <c r="E17">
-        <v>0.8925817570290577</v>
+        <v>0.8925817570290578</v>
       </c>
       <c r="F17">
-        <v>0.9063571528225737</v>
+        <v>0.906357152822574</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023569612163024</v>
+        <v>1.023569612163025</v>
       </c>
       <c r="J17">
-        <v>0.9027799220798948</v>
+        <v>0.9027799220798949</v>
       </c>
       <c r="K17">
-        <v>1.005408084214492</v>
+        <v>1.005408084214493</v>
       </c>
       <c r="L17">
         <v>0.9087776351645337</v>
       </c>
       <c r="M17">
-        <v>0.9222337518365681</v>
+        <v>0.9222337518365685</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8739600312344076</v>
+        <v>0.8739600312344048</v>
       </c>
       <c r="D18">
-        <v>0.9928988726347823</v>
+        <v>0.9928988726347812</v>
       </c>
       <c r="E18">
-        <v>0.8966402065163452</v>
+        <v>0.8966402065163427</v>
       </c>
       <c r="F18">
-        <v>0.9103201790321133</v>
+        <v>0.9103201790321112</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024585019983655</v>
+        <v>1.024585019983654</v>
       </c>
       <c r="J18">
-        <v>0.9068044947726783</v>
+        <v>0.9068044947726758</v>
       </c>
       <c r="K18">
-        <v>1.006841317013579</v>
+        <v>1.006841317013578</v>
       </c>
       <c r="L18">
-        <v>0.912518313975915</v>
+        <v>0.9125183139759127</v>
       </c>
       <c r="M18">
-        <v>0.9258899837135763</v>
+        <v>0.9258899837135743</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.875565565957776</v>
+        <v>0.8755655659577751</v>
       </c>
       <c r="D19">
-        <v>0.9934546519255331</v>
+        <v>0.9934546519255323</v>
       </c>
       <c r="E19">
-        <v>0.8979999634847612</v>
+        <v>0.8979999634847604</v>
       </c>
       <c r="F19">
-        <v>0.9116490049507442</v>
+        <v>0.9116490049507433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024925259901711</v>
+        <v>1.02492525990171</v>
       </c>
       <c r="J19">
-        <v>0.9081524360747992</v>
+        <v>0.9081524360747985</v>
       </c>
       <c r="K19">
         <v>1.007322175386112</v>
       </c>
       <c r="L19">
-        <v>0.9137712496238976</v>
+        <v>0.9137712496238969</v>
       </c>
       <c r="M19">
-        <v>0.9271155975025616</v>
+        <v>0.9271155975025607</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8682689541339614</v>
+        <v>0.8682689541339623</v>
       </c>
       <c r="D20">
-        <v>0.9909364883874113</v>
+        <v>0.9909364883874114</v>
       </c>
       <c r="E20">
-        <v>0.8918233805332703</v>
+        <v>0.8918233805332708</v>
       </c>
       <c r="F20">
-        <v>0.9056171284700824</v>
+        <v>0.9056171284700827</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023379895820845</v>
       </c>
       <c r="J20">
-        <v>0.9020276465359854</v>
+        <v>0.9020276465359862</v>
       </c>
       <c r="K20">
         <v>1.005140603192749</v>
       </c>
       <c r="L20">
-        <v>0.9080784651456485</v>
+        <v>0.9080784651456492</v>
       </c>
       <c r="M20">
-        <v>0.9215508482111356</v>
+        <v>0.921550848211136</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8421358914711091</v>
+        <v>0.8421358914711075</v>
       </c>
       <c r="D21">
-        <v>0.9820852732409906</v>
+        <v>0.9820852732409898</v>
       </c>
       <c r="E21">
-        <v>0.8697700579739659</v>
+        <v>0.8697700579739642</v>
       </c>
       <c r="F21">
-        <v>0.8841726141971342</v>
+        <v>0.8841726141971328</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017871990925532</v>
+        <v>1.017871990925531</v>
       </c>
       <c r="J21">
-        <v>0.8801208202889403</v>
+        <v>0.8801208202889388</v>
       </c>
       <c r="K21">
-        <v>0.9974141842091166</v>
+        <v>0.9974141842091161</v>
       </c>
       <c r="L21">
-        <v>0.8877242798814826</v>
+        <v>0.8877242798814811</v>
       </c>
       <c r="M21">
-        <v>0.9017395496927341</v>
+        <v>0.901739549692733</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8232406551960131</v>
+        <v>0.823240655196013</v>
       </c>
       <c r="D22">
-        <v>0.9758585906509822</v>
+        <v>0.9758585906509827</v>
       </c>
       <c r="E22">
-        <v>0.85389807229735</v>
+        <v>0.8538980722973499</v>
       </c>
       <c r="F22">
-        <v>0.8688349514566276</v>
+        <v>0.8688349514566279</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.8643180217678376</v>
       </c>
       <c r="K22">
-        <v>0.9919239585371056</v>
+        <v>0.9919239585371061</v>
       </c>
       <c r="L22">
-        <v>0.8730501005115849</v>
+        <v>0.873050100511585</v>
       </c>
       <c r="M22">
-        <v>0.8875450107738413</v>
+        <v>0.8875450107738417</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8335430927766452</v>
+        <v>0.8335430927766468</v>
       </c>
       <c r="D23">
-        <v>0.9792349638710039</v>
+        <v>0.9792349638710038</v>
       </c>
       <c r="E23">
-        <v>0.8625439749113425</v>
+        <v>0.8625439749113438</v>
       </c>
       <c r="F23">
-        <v>0.8771792967683938</v>
+        <v>0.8771792967683947</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016073362242292</v>
       </c>
       <c r="J23">
-        <v>0.8729299618485475</v>
+        <v>0.8729299618485491</v>
       </c>
       <c r="K23">
-        <v>0.9949066696294877</v>
+        <v>0.9949066696294876</v>
       </c>
       <c r="L23">
-        <v>0.8810459936572301</v>
+        <v>0.8810459936572314</v>
       </c>
       <c r="M23">
-        <v>0.8952699631461546</v>
+        <v>0.8952699631461554</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8686745687146866</v>
+        <v>0.8686745687146881</v>
       </c>
       <c r="D24">
-        <v>0.9910759522503597</v>
+        <v>0.9910759522503599</v>
       </c>
       <c r="E24">
-        <v>0.8921665257603022</v>
+        <v>0.8921665257603039</v>
       </c>
       <c r="F24">
-        <v>0.9059519493637631</v>
+        <v>0.905951949363764</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023465736133174</v>
       </c>
       <c r="J24">
-        <v>0.9023680401536609</v>
+        <v>0.9023680401536623</v>
       </c>
       <c r="K24">
-        <v>1.005261617809432</v>
+        <v>1.005261617809433</v>
       </c>
       <c r="L24">
-        <v>0.9083948277072907</v>
+        <v>0.9083948277072924</v>
       </c>
       <c r="M24">
-        <v>0.9218598315603688</v>
+        <v>0.9218598315603697</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9021500100338276</v>
+        <v>0.9021500100338272</v>
       </c>
       <c r="D25">
-        <v>1.002789333302964</v>
+        <v>1.002789333302965</v>
       </c>
       <c r="E25">
-        <v>0.9205663321144831</v>
+        <v>0.9205663321144825</v>
       </c>
       <c r="F25">
         <v>0.9337747899969402</v>
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030567541991969</v>
+        <v>1.03056754199197</v>
       </c>
       <c r="J25">
-        <v>0.9304874547708883</v>
+        <v>0.9304874547708882</v>
       </c>
       <c r="K25">
         <v>1.0153445022365</v>
       </c>
       <c r="L25">
-        <v>0.9345370843214433</v>
+        <v>0.934537084321443</v>
       </c>
       <c r="M25">
-        <v>0.9474962253798513</v>
+        <v>0.9474962253798511</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9251291370133076</v>
+        <v>0.9251291370133088</v>
       </c>
       <c r="D2">
-        <v>1.011043390106529</v>
+        <v>1.01104339010653</v>
       </c>
       <c r="E2">
-        <v>0.9401426959451423</v>
+        <v>0.940142695945144</v>
       </c>
       <c r="F2">
-        <v>0.9530723981670518</v>
+        <v>0.9530723981670529</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.035437388845155</v>
       </c>
       <c r="J2">
-        <v>0.9498056190332368</v>
+        <v>0.9498056190332382</v>
       </c>
       <c r="K2">
         <v>1.022350987394999</v>
       </c>
       <c r="L2">
-        <v>0.9525041106684272</v>
+        <v>0.9525041106684287</v>
       </c>
       <c r="M2">
-        <v>0.9652266796711487</v>
+        <v>0.9652266796711498</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9402645640661562</v>
+        <v>0.9402645640661564</v>
       </c>
       <c r="D3">
         <v>1.016562984388011</v>
       </c>
       <c r="E3">
-        <v>0.95306761288473</v>
+        <v>0.9530676128847302</v>
       </c>
       <c r="F3">
-        <v>0.9658613268076651</v>
+        <v>0.9658613268076655</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038626175472832</v>
+        <v>1.038626175472833</v>
       </c>
       <c r="J3">
-        <v>0.9625276359866625</v>
+        <v>0.9625276359866626</v>
       </c>
       <c r="K3">
         <v>1.026988235764571</v>
       </c>
       <c r="L3">
-        <v>0.9643384395615509</v>
+        <v>0.9643384395615512</v>
       </c>
       <c r="M3">
-        <v>0.9769504930869666</v>
+        <v>0.9769504930869667</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9494763192196276</v>
+        <v>0.9494763192196283</v>
       </c>
       <c r="D4">
         <v>1.019951083532117</v>
       </c>
       <c r="E4">
-        <v>0.9609445898670852</v>
+        <v>0.9609445898670859</v>
       </c>
       <c r="F4">
-        <v>0.9736729386596775</v>
+        <v>0.9736729386596782</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040554481486565</v>
+        <v>1.040554481486566</v>
       </c>
       <c r="J4">
-        <v>0.9702670933768346</v>
+        <v>0.9702670933768353</v>
       </c>
       <c r="K4">
-        <v>1.029814535149357</v>
+        <v>1.029814535149358</v>
       </c>
       <c r="L4">
-        <v>0.9715384116661212</v>
+        <v>0.9715384116661219</v>
       </c>
       <c r="M4">
-        <v>0.9840998482878163</v>
+        <v>0.9840998482878172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9532254440361885</v>
+        <v>0.9532254440361881</v>
       </c>
       <c r="D5">
         <v>1.021335748509465</v>
       </c>
       <c r="E5">
-        <v>0.9641525857639506</v>
+        <v>0.9641525857639505</v>
       </c>
       <c r="F5">
-        <v>0.9768579611896445</v>
+        <v>0.9768579611896443</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>0.9744677923653848</v>
       </c>
       <c r="M5">
-        <v>0.9870121115465753</v>
+        <v>0.987012111546575</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9538481007080355</v>
+        <v>0.9538481007080343</v>
       </c>
       <c r="D6">
-        <v>1.02156602105657</v>
+        <v>1.021566021056569</v>
       </c>
       <c r="E6">
-        <v>0.9646854852333371</v>
+        <v>0.9646854852333357</v>
       </c>
       <c r="F6">
-        <v>0.9773872448051654</v>
+        <v>0.9773872448051644</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.041465378292793</v>
       </c>
       <c r="J6">
-        <v>0.9739387610778282</v>
+        <v>0.9739387610778271</v>
       </c>
       <c r="K6">
         <v>1.031156050391707</v>
       </c>
       <c r="L6">
-        <v>0.9749542405701254</v>
+        <v>0.9749542405701241</v>
       </c>
       <c r="M6">
-        <v>0.9874959086888393</v>
+        <v>0.9874959086888383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9495268818130799</v>
+        <v>0.9495268818130809</v>
       </c>
       <c r="D7">
-        <v>1.019969736437096</v>
+        <v>1.019969736437097</v>
       </c>
       <c r="E7">
-        <v>0.9609878465997329</v>
+        <v>0.9609878465997337</v>
       </c>
       <c r="F7">
-        <v>0.973715871768903</v>
+        <v>0.9737158717689038</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040565033481609</v>
       </c>
       <c r="J7">
-        <v>0.9703095643476602</v>
+        <v>0.9703095643476611</v>
       </c>
       <c r="K7">
-        <v>1.029830051066914</v>
+        <v>1.029830051066915</v>
       </c>
       <c r="L7">
-        <v>0.9715779229890937</v>
+        <v>0.9715779229890946</v>
       </c>
       <c r="M7">
-        <v>0.984139115506293</v>
+        <v>0.9841391155062938</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9303752698664659</v>
+        <v>0.9303752698664657</v>
       </c>
       <c r="D8">
         <v>1.012949556138415</v>
       </c>
       <c r="E8">
-        <v>0.9446200610035319</v>
+        <v>0.9446200610035314</v>
       </c>
       <c r="F8">
-        <v>0.9574985004320297</v>
+        <v>0.9574985004320294</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03654502758191</v>
       </c>
       <c r="J8">
-        <v>0.9542157706793084</v>
+        <v>0.9542157706793082</v>
       </c>
       <c r="K8">
         <v>1.023956928602076</v>
       </c>
       <c r="L8">
-        <v>0.9566063894548978</v>
+        <v>0.9566063894548972</v>
       </c>
       <c r="M8">
-        <v>0.9692867123778137</v>
+        <v>0.9692867123778135</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.891236374907707</v>
+        <v>0.8912363749077086</v>
       </c>
       <c r="D9">
-        <v>0.9989277962749763</v>
+        <v>0.998927796274977</v>
       </c>
       <c r="E9">
-        <v>0.9112908786345467</v>
+        <v>0.9112908786345485</v>
       </c>
       <c r="F9">
-        <v>0.9246642230111001</v>
+        <v>0.9246642230111015</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028250227827109</v>
       </c>
       <c r="J9">
-        <v>0.9213152972768013</v>
+        <v>0.9213152972768028</v>
       </c>
       <c r="K9">
         <v>1.01203829322244</v>
       </c>
       <c r="L9">
-        <v>0.926008263827632</v>
+        <v>0.9260082638276336</v>
       </c>
       <c r="M9">
-        <v>0.9391105059574999</v>
+        <v>0.939110505957501</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.859632490287155</v>
+        <v>0.8596324902871549</v>
       </c>
       <c r="D10">
-        <v>0.9879817861183176</v>
+        <v>0.9879817861183181</v>
       </c>
       <c r="E10">
-        <v>0.8845230134559441</v>
+        <v>0.884523013455944</v>
       </c>
       <c r="F10">
         <v>0.898501989913074</v>
@@ -743,16 +743,16 @@
         <v>1.021554343719763</v>
       </c>
       <c r="J10">
-        <v>0.8947823547971819</v>
+        <v>0.8947823547971817</v>
       </c>
       <c r="K10">
         <v>1.002571477320184</v>
       </c>
       <c r="L10">
-        <v>0.901345319057257</v>
+        <v>0.9013453190572568</v>
       </c>
       <c r="M10">
-        <v>0.9149822689696222</v>
+        <v>0.9149822689696223</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8439195670105897</v>
+        <v>0.8439195670105887</v>
       </c>
       <c r="D11">
-        <v>0.9826807568204298</v>
+        <v>0.9826807568204291</v>
       </c>
       <c r="E11">
-        <v>0.871271671460275</v>
+        <v>0.871271671460274</v>
       </c>
       <c r="F11">
-        <v>0.8856279932784054</v>
+        <v>0.8856279932784044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018246227840294</v>
+        <v>1.018246227840293</v>
       </c>
       <c r="J11">
-        <v>0.8816143297196474</v>
+        <v>0.8816143297196462</v>
       </c>
       <c r="K11">
-        <v>0.9979368503491669</v>
+        <v>0.9979368503491662</v>
       </c>
       <c r="L11">
-        <v>0.8891115254622713</v>
+        <v>0.8891115254622703</v>
       </c>
       <c r="M11">
-        <v>0.9030853980548988</v>
+        <v>0.9030853980548977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,10 +801,10 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8376749612428144</v>
+        <v>0.8376749612428143</v>
       </c>
       <c r="D12">
-        <v>0.9806017115075245</v>
+        <v>0.9806017115075247</v>
       </c>
       <c r="E12">
         <v>0.8660170047873972</v>
@@ -819,16 +819,16 @@
         <v>1.016937332702356</v>
       </c>
       <c r="J12">
-        <v>0.876386840745101</v>
+        <v>0.8763868407451011</v>
       </c>
       <c r="K12">
-        <v>0.9961102335577211</v>
+        <v>0.9961102335577212</v>
       </c>
       <c r="L12">
-        <v>0.8842562645802381</v>
+        <v>0.8842562645802379</v>
       </c>
       <c r="M12">
-        <v>0.8983779505022295</v>
+        <v>0.8983779505022296</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8390352154721247</v>
+        <v>0.8390352154721273</v>
       </c>
       <c r="D13">
-        <v>0.9810532165592507</v>
+        <v>0.9810532165592512</v>
       </c>
       <c r="E13">
-        <v>0.8671610350394733</v>
+        <v>0.8671610350394761</v>
       </c>
       <c r="F13">
-        <v>0.881645655892917</v>
+        <v>0.8816456558929183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017222132819039</v>
+        <v>1.01722213281904</v>
       </c>
       <c r="J13">
-        <v>0.8775252353957054</v>
+        <v>0.8775252353957078</v>
       </c>
       <c r="K13">
-        <v>0.9965073488427042</v>
+        <v>0.9965073488427046</v>
       </c>
       <c r="L13">
-        <v>0.8853135289996739</v>
+        <v>0.8853135289996763</v>
       </c>
       <c r="M13">
-        <v>0.899402327009091</v>
+        <v>0.8994023270090925</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8434125143192412</v>
+        <v>0.8434125143192415</v>
       </c>
       <c r="D14">
-        <v>0.9825113439551142</v>
+        <v>0.9825113439551144</v>
       </c>
       <c r="E14">
-        <v>0.8708447454434658</v>
+        <v>0.8708447454434659</v>
       </c>
       <c r="F14">
-        <v>0.8852141385603992</v>
+        <v>0.8852141385603997</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018139812679868</v>
       </c>
       <c r="J14">
-        <v>0.8811897353039561</v>
+        <v>0.8811897353039563</v>
       </c>
       <c r="K14">
-        <v>0.9977881959010594</v>
+        <v>0.9977881959010595</v>
       </c>
       <c r="L14">
-        <v>0.888717134500989</v>
+        <v>0.8887171345009888</v>
       </c>
       <c r="M14">
-        <v>0.9027027086961396</v>
+        <v>0.9027027086961399</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8460513899046381</v>
+        <v>0.8460513899046384</v>
       </c>
       <c r="D15">
-        <v>0.9833941717651679</v>
+        <v>0.983394171765168</v>
       </c>
       <c r="E15">
-        <v>0.8730670997516403</v>
+        <v>0.8730670997516407</v>
       </c>
       <c r="F15">
-        <v>0.8873690875523128</v>
+        <v>0.8873690875523129</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,13 +933,13 @@
         <v>1.018693883004825</v>
       </c>
       <c r="J15">
-        <v>0.8833997128448372</v>
+        <v>0.8833997128448374</v>
       </c>
       <c r="K15">
-        <v>0.9985624822780412</v>
+        <v>0.9985624822780411</v>
       </c>
       <c r="L15">
-        <v>0.8907699625453958</v>
+        <v>0.8907699625453962</v>
       </c>
       <c r="M15">
         <v>0.9046952134494275</v>
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8606249044273602</v>
+        <v>0.8606249044273605</v>
       </c>
       <c r="D16">
-        <v>0.9883198582615424</v>
+        <v>0.9883198582615426</v>
       </c>
       <c r="E16">
-        <v>0.8853613069557369</v>
+        <v>0.885361306955737</v>
       </c>
       <c r="F16">
-        <v>0.8993182154285125</v>
+        <v>0.8993182154285124</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.021763888456976</v>
       </c>
       <c r="J16">
-        <v>0.8956146585331596</v>
+        <v>0.8956146585331598</v>
       </c>
       <c r="K16">
         <v>1.002865944447271</v>
       </c>
       <c r="L16">
-        <v>0.9021187257153631</v>
+        <v>0.9021187257153632</v>
       </c>
       <c r="M16">
         <v>0.9157360353559095</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8691653534502667</v>
+        <v>0.8691653534502666</v>
       </c>
       <c r="D17">
-        <v>0.99124478288425</v>
+        <v>0.9912447828842494</v>
       </c>
       <c r="E17">
-        <v>0.8925817570290578</v>
+        <v>0.8925817570290577</v>
       </c>
       <c r="F17">
-        <v>0.906357152822574</v>
+        <v>0.9063571528225737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023569612163025</v>
+        <v>1.023569612163024</v>
       </c>
       <c r="J17">
-        <v>0.9027799220798949</v>
+        <v>0.9027799220798948</v>
       </c>
       <c r="K17">
-        <v>1.005408084214493</v>
+        <v>1.005408084214492</v>
       </c>
       <c r="L17">
         <v>0.9087776351645337</v>
       </c>
       <c r="M17">
-        <v>0.9222337518365685</v>
+        <v>0.9222337518365681</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8739600312344048</v>
+        <v>0.8739600312344076</v>
       </c>
       <c r="D18">
-        <v>0.9928988726347812</v>
+        <v>0.9928988726347823</v>
       </c>
       <c r="E18">
-        <v>0.8966402065163427</v>
+        <v>0.8966402065163452</v>
       </c>
       <c r="F18">
-        <v>0.9103201790321112</v>
+        <v>0.9103201790321133</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024585019983654</v>
+        <v>1.024585019983655</v>
       </c>
       <c r="J18">
-        <v>0.9068044947726758</v>
+        <v>0.9068044947726783</v>
       </c>
       <c r="K18">
-        <v>1.006841317013578</v>
+        <v>1.006841317013579</v>
       </c>
       <c r="L18">
-        <v>0.9125183139759127</v>
+        <v>0.912518313975915</v>
       </c>
       <c r="M18">
-        <v>0.9258899837135743</v>
+        <v>0.9258899837135763</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8755655659577751</v>
+        <v>0.875565565957776</v>
       </c>
       <c r="D19">
-        <v>0.9934546519255323</v>
+        <v>0.9934546519255331</v>
       </c>
       <c r="E19">
-        <v>0.8979999634847604</v>
+        <v>0.8979999634847612</v>
       </c>
       <c r="F19">
-        <v>0.9116490049507433</v>
+        <v>0.9116490049507442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02492525990171</v>
+        <v>1.024925259901711</v>
       </c>
       <c r="J19">
-        <v>0.9081524360747985</v>
+        <v>0.9081524360747992</v>
       </c>
       <c r="K19">
         <v>1.007322175386112</v>
       </c>
       <c r="L19">
-        <v>0.9137712496238969</v>
+        <v>0.9137712496238976</v>
       </c>
       <c r="M19">
-        <v>0.9271155975025607</v>
+        <v>0.9271155975025616</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8682689541339623</v>
+        <v>0.8682689541339614</v>
       </c>
       <c r="D20">
-        <v>0.9909364883874114</v>
+        <v>0.9909364883874113</v>
       </c>
       <c r="E20">
-        <v>0.8918233805332708</v>
+        <v>0.8918233805332703</v>
       </c>
       <c r="F20">
-        <v>0.9056171284700827</v>
+        <v>0.9056171284700824</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023379895820845</v>
       </c>
       <c r="J20">
-        <v>0.9020276465359862</v>
+        <v>0.9020276465359854</v>
       </c>
       <c r="K20">
         <v>1.005140603192749</v>
       </c>
       <c r="L20">
-        <v>0.9080784651456492</v>
+        <v>0.9080784651456485</v>
       </c>
       <c r="M20">
-        <v>0.921550848211136</v>
+        <v>0.9215508482111356</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8421358914711075</v>
+        <v>0.8421358914711091</v>
       </c>
       <c r="D21">
-        <v>0.9820852732409898</v>
+        <v>0.9820852732409906</v>
       </c>
       <c r="E21">
-        <v>0.8697700579739642</v>
+        <v>0.8697700579739659</v>
       </c>
       <c r="F21">
-        <v>0.8841726141971328</v>
+        <v>0.8841726141971342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017871990925531</v>
+        <v>1.017871990925532</v>
       </c>
       <c r="J21">
-        <v>0.8801208202889388</v>
+        <v>0.8801208202889403</v>
       </c>
       <c r="K21">
-        <v>0.9974141842091161</v>
+        <v>0.9974141842091166</v>
       </c>
       <c r="L21">
-        <v>0.8877242798814811</v>
+        <v>0.8877242798814826</v>
       </c>
       <c r="M21">
-        <v>0.901739549692733</v>
+        <v>0.9017395496927341</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.823240655196013</v>
+        <v>0.8232406551960131</v>
       </c>
       <c r="D22">
-        <v>0.9758585906509827</v>
+        <v>0.9758585906509822</v>
       </c>
       <c r="E22">
-        <v>0.8538980722973499</v>
+        <v>0.85389807229735</v>
       </c>
       <c r="F22">
-        <v>0.8688349514566279</v>
+        <v>0.8688349514566276</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.8643180217678376</v>
       </c>
       <c r="K22">
-        <v>0.9919239585371061</v>
+        <v>0.9919239585371056</v>
       </c>
       <c r="L22">
-        <v>0.873050100511585</v>
+        <v>0.8730501005115849</v>
       </c>
       <c r="M22">
-        <v>0.8875450107738417</v>
+        <v>0.8875450107738413</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8335430927766468</v>
+        <v>0.8335430927766452</v>
       </c>
       <c r="D23">
-        <v>0.9792349638710038</v>
+        <v>0.9792349638710039</v>
       </c>
       <c r="E23">
-        <v>0.8625439749113438</v>
+        <v>0.8625439749113425</v>
       </c>
       <c r="F23">
-        <v>0.8771792967683947</v>
+        <v>0.8771792967683938</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016073362242292</v>
       </c>
       <c r="J23">
-        <v>0.8729299618485491</v>
+        <v>0.8729299618485475</v>
       </c>
       <c r="K23">
-        <v>0.9949066696294876</v>
+        <v>0.9949066696294877</v>
       </c>
       <c r="L23">
-        <v>0.8810459936572314</v>
+        <v>0.8810459936572301</v>
       </c>
       <c r="M23">
-        <v>0.8952699631461554</v>
+        <v>0.8952699631461546</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8686745687146881</v>
+        <v>0.8686745687146866</v>
       </c>
       <c r="D24">
-        <v>0.9910759522503599</v>
+        <v>0.9910759522503597</v>
       </c>
       <c r="E24">
-        <v>0.8921665257603039</v>
+        <v>0.8921665257603022</v>
       </c>
       <c r="F24">
-        <v>0.905951949363764</v>
+        <v>0.9059519493637631</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023465736133174</v>
       </c>
       <c r="J24">
-        <v>0.9023680401536623</v>
+        <v>0.9023680401536609</v>
       </c>
       <c r="K24">
-        <v>1.005261617809433</v>
+        <v>1.005261617809432</v>
       </c>
       <c r="L24">
-        <v>0.9083948277072924</v>
+        <v>0.9083948277072907</v>
       </c>
       <c r="M24">
-        <v>0.9218598315603697</v>
+        <v>0.9218598315603688</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9021500100338272</v>
+        <v>0.9021500100338276</v>
       </c>
       <c r="D25">
-        <v>1.002789333302965</v>
+        <v>1.002789333302964</v>
       </c>
       <c r="E25">
-        <v>0.9205663321144825</v>
+        <v>0.9205663321144831</v>
       </c>
       <c r="F25">
         <v>0.9337747899969402</v>
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03056754199197</v>
+        <v>1.030567541991969</v>
       </c>
       <c r="J25">
-        <v>0.9304874547708882</v>
+        <v>0.9304874547708883</v>
       </c>
       <c r="K25">
         <v>1.0153445022365</v>
       </c>
       <c r="L25">
-        <v>0.934537084321443</v>
+        <v>0.9345370843214433</v>
       </c>
       <c r="M25">
-        <v>0.9474962253798511</v>
+        <v>0.9474962253798513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9251291370133088</v>
+        <v>0.9293484591494009</v>
       </c>
       <c r="D2">
-        <v>1.01104339010653</v>
+        <v>1.012012576442402</v>
       </c>
       <c r="E2">
-        <v>0.940142695945144</v>
+        <v>0.943770075524504</v>
       </c>
       <c r="F2">
-        <v>0.9530723981670529</v>
+        <v>0.9559276166961832</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035437388845155</v>
+        <v>1.036202099096927</v>
       </c>
       <c r="J2">
-        <v>0.9498056190332382</v>
+        <v>0.9538692336714402</v>
       </c>
       <c r="K2">
-        <v>1.022350987394999</v>
+        <v>1.023307055806973</v>
       </c>
       <c r="L2">
-        <v>0.9525041106684287</v>
+        <v>0.9560726446890851</v>
       </c>
       <c r="M2">
-        <v>0.9652266796711498</v>
+        <v>0.9680371235716848</v>
+      </c>
+      <c r="N2">
+        <v>0.9552238373935841</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9402645640661564</v>
+        <v>0.9444066909006789</v>
       </c>
       <c r="D3">
-        <v>1.016562984388011</v>
+        <v>1.01751167891276</v>
       </c>
       <c r="E3">
-        <v>0.9530676128847302</v>
+        <v>0.9566348228189129</v>
       </c>
       <c r="F3">
-        <v>0.9658613268076655</v>
+        <v>0.9686569236455769</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038626175472833</v>
+        <v>1.039377235791756</v>
       </c>
       <c r="J3">
-        <v>0.9625276359866626</v>
+        <v>0.9665368280550929</v>
       </c>
       <c r="K3">
-        <v>1.026988235764571</v>
+        <v>1.027925292288693</v>
       </c>
       <c r="L3">
-        <v>0.9643384395615512</v>
+        <v>0.9678543796714681</v>
       </c>
       <c r="M3">
-        <v>0.9769504930869667</v>
+        <v>0.9797072005592884</v>
+      </c>
+      <c r="N3">
+        <v>0.9679094212142549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9494763192196283</v>
+        <v>0.9535772398257721</v>
       </c>
       <c r="D4">
-        <v>1.019951083532117</v>
+        <v>1.020888726758664</v>
       </c>
       <c r="E4">
-        <v>0.9609445898670859</v>
+        <v>0.9644798207899835</v>
       </c>
       <c r="F4">
-        <v>0.9736729386596782</v>
+        <v>0.976436386371585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040554481486566</v>
+        <v>1.04129831064611</v>
       </c>
       <c r="J4">
-        <v>0.9702670933768353</v>
+        <v>0.9742479033903521</v>
       </c>
       <c r="K4">
-        <v>1.029814535149358</v>
+        <v>1.030741414300758</v>
       </c>
       <c r="L4">
-        <v>0.9715384116661219</v>
+        <v>0.9750267294131117</v>
       </c>
       <c r="M4">
-        <v>0.9840998482878172</v>
+        <v>0.9868277765215598</v>
+      </c>
+      <c r="N4">
+        <v>0.9756314471609626</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9532254440361881</v>
+        <v>0.9573107561116192</v>
       </c>
       <c r="D5">
-        <v>1.021335748509465</v>
+        <v>1.022269183488767</v>
       </c>
       <c r="E5">
-        <v>0.9641525857639505</v>
+        <v>0.967675738389644</v>
       </c>
       <c r="F5">
-        <v>0.9768579611896443</v>
+        <v>0.9796091609867648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041335828161182</v>
+        <v>1.042076934386275</v>
       </c>
       <c r="J5">
-        <v>0.9734158821233374</v>
+        <v>0.9773860984262318</v>
       </c>
       <c r="K5">
-        <v>1.030964992335061</v>
+        <v>1.031888013843556</v>
       </c>
       <c r="L5">
-        <v>0.9744677923653848</v>
+        <v>0.9779457552464518</v>
       </c>
       <c r="M5">
-        <v>0.987012111546575</v>
+        <v>0.9897291218102398</v>
+      </c>
+      <c r="N5">
+        <v>0.9787740987937498</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9538481007080343</v>
+        <v>0.9579308834664894</v>
       </c>
       <c r="D6">
-        <v>1.021566021056569</v>
+        <v>1.022498772924969</v>
       </c>
       <c r="E6">
-        <v>0.9646854852333357</v>
+        <v>0.9682066827347658</v>
       </c>
       <c r="F6">
-        <v>0.9773872448051644</v>
+        <v>0.9801364558967774</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041465378292793</v>
+        <v>1.042206044318313</v>
       </c>
       <c r="J6">
-        <v>0.9739387610778271</v>
+        <v>0.9779072699575643</v>
       </c>
       <c r="K6">
-        <v>1.031156050391707</v>
+        <v>1.03207844675177</v>
       </c>
       <c r="L6">
-        <v>0.9749542405701241</v>
+        <v>0.9784305319051683</v>
       </c>
       <c r="M6">
-        <v>0.9874959086888383</v>
+        <v>0.9902111489047787</v>
+      </c>
+      <c r="N6">
+        <v>0.9792960104484356</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9495268818130809</v>
+        <v>0.9536275875445176</v>
       </c>
       <c r="D7">
-        <v>1.019969736437097</v>
+        <v>1.020907321815036</v>
       </c>
       <c r="E7">
-        <v>0.9609878465997337</v>
+        <v>0.9645229111010705</v>
       </c>
       <c r="F7">
-        <v>0.9737158717689038</v>
+        <v>0.9764791511479232</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040565033481609</v>
+        <v>1.04130882508577</v>
       </c>
       <c r="J7">
-        <v>0.9703095643476611</v>
+        <v>0.9742902278828536</v>
       </c>
       <c r="K7">
-        <v>1.029830051066915</v>
+        <v>1.030756877116808</v>
       </c>
       <c r="L7">
-        <v>0.9715779229890946</v>
+        <v>0.9750660977425072</v>
       </c>
       <c r="M7">
-        <v>0.9841391155062938</v>
+        <v>0.9868668934983051</v>
+      </c>
+      <c r="N7">
+        <v>0.9756738317590984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9303752698664657</v>
+        <v>0.9345664278125959</v>
       </c>
       <c r="D8">
-        <v>1.012949556138415</v>
+        <v>1.013911296427254</v>
       </c>
       <c r="E8">
-        <v>0.9446200610035314</v>
+        <v>0.9482254565744408</v>
       </c>
       <c r="F8">
-        <v>0.9574985004320294</v>
+        <v>0.960332048262499</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03654502758191</v>
+        <v>1.037304746884252</v>
       </c>
       <c r="J8">
-        <v>0.9542157706793082</v>
+        <v>0.9582593696436853</v>
       </c>
       <c r="K8">
-        <v>1.023956928602076</v>
+        <v>1.024906070682254</v>
       </c>
       <c r="L8">
-        <v>0.9566063894548972</v>
+        <v>0.9601556282465583</v>
       </c>
       <c r="M8">
-        <v>0.9692867123778135</v>
+        <v>0.9720775779007821</v>
+      </c>
+      <c r="N8">
+        <v>0.9596202078624652</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8912363749077086</v>
+        <v>0.8956795384239449</v>
       </c>
       <c r="D9">
-        <v>0.998927796274977</v>
+        <v>0.9999551313162337</v>
       </c>
       <c r="E9">
-        <v>0.9112908786345485</v>
+        <v>0.9150937068131129</v>
       </c>
       <c r="F9">
-        <v>0.9246642230111015</v>
+        <v>0.927689146740499</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028250227827109</v>
+        <v>1.029054749138709</v>
       </c>
       <c r="J9">
-        <v>0.9213152972768028</v>
+        <v>0.9255423221331412</v>
       </c>
       <c r="K9">
-        <v>1.01203829322244</v>
+        <v>1.013048936525417</v>
       </c>
       <c r="L9">
-        <v>0.9260082638276336</v>
+        <v>0.9297329385156169</v>
       </c>
       <c r="M9">
-        <v>0.939110505957501</v>
+        <v>0.9420755322344109</v>
+      </c>
+      <c r="N9">
+        <v>0.9268566983917585</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8596324902871549</v>
+        <v>0.8643682344192281</v>
       </c>
       <c r="D10">
-        <v>0.9879817861183181</v>
+        <v>0.9890830825411469</v>
       </c>
       <c r="E10">
-        <v>0.884523013455944</v>
+        <v>0.8885559515819496</v>
       </c>
       <c r="F10">
-        <v>0.898501989913074</v>
+        <v>0.9017441096389435</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021554343719763</v>
+        <v>1.022410795796181</v>
       </c>
       <c r="J10">
-        <v>0.8947823547971817</v>
+        <v>0.89922958109121</v>
       </c>
       <c r="K10">
-        <v>1.002571477320184</v>
+        <v>1.003652283072502</v>
       </c>
       <c r="L10">
-        <v>0.9013453190572568</v>
+        <v>0.9052780945883336</v>
       </c>
       <c r="M10">
-        <v>0.9149822689696223</v>
+        <v>0.9181470939152063</v>
+      </c>
+      <c r="N10">
+        <v>0.9005065902394345</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8439195670105887</v>
+        <v>0.8488418036629043</v>
       </c>
       <c r="D11">
-        <v>0.9826807568204291</v>
+        <v>0.9838283495593985</v>
       </c>
       <c r="E11">
-        <v>0.871271671460274</v>
+        <v>0.8754513865201333</v>
       </c>
       <c r="F11">
-        <v>0.8856279932784044</v>
+        <v>0.889006722115288</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018246227840293</v>
+        <v>1.019135620312553</v>
       </c>
       <c r="J11">
-        <v>0.8816143297196462</v>
+        <v>0.8862040436522571</v>
       </c>
       <c r="K11">
-        <v>0.9979368503491662</v>
+        <v>0.9990618222120281</v>
       </c>
       <c r="L11">
-        <v>0.8891115254622703</v>
+        <v>0.8931781337280225</v>
       </c>
       <c r="M11">
-        <v>0.9030853980548977</v>
+        <v>0.9063765474747743</v>
+      </c>
+      <c r="N11">
+        <v>0.887462555043268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8376749612428143</v>
+        <v>0.8426807849690554</v>
       </c>
       <c r="D12">
-        <v>0.9806017115075247</v>
+        <v>0.9817698881231267</v>
       </c>
       <c r="E12">
-        <v>0.8660170047873972</v>
+        <v>0.8702625038515815</v>
       </c>
       <c r="F12">
-        <v>0.8805383104776755</v>
+        <v>0.8839779109370416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016937332702356</v>
+        <v>1.017841447555583</v>
       </c>
       <c r="J12">
-        <v>0.8763868407451011</v>
+        <v>0.88104078139093</v>
       </c>
       <c r="K12">
-        <v>0.9961102335577212</v>
+        <v>0.9972548854700748</v>
       </c>
       <c r="L12">
-        <v>0.8842562645802379</v>
+        <v>0.8883830467414683</v>
       </c>
       <c r="M12">
-        <v>0.8983779505022296</v>
+        <v>0.9017255055118603</v>
+      </c>
+      <c r="N12">
+        <v>0.8822919603572953</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8390352154721273</v>
+        <v>0.8440223280492019</v>
       </c>
       <c r="D13">
-        <v>0.9810532165592512</v>
+        <v>0.9822167935049027</v>
       </c>
       <c r="E13">
-        <v>0.8671610350394761</v>
+        <v>0.8713918087086022</v>
       </c>
       <c r="F13">
-        <v>0.8816456558929183</v>
+        <v>0.8850716474659525</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01722213281904</v>
+        <v>1.018122954214212</v>
       </c>
       <c r="J13">
-        <v>0.8775252353957078</v>
+        <v>0.882164782018995</v>
       </c>
       <c r="K13">
-        <v>0.9965073488427046</v>
+        <v>0.9976476010342682</v>
       </c>
       <c r="L13">
-        <v>0.8853135289996763</v>
+        <v>0.8894268326260525</v>
       </c>
       <c r="M13">
-        <v>0.8994023270090925</v>
+        <v>0.9027372661027292</v>
+      </c>
+      <c r="N13">
+        <v>0.8834175571951768</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8434125143192415</v>
+        <v>0.8483413221083642</v>
       </c>
       <c r="D14">
-        <v>0.9825113439551144</v>
+        <v>0.9836605583248191</v>
       </c>
       <c r="E14">
-        <v>0.8708447454434659</v>
+        <v>0.8750296322430439</v>
       </c>
       <c r="F14">
-        <v>0.8852141385603997</v>
+        <v>0.8885976601762633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018139812679868</v>
+        <v>1.019030363457439</v>
       </c>
       <c r="J14">
-        <v>0.8811897353039563</v>
+        <v>0.8857844911604613</v>
       </c>
       <c r="K14">
-        <v>0.9977881959010595</v>
+        <v>0.9989147173197976</v>
       </c>
       <c r="L14">
-        <v>0.8887171345009888</v>
+        <v>0.8927884696168122</v>
       </c>
       <c r="M14">
-        <v>0.9027027086961399</v>
+        <v>0.9059982969001921</v>
+      </c>
+      <c r="N14">
+        <v>0.8870424067388104</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8460513899046384</v>
+        <v>0.8509464009077775</v>
       </c>
       <c r="D15">
-        <v>0.983394171765168</v>
+        <v>0.9845350391971417</v>
       </c>
       <c r="E15">
-        <v>0.8730670997516407</v>
+        <v>0.8772253869579392</v>
       </c>
       <c r="F15">
-        <v>0.8873690875523129</v>
+        <v>0.8907279448232915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018693883004825</v>
+        <v>1.019578474677271</v>
       </c>
       <c r="J15">
-        <v>0.8833997128448374</v>
+        <v>0.8879685509661902</v>
       </c>
       <c r="K15">
-        <v>0.9985624822780411</v>
+        <v>0.9996810294256867</v>
       </c>
       <c r="L15">
-        <v>0.8907699625453962</v>
+        <v>0.8948169936530369</v>
       </c>
       <c r="M15">
-        <v>0.9046952134494275</v>
+        <v>0.9079679635537118</v>
+      </c>
+      <c r="N15">
+        <v>0.8892295681599786</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8606249044273605</v>
+        <v>0.8653499029684336</v>
       </c>
       <c r="D16">
-        <v>0.9883198582615426</v>
+        <v>0.9894184695752678</v>
       </c>
       <c r="E16">
-        <v>0.885361306955737</v>
+        <v>0.8893857886081171</v>
       </c>
       <c r="F16">
-        <v>0.8993182154285124</v>
+        <v>0.9025524261177672</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021763888456976</v>
+        <v>1.022618438538996</v>
       </c>
       <c r="J16">
-        <v>0.8956146585331598</v>
+        <v>0.9000537153032608</v>
       </c>
       <c r="K16">
-        <v>1.002865944447271</v>
+        <v>1.003944193456849</v>
       </c>
       <c r="L16">
-        <v>0.9021187257153632</v>
+        <v>0.9060438116563314</v>
       </c>
       <c r="M16">
-        <v>0.9157360353559095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9188935595591105</v>
+      </c>
+      <c r="N16">
+        <v>0.9013318948165954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8691653534502666</v>
+        <v>0.873802427386792</v>
       </c>
       <c r="D17">
-        <v>0.9912447828842494</v>
+        <v>0.992321342293573</v>
       </c>
       <c r="E17">
-        <v>0.8925817570290577</v>
+        <v>0.896537053134801</v>
       </c>
       <c r="F17">
-        <v>0.9063571528225737</v>
+        <v>0.9095264733885575</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023569612163024</v>
+        <v>1.024408583247987</v>
       </c>
       <c r="J17">
-        <v>0.9027799220798948</v>
+        <v>0.9071523332828435</v>
       </c>
       <c r="K17">
-        <v>1.005408084214492</v>
+        <v>1.006465359179331</v>
       </c>
       <c r="L17">
-        <v>0.9087776351645337</v>
+        <v>0.9126399129906481</v>
       </c>
       <c r="M17">
-        <v>0.9222337518365681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9253314393021485</v>
+      </c>
+      <c r="N17">
+        <v>0.9084405936479318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8739600312344076</v>
+        <v>0.8785511117901782</v>
       </c>
       <c r="D18">
-        <v>0.9928988726347823</v>
+        <v>0.993963834943672</v>
       </c>
       <c r="E18">
-        <v>0.8966402065163452</v>
+        <v>0.9005593205796409</v>
       </c>
       <c r="F18">
-        <v>0.9103201790321133</v>
+        <v>0.9134554219352634</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024585019983655</v>
+        <v>1.025415830567582</v>
       </c>
       <c r="J18">
-        <v>0.9068044947726783</v>
+        <v>0.9111422021584925</v>
       </c>
       <c r="K18">
-        <v>1.006841317013579</v>
+        <v>1.007887580298451</v>
       </c>
       <c r="L18">
-        <v>0.912518313975915</v>
+        <v>0.9163478260592059</v>
       </c>
       <c r="M18">
-        <v>0.9258899837135763</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9289562963824977</v>
+      </c>
+      <c r="N18">
+        <v>0.9124361285950289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.875565565957776</v>
+        <v>0.8801417546431515</v>
       </c>
       <c r="D19">
-        <v>0.9934546519255331</v>
+        <v>0.9945158495394661</v>
       </c>
       <c r="E19">
-        <v>0.8979999634847612</v>
+        <v>0.9019073642427954</v>
       </c>
       <c r="F19">
-        <v>0.9116490049507442</v>
+        <v>0.914773192883196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024925259901711</v>
+        <v>1.025753426698031</v>
       </c>
       <c r="J19">
-        <v>0.9081524360747992</v>
+        <v>0.9124789330591093</v>
       </c>
       <c r="K19">
-        <v>1.007322175386112</v>
+        <v>1.008364867057376</v>
       </c>
       <c r="L19">
-        <v>0.9137712496238976</v>
+        <v>0.9175901676480376</v>
       </c>
       <c r="M19">
-        <v>0.9271155975025616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9301717400260854</v>
+      </c>
+      <c r="N19">
+        <v>0.9137747578068498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8682689541339614</v>
+        <v>0.8729148872329862</v>
       </c>
       <c r="D20">
-        <v>0.9909364883874113</v>
+        <v>0.9920152765562327</v>
       </c>
       <c r="E20">
-        <v>0.8918233805332703</v>
+        <v>0.8957856467973495</v>
       </c>
       <c r="F20">
-        <v>0.9056171284700824</v>
+        <v>0.9087930020543504</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023379895820845</v>
+        <v>1.024220437908001</v>
       </c>
       <c r="J20">
-        <v>0.9020276465359854</v>
+        <v>0.9064067555732882</v>
       </c>
       <c r="K20">
-        <v>1.005140603192749</v>
+        <v>1.006199995952997</v>
       </c>
       <c r="L20">
-        <v>0.9080784651456485</v>
+        <v>0.9119470617678106</v>
       </c>
       <c r="M20">
-        <v>0.9215508482111356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9246545730139517</v>
+      </c>
+      <c r="N20">
+        <v>0.9076939571325103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8421358914711091</v>
+        <v>0.8470814092023917</v>
       </c>
       <c r="D21">
-        <v>0.9820852732409906</v>
+        <v>0.9832386085938047</v>
       </c>
       <c r="E21">
-        <v>0.8697700579739659</v>
+        <v>0.8739680960336801</v>
       </c>
       <c r="F21">
-        <v>0.8841726141971342</v>
+        <v>0.8875683176930039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017871990925532</v>
+        <v>1.01876548648244</v>
       </c>
       <c r="J21">
-        <v>0.8801208202889403</v>
+        <v>0.8847284031430517</v>
       </c>
       <c r="K21">
-        <v>0.9974141842091166</v>
+        <v>0.9985446441400665</v>
       </c>
       <c r="L21">
-        <v>0.8877242798814826</v>
+        <v>0.8918076379900634</v>
       </c>
       <c r="M21">
-        <v>0.9017395496927341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9050464218898431</v>
+      </c>
+      <c r="N21">
+        <v>0.8859848189552808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8232406551960131</v>
+        <v>0.8284641356452134</v>
       </c>
       <c r="D22">
-        <v>0.9758585906509822</v>
+        <v>0.9770799664676887</v>
       </c>
       <c r="E22">
-        <v>0.85389807229735</v>
+        <v>0.8583148309344742</v>
       </c>
       <c r="F22">
-        <v>0.8688349514566276</v>
+        <v>0.8724321964072681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013927067302424</v>
+        <v>1.014869405279618</v>
       </c>
       <c r="J22">
-        <v>0.8643180217678376</v>
+        <v>0.869140004418981</v>
       </c>
       <c r="K22">
-        <v>0.9919239585371056</v>
+        <v>0.9931195704483903</v>
       </c>
       <c r="L22">
-        <v>0.8730501005115849</v>
+        <v>0.8773339679091027</v>
       </c>
       <c r="M22">
-        <v>0.8875450107738413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8910389093039898</v>
+      </c>
+      <c r="N22">
+        <v>0.8703742829170078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8335430927766452</v>
+        <v>0.8386075592108824</v>
       </c>
       <c r="D23">
-        <v>0.9792349638710039</v>
+        <v>0.9804175277519205</v>
       </c>
       <c r="E23">
-        <v>0.8625439749113425</v>
+        <v>0.866835622480742</v>
       </c>
       <c r="F23">
-        <v>0.8771792967683938</v>
+        <v>0.8806614873904628</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016073362242292</v>
+        <v>1.016987791172636</v>
       </c>
       <c r="J23">
-        <v>0.8729299618485475</v>
+        <v>0.877629072634719</v>
       </c>
       <c r="K23">
-        <v>0.9949066696294877</v>
+        <v>0.9960650903884557</v>
       </c>
       <c r="L23">
-        <v>0.8810459936572301</v>
+        <v>0.8852150477807604</v>
       </c>
       <c r="M23">
-        <v>0.8952699631461546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8986570198464247</v>
+      </c>
+      <c r="N23">
+        <v>0.8788754065833222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8686745687146866</v>
+        <v>0.87331648272482</v>
       </c>
       <c r="D24">
-        <v>0.9910759522503597</v>
+        <v>0.9921537295071705</v>
       </c>
       <c r="E24">
-        <v>0.8921665257603022</v>
+        <v>0.8961256298801001</v>
       </c>
       <c r="F24">
-        <v>0.9059519493637631</v>
+        <v>0.9091248505026691</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023465736133174</v>
+        <v>1.024305565547145</v>
       </c>
       <c r="J24">
-        <v>0.9023680401536609</v>
+        <v>0.9067441101104026</v>
       </c>
       <c r="K24">
-        <v>1.005261617809432</v>
+        <v>1.006320049928768</v>
       </c>
       <c r="L24">
-        <v>0.9083948277072907</v>
+        <v>0.912260557427376</v>
       </c>
       <c r="M24">
-        <v>0.9218598315603688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.924960817673219</v>
+      </c>
+      <c r="N24">
+        <v>0.9080317907517623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9021500100338276</v>
+        <v>0.9065124327601399</v>
       </c>
       <c r="D25">
-        <v>1.002789333302964</v>
+        <v>1.00379588370188</v>
       </c>
       <c r="E25">
-        <v>0.9205663321144831</v>
+        <v>0.9243057698650072</v>
       </c>
       <c r="F25">
-        <v>0.9337747899969402</v>
+        <v>0.9367389466422782</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030567541991969</v>
+        <v>1.031357694461476</v>
       </c>
       <c r="J25">
-        <v>0.9304874547708883</v>
+        <v>0.9346548275938811</v>
       </c>
       <c r="K25">
-        <v>1.0153445022365</v>
+        <v>1.016335557874051</v>
       </c>
       <c r="L25">
-        <v>0.9345370843214433</v>
+        <v>0.9382049923968497</v>
       </c>
       <c r="M25">
-        <v>0.9474962253798513</v>
+        <v>0.950405690266748</v>
+      </c>
+      <c r="N25">
+        <v>0.9359821446554715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9293484591494009</v>
+        <v>0.9245148410317695</v>
       </c>
       <c r="D2">
-        <v>1.012012576442402</v>
+        <v>1.022554345153095</v>
       </c>
       <c r="E2">
-        <v>0.943770075524504</v>
+        <v>0.9393492840417964</v>
       </c>
       <c r="F2">
-        <v>0.9559276166961832</v>
+        <v>0.9479984625961263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036202099096927</v>
+        <v>1.035606114065723</v>
       </c>
       <c r="J2">
-        <v>0.9538692336714402</v>
+        <v>0.9492141594775998</v>
       </c>
       <c r="K2">
-        <v>1.023307055806973</v>
+        <v>1.033708156245983</v>
       </c>
       <c r="L2">
-        <v>0.9560726446890851</v>
+        <v>0.9517236478275942</v>
       </c>
       <c r="M2">
-        <v>0.9680371235716848</v>
+        <v>0.9602331649268325</v>
       </c>
       <c r="N2">
-        <v>0.9552238373935841</v>
+        <v>0.950562152460444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9444066909006789</v>
+        <v>0.9403040718207796</v>
       </c>
       <c r="D3">
-        <v>1.01751167891276</v>
+        <v>1.026680517042835</v>
       </c>
       <c r="E3">
-        <v>0.9566348228189129</v>
+        <v>0.952873847769231</v>
       </c>
       <c r="F3">
-        <v>0.9686569236455769</v>
+        <v>0.9622275271545127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039377235791756</v>
+        <v>1.038258402862813</v>
       </c>
       <c r="J3">
-        <v>0.9665368280550929</v>
+        <v>0.9625658681327108</v>
       </c>
       <c r="K3">
-        <v>1.027925292288693</v>
+        <v>1.036983028089943</v>
       </c>
       <c r="L3">
-        <v>0.9678543796714681</v>
+        <v>0.9641474732692874</v>
       </c>
       <c r="M3">
-        <v>0.9797072005592884</v>
+        <v>0.9733676697523819</v>
       </c>
       <c r="N3">
-        <v>0.9679094212142549</v>
+        <v>0.9639328220733075</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9535772398257721</v>
+        <v>0.9498847324673784</v>
       </c>
       <c r="D4">
-        <v>1.020888726758664</v>
+        <v>1.029223974448002</v>
       </c>
       <c r="E4">
-        <v>0.9644798207899835</v>
+        <v>0.9610912266110297</v>
       </c>
       <c r="F4">
-        <v>0.976436386371585</v>
+        <v>0.9708819001741958</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04129831064611</v>
+        <v>1.039860533392432</v>
       </c>
       <c r="J4">
-        <v>0.9742479033903521</v>
+        <v>0.9706634808838772</v>
       </c>
       <c r="K4">
-        <v>1.030741414300758</v>
+        <v>1.038982035990103</v>
       </c>
       <c r="L4">
-        <v>0.9750267294131117</v>
+        <v>0.9716830938991983</v>
       </c>
       <c r="M4">
-        <v>0.9868277765215598</v>
+        <v>0.9813449408322144</v>
       </c>
       <c r="N4">
-        <v>0.9756314471609626</v>
+        <v>0.9720419343633898</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9573107561116192</v>
+        <v>0.9537783449564669</v>
       </c>
       <c r="D5">
-        <v>1.022269183488767</v>
+        <v>1.030265945516589</v>
       </c>
       <c r="E5">
-        <v>0.967675738389644</v>
+        <v>0.9644329400173488</v>
       </c>
       <c r="F5">
-        <v>0.9796091609867648</v>
+        <v>0.9744031841362162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042076934386275</v>
+        <v>1.040509476541143</v>
       </c>
       <c r="J5">
-        <v>0.9773860984262318</v>
+        <v>0.9739531272460031</v>
       </c>
       <c r="K5">
-        <v>1.031888013843556</v>
+        <v>1.03979651304717</v>
       </c>
       <c r="L5">
-        <v>0.9779457552464518</v>
+        <v>0.9747445355316816</v>
       </c>
       <c r="M5">
-        <v>0.9897291218102398</v>
+        <v>0.9845880435634617</v>
       </c>
       <c r="N5">
-        <v>0.9787740987937498</v>
+        <v>0.9753362524006777</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9579308834664894</v>
+        <v>0.9544246969377295</v>
       </c>
       <c r="D6">
-        <v>1.022498772924969</v>
+        <v>1.030439372230424</v>
       </c>
       <c r="E6">
-        <v>0.9682066827347658</v>
+        <v>0.9649877892386242</v>
       </c>
       <c r="F6">
-        <v>0.9801364558967774</v>
+        <v>0.9749879510053671</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042206044318313</v>
+        <v>1.040617064062334</v>
       </c>
       <c r="J6">
-        <v>0.9779072699575643</v>
+        <v>0.9744991378259321</v>
       </c>
       <c r="K6">
-        <v>1.03207844675177</v>
+        <v>1.039931820500591</v>
       </c>
       <c r="L6">
-        <v>0.9784305319051683</v>
+        <v>0.9752526731914274</v>
       </c>
       <c r="M6">
-        <v>0.9902111489047787</v>
+        <v>0.9851264570547522</v>
       </c>
       <c r="N6">
-        <v>0.9792960104484356</v>
+        <v>0.9758830383782584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9536275875445176</v>
+        <v>0.9499372647205458</v>
       </c>
       <c r="D7">
-        <v>1.020907321815036</v>
+        <v>1.02923800107112</v>
       </c>
       <c r="E7">
-        <v>0.9645229111010705</v>
+        <v>0.9611363047146545</v>
       </c>
       <c r="F7">
-        <v>0.9764791511479232</v>
+        <v>0.9709293935299634</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04130882508577</v>
+        <v>1.03986929803586</v>
       </c>
       <c r="J7">
-        <v>0.9742902278828536</v>
+        <v>0.9707078698110284</v>
       </c>
       <c r="K7">
-        <v>1.030756877116808</v>
+        <v>1.038993017524519</v>
       </c>
       <c r="L7">
-        <v>0.9750660977425072</v>
+        <v>0.9717244032172774</v>
       </c>
       <c r="M7">
-        <v>0.9868668934983051</v>
+        <v>0.9813886928426314</v>
       </c>
       <c r="N7">
-        <v>0.9756738317590984</v>
+        <v>0.9720863863279088</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9345664278125959</v>
+        <v>0.9299947983740989</v>
       </c>
       <c r="D8">
-        <v>1.013911296427254</v>
+        <v>1.023976976475513</v>
       </c>
       <c r="E8">
-        <v>0.9482254565744408</v>
+        <v>0.944040566106917</v>
       </c>
       <c r="F8">
-        <v>0.960332048262499</v>
+        <v>0.9529319850266451</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037304746884252</v>
+        <v>1.036527909920877</v>
       </c>
       <c r="J8">
-        <v>0.9582593696436853</v>
+        <v>0.953848786741235</v>
       </c>
       <c r="K8">
-        <v>1.024906070682254</v>
+        <v>1.034841671022125</v>
       </c>
       <c r="L8">
-        <v>0.9601556282465583</v>
+        <v>0.9560359718123742</v>
       </c>
       <c r="M8">
-        <v>0.9720775779007821</v>
+        <v>0.9647896646701021</v>
       </c>
       <c r="N8">
-        <v>0.9596202078624652</v>
+        <v>0.9552033614263927</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8956795384239449</v>
+        <v>0.8888864762160177</v>
       </c>
       <c r="D9">
-        <v>0.9999551313162337</v>
+        <v>1.013561169806948</v>
       </c>
       <c r="E9">
-        <v>0.9150937068131129</v>
+        <v>0.9089279495636752</v>
       </c>
       <c r="F9">
-        <v>0.927689146740499</v>
+        <v>0.916065237253798</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029054749138709</v>
+        <v>1.029603830117095</v>
       </c>
       <c r="J9">
-        <v>0.9255423221331412</v>
+        <v>0.9190809731744121</v>
       </c>
       <c r="K9">
-        <v>1.013048936525417</v>
+        <v>1.026437992439023</v>
       </c>
       <c r="L9">
-        <v>0.9297329385156169</v>
+        <v>0.9236943315780355</v>
       </c>
       <c r="M9">
-        <v>0.9420755322344109</v>
+        <v>0.9306846398016012</v>
       </c>
       <c r="N9">
-        <v>0.9268566983917585</v>
+        <v>0.9203861735763805</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8643682344192281</v>
+        <v>0.8551841886069268</v>
       </c>
       <c r="D10">
-        <v>0.9890830825411469</v>
+        <v>1.00548567765629</v>
       </c>
       <c r="E10">
-        <v>0.8885559515819496</v>
+        <v>0.8803014375913378</v>
       </c>
       <c r="F10">
-        <v>0.9017441096389435</v>
+        <v>0.886119941981704</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022410795796181</v>
+        <v>1.023956585301547</v>
       </c>
       <c r="J10">
-        <v>0.89922958109121</v>
+        <v>0.8906093531401311</v>
       </c>
       <c r="K10">
-        <v>1.003652283072502</v>
+        <v>1.019756587871725</v>
       </c>
       <c r="L10">
-        <v>0.9052780945883336</v>
+        <v>0.8972299190684019</v>
       </c>
       <c r="M10">
-        <v>0.9181470939152063</v>
+        <v>0.9029024390688828</v>
       </c>
       <c r="N10">
-        <v>0.9005065902394345</v>
+        <v>0.8918741205759109</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8488418036629043</v>
+        <v>0.838176598574171</v>
       </c>
       <c r="D11">
-        <v>0.9838283495593985</v>
+        <v>1.00157796536528</v>
       </c>
       <c r="E11">
-        <v>0.8754513865201333</v>
+        <v>0.865921287809483</v>
       </c>
       <c r="F11">
-        <v>0.889006722115288</v>
+        <v>0.8711205851495804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019135620312553</v>
+        <v>1.021133865625437</v>
       </c>
       <c r="J11">
-        <v>0.8862040436522571</v>
+        <v>0.8762666753430169</v>
       </c>
       <c r="K11">
-        <v>0.9990618222120281</v>
+        <v>1.016470184798235</v>
       </c>
       <c r="L11">
-        <v>0.8931781337280225</v>
+        <v>0.8839081024105476</v>
       </c>
       <c r="M11">
-        <v>0.9063765474747743</v>
+        <v>0.8889645553618123</v>
       </c>
       <c r="N11">
-        <v>0.887462555043268</v>
+        <v>0.8775110745311964</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8426807849690554</v>
+        <v>0.8313565303403342</v>
       </c>
       <c r="D12">
-        <v>0.9817698881231267</v>
+        <v>1.00004340967038</v>
       </c>
       <c r="E12">
-        <v>0.8702625038515815</v>
+        <v>0.860168677112378</v>
       </c>
       <c r="F12">
-        <v>0.8839779109370416</v>
+        <v>0.8651291439393923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017841447555583</v>
+        <v>1.020008717464511</v>
       </c>
       <c r="J12">
-        <v>0.88104078139093</v>
+        <v>0.8705215947217898</v>
       </c>
       <c r="K12">
-        <v>0.9972548854700748</v>
+        <v>1.015169778066696</v>
       </c>
       <c r="L12">
-        <v>0.8883830467414683</v>
+        <v>0.8785741025080408</v>
       </c>
       <c r="M12">
-        <v>0.9017255055118603</v>
+        <v>0.8833934323873012</v>
       </c>
       <c r="N12">
-        <v>0.8822919603572953</v>
+        <v>0.8717578352365173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8440223280492019</v>
+        <v>0.8328454457307835</v>
       </c>
       <c r="D13">
-        <v>0.9822167935049027</v>
+        <v>1.000376824682935</v>
       </c>
       <c r="E13">
-        <v>0.8713918087086022</v>
+        <v>0.8614238470010277</v>
       </c>
       <c r="F13">
-        <v>0.8850716474659525</v>
+        <v>0.8664359756965181</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018122954214212</v>
+        <v>1.020253993928262</v>
       </c>
       <c r="J13">
-        <v>0.882164782018995</v>
+        <v>0.8717754853187095</v>
       </c>
       <c r="K13">
-        <v>0.9976476010342682</v>
+        <v>1.01545279922655</v>
       </c>
       <c r="L13">
-        <v>0.8894268326260525</v>
+        <v>0.8797381604674585</v>
       </c>
       <c r="M13">
-        <v>0.9027372661027292</v>
+        <v>0.8846087586685005</v>
       </c>
       <c r="N13">
-        <v>0.8834175571951768</v>
+        <v>0.8730135065019077</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8483413221083642</v>
+        <v>0.8376242317998374</v>
       </c>
       <c r="D14">
-        <v>0.9836605583248191</v>
+        <v>1.001452983191467</v>
       </c>
       <c r="E14">
-        <v>0.8750296322430439</v>
+        <v>0.8654550712023483</v>
       </c>
       <c r="F14">
-        <v>0.8885976601762633</v>
+        <v>0.8706348182666648</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019030363457439</v>
+        <v>1.021042584328541</v>
       </c>
       <c r="J14">
-        <v>0.8857844911604613</v>
+        <v>0.8758012277379622</v>
       </c>
       <c r="K14">
-        <v>0.9989147173197976</v>
+        <v>1.016364483263279</v>
       </c>
       <c r="L14">
-        <v>0.8927884696168122</v>
+        <v>0.8834759108184038</v>
       </c>
       <c r="M14">
-        <v>0.9059982969001921</v>
+        <v>0.8885129426052879</v>
       </c>
       <c r="N14">
-        <v>0.8870424067388104</v>
+        <v>0.8770449659371549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8509464009077775</v>
+        <v>0.8404963346449591</v>
       </c>
       <c r="D15">
-        <v>0.9845350391971417</v>
+        <v>1.0021041792962</v>
       </c>
       <c r="E15">
-        <v>0.8772253869579392</v>
+        <v>0.8678798016435132</v>
       </c>
       <c r="F15">
-        <v>0.8907279448232915</v>
+        <v>0.8731615959904959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019578474677271</v>
+        <v>1.021517500027863</v>
       </c>
       <c r="J15">
-        <v>0.8879685509661902</v>
+        <v>0.8782216529916637</v>
       </c>
       <c r="K15">
-        <v>0.9996810294256867</v>
+        <v>1.016914815082085</v>
       </c>
       <c r="L15">
-        <v>0.8948169936530369</v>
+        <v>0.8857234887182777</v>
       </c>
       <c r="M15">
-        <v>0.9079679635537118</v>
+        <v>0.8908619145089834</v>
       </c>
       <c r="N15">
-        <v>0.8892295681599786</v>
+        <v>0.8794688284723435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8653499029684336</v>
+        <v>0.8562518816247683</v>
       </c>
       <c r="D16">
-        <v>0.9894184695752678</v>
+        <v>1.00573480406744</v>
       </c>
       <c r="E16">
-        <v>0.8893857886081171</v>
+        <v>0.8812057566442519</v>
       </c>
       <c r="F16">
-        <v>0.9025524261177672</v>
+        <v>0.8870642178491505</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022618438538996</v>
+        <v>1.024134511803058</v>
       </c>
       <c r="J16">
-        <v>0.9000537153032608</v>
+        <v>0.8915104235532217</v>
       </c>
       <c r="K16">
-        <v>1.003944193456849</v>
+        <v>1.019964905344897</v>
       </c>
       <c r="L16">
-        <v>0.9060438116563314</v>
+        <v>0.8980670945153795</v>
       </c>
       <c r="M16">
-        <v>0.9188935595591105</v>
+        <v>0.9037794302269018</v>
       </c>
       <c r="N16">
-        <v>0.9013318948165954</v>
+        <v>0.8927764706123422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.873802427386792</v>
+        <v>0.8654122674725411</v>
       </c>
       <c r="D17">
-        <v>0.992321342293573</v>
+        <v>1.007890469001174</v>
       </c>
       <c r="E17">
-        <v>0.896537053134801</v>
+        <v>0.88897169500609</v>
       </c>
       <c r="F17">
-        <v>0.9095264733885575</v>
+        <v>0.8951780324154438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024408583247987</v>
+        <v>1.02566411125776</v>
       </c>
       <c r="J17">
-        <v>0.9071523332828435</v>
+        <v>0.8992440918168173</v>
       </c>
       <c r="K17">
-        <v>1.006465359179331</v>
+        <v>1.02176154983342</v>
       </c>
       <c r="L17">
-        <v>0.9126399129906481</v>
+        <v>0.9052534423347297</v>
       </c>
       <c r="M17">
-        <v>0.9253314393021485</v>
+        <v>0.9113127287513837</v>
       </c>
       <c r="N17">
-        <v>0.9084405936479318</v>
+        <v>0.9005211215719363</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8785511117901782</v>
+        <v>0.8705345918636537</v>
       </c>
       <c r="D18">
-        <v>0.993963834943672</v>
+        <v>1.009110024028322</v>
       </c>
       <c r="E18">
-        <v>0.9005593205796409</v>
+        <v>0.8933197550584844</v>
       </c>
       <c r="F18">
-        <v>0.9134554219352634</v>
+        <v>0.8997244866935367</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025415830567582</v>
+        <v>1.026521614767268</v>
       </c>
       <c r="J18">
-        <v>0.9111422021584925</v>
+        <v>0.903570645543848</v>
       </c>
       <c r="K18">
-        <v>1.007887580298451</v>
+        <v>1.022773337838248</v>
       </c>
       <c r="L18">
-        <v>0.9163478260592059</v>
+        <v>0.9092746005542998</v>
       </c>
       <c r="M18">
-        <v>0.9289562963824977</v>
+        <v>0.9155319914836894</v>
       </c>
       <c r="N18">
-        <v>0.9124361285950289</v>
+        <v>0.9048538195015219</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8801417546431515</v>
+        <v>0.8722467986580787</v>
       </c>
       <c r="D19">
-        <v>0.9945158495394661</v>
+        <v>1.009519920405676</v>
       </c>
       <c r="E19">
-        <v>0.9019073642427954</v>
+        <v>0.8947740037494525</v>
       </c>
       <c r="F19">
-        <v>0.914773192883196</v>
+        <v>0.9012456562534104</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025753426698031</v>
+        <v>1.026808559252322</v>
       </c>
       <c r="J19">
-        <v>0.9124789330591093</v>
+        <v>0.9050171466428687</v>
       </c>
       <c r="K19">
-        <v>1.008364867057376</v>
+        <v>1.023112653272639</v>
       </c>
       <c r="L19">
-        <v>0.9175901676480376</v>
+        <v>0.910619119811396</v>
       </c>
       <c r="M19">
-        <v>0.9301717400260854</v>
+        <v>0.9169433720211778</v>
       </c>
       <c r="N19">
-        <v>0.9137747578068498</v>
+        <v>0.9063023747980191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8729148872329862</v>
+        <v>0.8644530469831161</v>
       </c>
       <c r="D20">
-        <v>0.9920152765562327</v>
+        <v>1.007663214879897</v>
       </c>
       <c r="E20">
-        <v>0.8957856467973495</v>
+        <v>0.8881578958134596</v>
       </c>
       <c r="F20">
-        <v>0.9087930020543504</v>
+        <v>0.8943273862304035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024220437908001</v>
+        <v>1.025503697398403</v>
       </c>
       <c r="J20">
-        <v>0.9064067555732882</v>
+        <v>0.8984340427110873</v>
       </c>
       <c r="K20">
-        <v>1.006199995952997</v>
+        <v>1.021572641119575</v>
       </c>
       <c r="L20">
-        <v>0.9119470617678106</v>
+        <v>0.9045006336795778</v>
       </c>
       <c r="M20">
-        <v>0.9246545730139517</v>
+        <v>0.9105231457345014</v>
       </c>
       <c r="N20">
-        <v>0.9076939571325103</v>
+        <v>0.8997099221035618</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8470814092023917</v>
+        <v>0.8362324429884438</v>
       </c>
       <c r="D21">
-        <v>0.9832386085938047</v>
+        <v>1.00113861099057</v>
       </c>
       <c r="E21">
-        <v>0.8739680960336801</v>
+        <v>0.8642805894613956</v>
       </c>
       <c r="F21">
-        <v>0.8875683176930039</v>
+        <v>0.8694112366974865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01876548648244</v>
+        <v>1.020812702741223</v>
       </c>
       <c r="J21">
-        <v>0.8847284031430517</v>
+        <v>0.8746285591830091</v>
       </c>
       <c r="K21">
-        <v>0.9985446441400665</v>
+        <v>1.016098444098666</v>
       </c>
       <c r="L21">
-        <v>0.8918076379900634</v>
+        <v>0.8823870662155805</v>
       </c>
       <c r="M21">
-        <v>0.9050464218898431</v>
+        <v>0.8873753307524573</v>
       </c>
       <c r="N21">
-        <v>0.8859848189552808</v>
+        <v>0.8758706320583468</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8284641356452134</v>
+        <v>0.8154281414420042</v>
       </c>
       <c r="D22">
-        <v>0.9770799664676887</v>
+        <v>0.996532957307406</v>
       </c>
       <c r="E22">
-        <v>0.8583148309344742</v>
+        <v>0.8467665689978485</v>
       </c>
       <c r="F22">
-        <v>0.8724321964072681</v>
+        <v>0.8511916574046926</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014869405279618</v>
+        <v>1.017398251123238</v>
       </c>
       <c r="J22">
-        <v>0.869140004418981</v>
+        <v>0.8571204424032114</v>
       </c>
       <c r="K22">
-        <v>0.9931195704483903</v>
+        <v>1.012173411301016</v>
       </c>
       <c r="L22">
-        <v>0.8773339679091027</v>
+        <v>0.8661372126241824</v>
       </c>
       <c r="M22">
-        <v>0.8910389093039898</v>
+        <v>0.8704260558780749</v>
       </c>
       <c r="N22">
-        <v>0.8703742829170078</v>
+        <v>0.8583376517445128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8386075592108824</v>
+        <v>0.8268218301574305</v>
       </c>
       <c r="D23">
-        <v>0.9804175277519205</v>
+        <v>0.9990334778796468</v>
       </c>
       <c r="E23">
-        <v>0.866835622480742</v>
+        <v>0.8563483574514289</v>
       </c>
       <c r="F23">
-        <v>0.8806614873904628</v>
+        <v>0.8611531545532009</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016987791172636</v>
+        <v>1.01926297649317</v>
       </c>
       <c r="J23">
-        <v>0.877629072634719</v>
+        <v>0.8667039177983498</v>
       </c>
       <c r="K23">
-        <v>0.9960650903884557</v>
+        <v>1.014310850038335</v>
       </c>
       <c r="L23">
-        <v>0.8852150477807604</v>
+        <v>0.8750303340530331</v>
       </c>
       <c r="M23">
-        <v>0.8986570198464247</v>
+        <v>0.879695262220799</v>
       </c>
       <c r="N23">
-        <v>0.8788754065833222</v>
+        <v>0.8679347367739524</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.87331648272482</v>
+        <v>0.8648871503942038</v>
       </c>
       <c r="D24">
-        <v>0.9921537295071705</v>
+        <v>1.007766016651705</v>
       </c>
       <c r="E24">
-        <v>0.8961256298801001</v>
+        <v>0.888526170570167</v>
       </c>
       <c r="F24">
-        <v>0.9091248505026691</v>
+        <v>0.8947123244002314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024305565547145</v>
+        <v>1.025576287376672</v>
       </c>
       <c r="J24">
-        <v>0.9067441101104026</v>
+        <v>0.898800631132276</v>
       </c>
       <c r="K24">
-        <v>1.006320049928768</v>
+        <v>1.021658111221528</v>
       </c>
       <c r="L24">
-        <v>0.912260557427376</v>
+        <v>0.9048413154151435</v>
       </c>
       <c r="M24">
-        <v>0.924960817673219</v>
+        <v>0.9108804573009708</v>
       </c>
       <c r="N24">
-        <v>0.9080317907517623</v>
+        <v>0.9000770311223575</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9065124327601399</v>
+        <v>0.9004066402504066</v>
       </c>
       <c r="D25">
-        <v>1.00379588370188</v>
+        <v>1.016419305668051</v>
       </c>
       <c r="E25">
-        <v>0.9243057698650072</v>
+        <v>0.9187483139704236</v>
       </c>
       <c r="F25">
-        <v>0.9367389466422782</v>
+        <v>0.9263620252873856</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031357694461476</v>
+        <v>1.031544019060811</v>
       </c>
       <c r="J25">
-        <v>0.9346548275938811</v>
+        <v>0.9288227916819259</v>
       </c>
       <c r="K25">
-        <v>1.016335557874051</v>
+        <v>1.028767970046033</v>
       </c>
       <c r="L25">
-        <v>0.9382049923968497</v>
+        <v>0.9327541176918882</v>
       </c>
       <c r="M25">
-        <v>0.950405690266748</v>
+        <v>0.9402222364570723</v>
       </c>
       <c r="N25">
-        <v>0.9359821446554715</v>
+        <v>0.9301418265835777</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9245148410317695</v>
+        <v>0.9996184344433003</v>
       </c>
       <c r="D2">
-        <v>1.022554345153095</v>
+        <v>1.034117178629182</v>
       </c>
       <c r="E2">
-        <v>0.9393492840417964</v>
+        <v>1.006015594373016</v>
       </c>
       <c r="F2">
-        <v>0.9479984625961263</v>
+        <v>1.031041385559619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035606114065723</v>
+        <v>1.045841659657009</v>
       </c>
       <c r="J2">
-        <v>0.9492141594775998</v>
+        <v>1.021810564062059</v>
       </c>
       <c r="K2">
-        <v>1.033708156245983</v>
+        <v>1.045120820116842</v>
       </c>
       <c r="L2">
-        <v>0.9517236478275942</v>
+        <v>1.017391753792607</v>
       </c>
       <c r="M2">
-        <v>0.9602331649268325</v>
+        <v>1.042084561840721</v>
       </c>
       <c r="N2">
-        <v>0.950562152460444</v>
+        <v>1.010895666307757</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9403040718207796</v>
+        <v>1.00449499547691</v>
       </c>
       <c r="D3">
-        <v>1.026680517042835</v>
+        <v>1.037239634676543</v>
       </c>
       <c r="E3">
-        <v>0.952873847769231</v>
+        <v>1.009940829891479</v>
       </c>
       <c r="F3">
-        <v>0.9622275271545127</v>
+        <v>1.035040778613435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038258402862813</v>
+        <v>1.047177333925344</v>
       </c>
       <c r="J3">
-        <v>0.9625658681327108</v>
+        <v>1.024863867943661</v>
       </c>
       <c r="K3">
-        <v>1.036983028089943</v>
+        <v>1.047417208231574</v>
       </c>
       <c r="L3">
-        <v>0.9641474732692874</v>
+        <v>1.020448076590885</v>
       </c>
       <c r="M3">
-        <v>0.9733676697523819</v>
+        <v>1.045244109333797</v>
       </c>
       <c r="N3">
-        <v>0.9639328220733075</v>
+        <v>1.011944359453658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9498847324673784</v>
+        <v>1.007583396568835</v>
       </c>
       <c r="D4">
-        <v>1.029223974448002</v>
+        <v>1.03922255831579</v>
       </c>
       <c r="E4">
-        <v>0.9610912266110297</v>
+        <v>1.012432842695256</v>
       </c>
       <c r="F4">
-        <v>0.9708819001741958</v>
+        <v>1.03758193364956</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039860533392432</v>
+        <v>1.048015094934768</v>
       </c>
       <c r="J4">
-        <v>0.9706634808838772</v>
+        <v>1.026795087603781</v>
       </c>
       <c r="K4">
-        <v>1.038982035990103</v>
+        <v>1.048869571541206</v>
       </c>
       <c r="L4">
-        <v>0.9716830938991983</v>
+        <v>1.022383494821718</v>
       </c>
       <c r="M4">
-        <v>0.9813449408322144</v>
+        <v>1.047246987930781</v>
       </c>
       <c r="N4">
-        <v>0.9720419343633898</v>
+        <v>1.012607170663427</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9537783449564669</v>
+        <v>1.00886631401068</v>
       </c>
       <c r="D5">
-        <v>1.030265945516589</v>
+        <v>1.040047471694412</v>
       </c>
       <c r="E5">
-        <v>0.9644329400173488</v>
+        <v>1.013469434044149</v>
       </c>
       <c r="F5">
-        <v>0.9744031841362162</v>
+        <v>1.038639427938756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040509476541143</v>
+        <v>1.048361098934878</v>
       </c>
       <c r="J5">
-        <v>0.9739531272460031</v>
+        <v>1.02759667717866</v>
       </c>
       <c r="K5">
-        <v>1.03979651304717</v>
+        <v>1.049472338310407</v>
       </c>
       <c r="L5">
-        <v>0.9747445355316816</v>
+        <v>1.023187374622729</v>
       </c>
       <c r="M5">
-        <v>0.9845880435634617</v>
+        <v>1.048079359835072</v>
       </c>
       <c r="N5">
-        <v>0.9753362524006777</v>
+        <v>1.012882159257713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9544246969377295</v>
+        <v>1.009080832786175</v>
       </c>
       <c r="D6">
-        <v>1.030439372230424</v>
+        <v>1.040185475356757</v>
       </c>
       <c r="E6">
-        <v>0.9649877892386242</v>
+        <v>1.013642845830235</v>
       </c>
       <c r="F6">
-        <v>0.9749879510053671</v>
+        <v>1.038816362774853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040617064062334</v>
+        <v>1.048418835878551</v>
       </c>
       <c r="J6">
-        <v>0.9744991378259321</v>
+        <v>1.027730673762318</v>
       </c>
       <c r="K6">
-        <v>1.039931820500591</v>
+        <v>1.049573094071841</v>
       </c>
       <c r="L6">
-        <v>0.9752526731914274</v>
+        <v>1.023321786196463</v>
       </c>
       <c r="M6">
-        <v>0.9851264570547522</v>
+        <v>1.048218562312452</v>
       </c>
       <c r="N6">
-        <v>0.9758830383782584</v>
+        <v>1.012928119865312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9499372647205458</v>
+        <v>1.007600598886795</v>
       </c>
       <c r="D7">
-        <v>1.02923800107112</v>
+        <v>1.039233614711146</v>
       </c>
       <c r="E7">
-        <v>0.9611363047146545</v>
+        <v>1.012446736572395</v>
       </c>
       <c r="F7">
-        <v>0.9709293935299634</v>
+        <v>1.03759610591812</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03986929803586</v>
+        <v>1.048019742381728</v>
       </c>
       <c r="J7">
-        <v>0.9707078698110284</v>
+        <v>1.026805838483412</v>
       </c>
       <c r="K7">
-        <v>1.038993017524519</v>
+        <v>1.048877656123923</v>
       </c>
       <c r="L7">
-        <v>0.9717244032172774</v>
+        <v>1.022394274255749</v>
       </c>
       <c r="M7">
-        <v>0.9813886928426314</v>
+        <v>1.04725814759514</v>
       </c>
       <c r="N7">
-        <v>0.9720863863279088</v>
+        <v>1.012610859294888</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9299947983740989</v>
+        <v>1.001280752797359</v>
       </c>
       <c r="D8">
-        <v>1.023976976475513</v>
+        <v>1.035180363626206</v>
       </c>
       <c r="E8">
-        <v>0.944040566106917</v>
+        <v>1.007352313593409</v>
       </c>
       <c r="F8">
-        <v>0.9529319850266451</v>
+        <v>1.032402906015946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036527909920877</v>
+        <v>1.046298642389074</v>
       </c>
       <c r="J8">
-        <v>0.953848786741235</v>
+        <v>1.022851868260284</v>
       </c>
       <c r="K8">
-        <v>1.034841671022125</v>
+        <v>1.045903982385898</v>
       </c>
       <c r="L8">
-        <v>0.9560359718123742</v>
+        <v>1.018433605687112</v>
       </c>
       <c r="M8">
-        <v>0.9647896646701021</v>
+        <v>1.043161143368776</v>
       </c>
       <c r="N8">
-        <v>0.9552033614263927</v>
+        <v>1.011253413136519</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8888864762160177</v>
+        <v>0.9896017105136258</v>
       </c>
       <c r="D9">
-        <v>1.013561169806948</v>
+        <v>1.027737725627349</v>
       </c>
       <c r="E9">
-        <v>0.9089279495636752</v>
+        <v>0.9979890191544857</v>
       </c>
       <c r="F9">
-        <v>0.916065237253798</v>
+        <v>1.022876069407175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029603830117095</v>
+        <v>1.043055380443167</v>
       </c>
       <c r="J9">
-        <v>0.9190809731744121</v>
+        <v>1.015527079327654</v>
       </c>
       <c r="K9">
-        <v>1.026437992439023</v>
+        <v>1.040396254788552</v>
       </c>
       <c r="L9">
-        <v>0.9236943315780355</v>
+        <v>1.011114807597809</v>
       </c>
       <c r="M9">
-        <v>0.9306846398016012</v>
+        <v>1.035608589641099</v>
       </c>
       <c r="N9">
-        <v>0.9203861735763805</v>
+        <v>1.008735123661486</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8551841886069268</v>
+        <v>0.9814072771895438</v>
       </c>
       <c r="D10">
-        <v>1.00548567765629</v>
+        <v>1.022554779460769</v>
       </c>
       <c r="E10">
-        <v>0.8803014375913378</v>
+        <v>0.991457878716332</v>
       </c>
       <c r="F10">
-        <v>0.886119941981704</v>
+        <v>1.016245529703132</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023956585301547</v>
+        <v>1.040740594630576</v>
       </c>
       <c r="J10">
-        <v>0.8906093531401311</v>
+        <v>1.010378497329633</v>
       </c>
       <c r="K10">
-        <v>1.019756587871725</v>
+        <v>1.036528401500826</v>
       </c>
       <c r="L10">
-        <v>0.8972299190684019</v>
+        <v>1.00598309581569</v>
       </c>
       <c r="M10">
-        <v>0.9029024390688828</v>
+        <v>1.030327532976689</v>
       </c>
       <c r="N10">
-        <v>0.8918741205759109</v>
+        <v>1.006963020388286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.838176598574171</v>
+        <v>0.9777514810757124</v>
       </c>
       <c r="D11">
-        <v>1.00157796536528</v>
+        <v>1.020253379972126</v>
       </c>
       <c r="E11">
-        <v>0.865921287809483</v>
+        <v>0.9885541770649902</v>
       </c>
       <c r="F11">
-        <v>0.8711205851495804</v>
+        <v>1.013301724906626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021133865625437</v>
+        <v>1.039699364906842</v>
       </c>
       <c r="J11">
-        <v>0.8762666753430169</v>
+        <v>1.008080036421287</v>
       </c>
       <c r="K11">
-        <v>1.016470184798235</v>
+        <v>1.034803194362744</v>
       </c>
       <c r="L11">
-        <v>0.8839081024105476</v>
+        <v>1.003695221755683</v>
       </c>
       <c r="M11">
-        <v>0.8889645553618123</v>
+        <v>1.027977075537849</v>
       </c>
       <c r="N11">
-        <v>0.8775110745311964</v>
+        <v>1.006171531933576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8313565303403342</v>
+        <v>0.9763764086571076</v>
       </c>
       <c r="D12">
-        <v>1.00004340967038</v>
+        <v>1.019389522668268</v>
       </c>
       <c r="E12">
-        <v>0.860168677112378</v>
+        <v>0.9874635863048471</v>
       </c>
       <c r="F12">
-        <v>0.8651291439393923</v>
+        <v>1.01219674222236</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020008717464511</v>
+        <v>1.03930650951904</v>
       </c>
       <c r="J12">
-        <v>0.8705215947217898</v>
+        <v>1.00721533861274</v>
       </c>
       <c r="K12">
-        <v>1.015169778066696</v>
+        <v>1.034154444964237</v>
       </c>
       <c r="L12">
-        <v>0.8785741025080408</v>
+        <v>1.002834970937399</v>
       </c>
       <c r="M12">
-        <v>0.8833934323873012</v>
+        <v>1.02709394389247</v>
       </c>
       <c r="N12">
-        <v>0.8717578352365173</v>
+        <v>1.005873720443345</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8328454457307835</v>
+        <v>0.9766721590132174</v>
       </c>
       <c r="D13">
-        <v>1.000376824682935</v>
+        <v>1.019575238160057</v>
       </c>
       <c r="E13">
-        <v>0.8614238470010277</v>
+        <v>0.987698077050233</v>
       </c>
       <c r="F13">
-        <v>0.8664359756965181</v>
+        <v>1.012434296186084</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020253993928262</v>
+        <v>1.039391058424579</v>
       </c>
       <c r="J13">
-        <v>0.8717754853187095</v>
+        <v>1.007401324182402</v>
       </c>
       <c r="K13">
-        <v>1.01545279922655</v>
+        <v>1.03429396882916</v>
       </c>
       <c r="L13">
-        <v>0.8797381604674585</v>
+        <v>1.00301997896114</v>
       </c>
       <c r="M13">
-        <v>0.8846087586685005</v>
+        <v>1.02728384249292</v>
       </c>
       <c r="N13">
-        <v>0.8730135065019077</v>
+        <v>1.005937777945769</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8376242317998374</v>
+        <v>0.9776381729417203</v>
       </c>
       <c r="D14">
-        <v>1.001452983191467</v>
+        <v>1.020182159748433</v>
       </c>
       <c r="E14">
-        <v>0.8654550712023483</v>
+        <v>0.988464277807017</v>
       </c>
       <c r="F14">
-        <v>0.8706348182666648</v>
+        <v>1.013210625335222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021042584328541</v>
+        <v>1.039667017232717</v>
       </c>
       <c r="J14">
-        <v>0.8758012277379622</v>
+        <v>1.00800878697812</v>
       </c>
       <c r="K14">
-        <v>1.016364483263279</v>
+        <v>1.034749732481275</v>
       </c>
       <c r="L14">
-        <v>0.8834759108184038</v>
+        <v>1.003624329274043</v>
       </c>
       <c r="M14">
-        <v>0.8885129426052879</v>
+        <v>1.027904283942628</v>
       </c>
       <c r="N14">
-        <v>0.8770449659371549</v>
+        <v>1.006146993756482</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8404963346449591</v>
+        <v>0.9782310630003038</v>
       </c>
       <c r="D15">
-        <v>1.0021041792962</v>
+        <v>1.020554896251849</v>
       </c>
       <c r="E15">
-        <v>0.8678798016435132</v>
+        <v>0.988934745242541</v>
       </c>
       <c r="F15">
-        <v>0.8731615959904959</v>
+        <v>1.013687402009875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021517500027863</v>
+        <v>1.039836228947319</v>
       </c>
       <c r="J15">
-        <v>0.8782216529916637</v>
+        <v>1.008381596577399</v>
       </c>
       <c r="K15">
-        <v>1.016914815082085</v>
+        <v>1.035029481466922</v>
       </c>
       <c r="L15">
-        <v>0.8857234887182777</v>
+        <v>1.00399529003014</v>
       </c>
       <c r="M15">
-        <v>0.8908619145089834</v>
+        <v>1.028285209062641</v>
       </c>
       <c r="N15">
-        <v>0.8794688284723435</v>
+        <v>1.006275386803237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8562518816247683</v>
+        <v>0.9816475516904816</v>
       </c>
       <c r="D16">
-        <v>1.00573480406744</v>
+        <v>1.022706275743036</v>
       </c>
       <c r="E16">
-        <v>0.8812057566442519</v>
+        <v>0.9916489384329319</v>
       </c>
       <c r="F16">
-        <v>0.8870642178491505</v>
+        <v>1.016439318034792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024134511803058</v>
+        <v>1.040808856842171</v>
       </c>
       <c r="J16">
-        <v>0.8915104235532217</v>
+        <v>1.010529535513393</v>
       </c>
       <c r="K16">
-        <v>1.019964905344897</v>
+        <v>1.036641805902357</v>
       </c>
       <c r="L16">
-        <v>0.8980670945153795</v>
+        <v>1.00613350232261</v>
       </c>
       <c r="M16">
-        <v>0.9037794302269018</v>
+        <v>1.030482141183894</v>
       </c>
       <c r="N16">
-        <v>0.8927764706123422</v>
+        <v>1.007015024180542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8654122674725411</v>
+        <v>0.9837611557525513</v>
       </c>
       <c r="D17">
-        <v>1.007890469001174</v>
+        <v>1.024040185010545</v>
       </c>
       <c r="E17">
-        <v>0.88897169500609</v>
+        <v>0.9933307706915562</v>
       </c>
       <c r="F17">
-        <v>0.8951780324154438</v>
+        <v>1.018145641565261</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02566411125776</v>
+        <v>1.04140837176732</v>
       </c>
       <c r="J17">
-        <v>0.8992440918168173</v>
+        <v>1.01185799616416</v>
       </c>
       <c r="K17">
-        <v>1.02176154983342</v>
+        <v>1.037639435426218</v>
       </c>
       <c r="L17">
-        <v>0.9052534423347297</v>
+        <v>1.007456754951505</v>
       </c>
       <c r="M17">
-        <v>0.9113127287513837</v>
+        <v>1.031842820370539</v>
       </c>
       <c r="N17">
-        <v>0.9005211215719363</v>
+        <v>1.007472383371096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8705345918636537</v>
+        <v>0.9849836786777937</v>
       </c>
       <c r="D18">
-        <v>1.009110024028322</v>
+        <v>1.02481274810798</v>
       </c>
       <c r="E18">
-        <v>0.8933197550584844</v>
+        <v>0.9943045003655923</v>
       </c>
       <c r="F18">
-        <v>0.8997244866935367</v>
+        <v>1.019133935409572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026521614767268</v>
+        <v>1.04175432206044</v>
       </c>
       <c r="J18">
-        <v>0.903570645543848</v>
+        <v>1.012626238994649</v>
       </c>
       <c r="K18">
-        <v>1.022773337838248</v>
+        <v>1.038216498389409</v>
       </c>
       <c r="L18">
-        <v>0.9092746005542998</v>
+        <v>1.008222275139291</v>
       </c>
       <c r="M18">
-        <v>0.9155319914836894</v>
+        <v>1.03263036808488</v>
       </c>
       <c r="N18">
-        <v>0.9048538195015219</v>
+        <v>1.007736835984327</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8722467986580787</v>
+        <v>0.9853988080107121</v>
       </c>
       <c r="D19">
-        <v>1.009519920405676</v>
+        <v>1.025075254590019</v>
       </c>
       <c r="E19">
-        <v>0.8947740037494525</v>
+        <v>0.994635305690052</v>
       </c>
       <c r="F19">
-        <v>0.9012456562534104</v>
+        <v>1.019469752232266</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026808559252322</v>
+        <v>1.041871655675114</v>
       </c>
       <c r="J19">
-        <v>0.9050171466428687</v>
+        <v>1.012887082625149</v>
       </c>
       <c r="K19">
-        <v>1.023112653272639</v>
+        <v>1.03841245190244</v>
       </c>
       <c r="L19">
-        <v>0.910619119811396</v>
+        <v>1.008482243245263</v>
       </c>
       <c r="M19">
-        <v>0.9169433720211778</v>
+        <v>1.032897878965171</v>
       </c>
       <c r="N19">
-        <v>0.9063023747980191</v>
+        <v>1.007826619931105</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8644530469831161</v>
+        <v>0.9835354589962421</v>
       </c>
       <c r="D20">
-        <v>1.007663214879897</v>
+        <v>1.023897639371995</v>
       </c>
       <c r="E20">
-        <v>0.8881578958134596</v>
+        <v>0.9931510809843471</v>
       </c>
       <c r="F20">
-        <v>0.8943273862304035</v>
+        <v>1.017963294903304</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025503697398403</v>
+        <v>1.041344437735743</v>
       </c>
       <c r="J20">
-        <v>0.8984340427110873</v>
+        <v>1.011716154207515</v>
       </c>
       <c r="K20">
-        <v>1.021572641119575</v>
+        <v>1.037532902090732</v>
       </c>
       <c r="L20">
-        <v>0.9045006336795778</v>
+        <v>1.007315439023998</v>
       </c>
       <c r="M20">
-        <v>0.9105231457345014</v>
+        <v>1.031697468164873</v>
       </c>
       <c r="N20">
-        <v>0.8997099221035618</v>
+        <v>1.007423554059582</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8362324429884438</v>
+        <v>0.9773541875826753</v>
       </c>
       <c r="D21">
-        <v>1.00113861099057</v>
+        <v>1.020003688923039</v>
       </c>
       <c r="E21">
-        <v>0.8642805894613956</v>
+        <v>0.9882389883013619</v>
       </c>
       <c r="F21">
-        <v>0.8694112366974865</v>
+        <v>1.012982338814074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020812702741223</v>
+        <v>1.039585924631893</v>
       </c>
       <c r="J21">
-        <v>0.8746285591830091</v>
+        <v>1.00783021128764</v>
       </c>
       <c r="K21">
-        <v>1.016098444098666</v>
+        <v>1.034615743377878</v>
       </c>
       <c r="L21">
-        <v>0.8823870662155805</v>
+        <v>1.00344665574538</v>
       </c>
       <c r="M21">
-        <v>0.8873753307524573</v>
+        <v>1.02772186143907</v>
       </c>
       <c r="N21">
-        <v>0.8758706320583468</v>
+        <v>1.006085491878376</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8154281414420042</v>
+        <v>0.9733680227042596</v>
       </c>
       <c r="D22">
-        <v>0.996532957307406</v>
+        <v>1.017503014648759</v>
       </c>
       <c r="E22">
-        <v>0.8467665689978485</v>
+        <v>0.9850806160030249</v>
       </c>
       <c r="F22">
-        <v>0.8511916574046926</v>
+        <v>1.009783622572796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017398251123238</v>
+        <v>1.038444868613185</v>
       </c>
       <c r="J22">
-        <v>0.8571204424032114</v>
+        <v>1.005323315420166</v>
       </c>
       <c r="K22">
-        <v>1.012173411301016</v>
+        <v>1.032735528965144</v>
       </c>
       <c r="L22">
-        <v>0.8661372126241824</v>
+        <v>1.000953538027594</v>
       </c>
       <c r="M22">
-        <v>0.8704260558780749</v>
+        <v>1.025163723995881</v>
       </c>
       <c r="N22">
-        <v>0.8583376517445128</v>
+        <v>1.005222008679554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8268218301574305</v>
+        <v>0.9754909702906497</v>
       </c>
       <c r="D23">
-        <v>0.9990334778796468</v>
+        <v>1.018833786844476</v>
       </c>
       <c r="E23">
-        <v>0.8563483574514289</v>
+        <v>0.9867617913877805</v>
       </c>
       <c r="F23">
-        <v>0.8611531545532009</v>
+        <v>1.011485882303991</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01926297649317</v>
+        <v>1.039053208826944</v>
       </c>
       <c r="J23">
-        <v>0.8667039177983498</v>
+        <v>1.006658502333173</v>
       </c>
       <c r="K23">
-        <v>1.014310850038335</v>
+        <v>1.033736760662032</v>
       </c>
       <c r="L23">
-        <v>0.8750303340530331</v>
+        <v>1.002281129846466</v>
       </c>
       <c r="M23">
-        <v>0.879695262220799</v>
+        <v>1.026525561745105</v>
       </c>
       <c r="N23">
-        <v>0.8679347367739524</v>
+        <v>1.0056819275197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8648871503942038</v>
+        <v>0.9836374734232917</v>
       </c>
       <c r="D24">
-        <v>1.007766016651705</v>
+        <v>1.023962066525316</v>
       </c>
       <c r="E24">
-        <v>0.888526170570167</v>
+        <v>0.9932322973994954</v>
       </c>
       <c r="F24">
-        <v>0.8947123244002314</v>
+        <v>1.018045711025085</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025576287376672</v>
+        <v>1.041373338301581</v>
       </c>
       <c r="J24">
-        <v>0.898800631132276</v>
+        <v>1.011780266916438</v>
       </c>
       <c r="K24">
-        <v>1.021658111221528</v>
+        <v>1.03758105484255</v>
       </c>
       <c r="L24">
-        <v>0.9048413154151435</v>
+        <v>1.00737931307085</v>
       </c>
       <c r="M24">
-        <v>0.9108804573009708</v>
+        <v>1.031763165426553</v>
       </c>
       <c r="N24">
-        <v>0.9000770311223575</v>
+        <v>1.007445625070922</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9004066402504066</v>
+        <v>0.9926896262475104</v>
       </c>
       <c r="D25">
-        <v>1.016419305668051</v>
+        <v>1.0296993226897</v>
       </c>
       <c r="E25">
-        <v>0.9187483139704236</v>
+        <v>1.000458319569024</v>
       </c>
       <c r="F25">
-        <v>0.9263620252873856</v>
+        <v>1.025386155420456</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031544019060811</v>
+        <v>1.043919879654235</v>
       </c>
       <c r="J25">
-        <v>0.9288227916819259</v>
+        <v>1.017465543336595</v>
       </c>
       <c r="K25">
-        <v>1.028767970046033</v>
+        <v>1.041853447746732</v>
       </c>
       <c r="L25">
-        <v>0.9327541176918882</v>
+        <v>1.013049524880474</v>
       </c>
       <c r="M25">
-        <v>0.9402222364570723</v>
+        <v>1.037602763334712</v>
       </c>
       <c r="N25">
-        <v>0.9301418265835777</v>
+        <v>1.009401950750195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9996184344433003</v>
+        <v>1.031763875314827</v>
       </c>
       <c r="D2">
-        <v>1.034117178629182</v>
+        <v>1.046635844979365</v>
       </c>
       <c r="E2">
-        <v>1.006015594373016</v>
+        <v>1.031284073869498</v>
       </c>
       <c r="F2">
-        <v>1.031041385559619</v>
+        <v>1.05217213072702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045841659657009</v>
+        <v>1.038758296936026</v>
       </c>
       <c r="J2">
-        <v>1.021810564062059</v>
+        <v>1.036897806767848</v>
       </c>
       <c r="K2">
-        <v>1.045120820116842</v>
+        <v>1.049400727176832</v>
       </c>
       <c r="L2">
-        <v>1.017391753792607</v>
+        <v>1.034092637259812</v>
       </c>
       <c r="M2">
-        <v>1.042084561840721</v>
+        <v>1.054921599320609</v>
       </c>
       <c r="N2">
-        <v>1.010895666307757</v>
+        <v>1.016233419032144</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00449499547691</v>
+        <v>1.032789164789276</v>
       </c>
       <c r="D3">
-        <v>1.037239634676543</v>
+        <v>1.047310948525577</v>
       </c>
       <c r="E3">
-        <v>1.009940829891479</v>
+        <v>1.032157712858185</v>
       </c>
       <c r="F3">
-        <v>1.035040778613435</v>
+        <v>1.05306800373172</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047177333925344</v>
+        <v>1.038987252654376</v>
       </c>
       <c r="J3">
-        <v>1.024863867943661</v>
+        <v>1.03756472235329</v>
       </c>
       <c r="K3">
-        <v>1.047417208231574</v>
+        <v>1.049887868018937</v>
       </c>
       <c r="L3">
-        <v>1.020448076590885</v>
+        <v>1.034774633236877</v>
       </c>
       <c r="M3">
-        <v>1.045244109333797</v>
+        <v>1.055630051627074</v>
       </c>
       <c r="N3">
-        <v>1.011944359453658</v>
+        <v>1.016459076482328</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007583396568835</v>
+        <v>1.03345292540089</v>
       </c>
       <c r="D4">
-        <v>1.03922255831579</v>
+        <v>1.047748089067273</v>
       </c>
       <c r="E4">
-        <v>1.012432842695256</v>
+        <v>1.032723651785094</v>
       </c>
       <c r="F4">
-        <v>1.03758193364956</v>
+        <v>1.053648440332676</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048015094934768</v>
+        <v>1.039134379162751</v>
       </c>
       <c r="J4">
-        <v>1.026795087603781</v>
+        <v>1.037996017948617</v>
       </c>
       <c r="K4">
-        <v>1.048869571541206</v>
+        <v>1.050202702644199</v>
       </c>
       <c r="L4">
-        <v>1.022383494821718</v>
+        <v>1.035215930366329</v>
       </c>
       <c r="M4">
-        <v>1.047246987930781</v>
+        <v>1.056088578221575</v>
       </c>
       <c r="N4">
-        <v>1.012607170663427</v>
+        <v>1.01660489396788</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00886631401068</v>
+        <v>1.033732048975581</v>
       </c>
       <c r="D5">
-        <v>1.040047471694412</v>
+        <v>1.047931934224268</v>
       </c>
       <c r="E5">
-        <v>1.013469434044149</v>
+        <v>1.032961723894424</v>
       </c>
       <c r="F5">
-        <v>1.038639427938756</v>
+        <v>1.05389263335842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048361098934878</v>
+        <v>1.039195985748246</v>
       </c>
       <c r="J5">
-        <v>1.02759667717866</v>
+        <v>1.038177275747236</v>
       </c>
       <c r="K5">
-        <v>1.049472338310407</v>
+        <v>1.050334967670114</v>
       </c>
       <c r="L5">
-        <v>1.023187374622729</v>
+        <v>1.03540145103271</v>
       </c>
       <c r="M5">
-        <v>1.048079359835072</v>
+        <v>1.056281368176288</v>
       </c>
       <c r="N5">
-        <v>1.012882159257713</v>
+        <v>1.016666147944632</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009080832786175</v>
+        <v>1.033778919652387</v>
       </c>
       <c r="D6">
-        <v>1.040185475356757</v>
+        <v>1.047962806774943</v>
       </c>
       <c r="E6">
-        <v>1.013642845830235</v>
+        <v>1.033001706100425</v>
       </c>
       <c r="F6">
-        <v>1.038816362774853</v>
+        <v>1.05393364481098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048418835878551</v>
+        <v>1.039206315361576</v>
       </c>
       <c r="J6">
-        <v>1.027730673762318</v>
+        <v>1.038207706259574</v>
       </c>
       <c r="K6">
-        <v>1.049573094071841</v>
+        <v>1.050357170159962</v>
       </c>
       <c r="L6">
-        <v>1.023321786196463</v>
+        <v>1.035432600711337</v>
       </c>
       <c r="M6">
-        <v>1.048218562312452</v>
+        <v>1.056313739914047</v>
       </c>
       <c r="N6">
-        <v>1.012928119865312</v>
+        <v>1.016676429951369</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007600598886795</v>
+        <v>1.03345665475526</v>
       </c>
       <c r="D7">
-        <v>1.039233614711146</v>
+        <v>1.047750545336916</v>
       </c>
       <c r="E7">
-        <v>1.012446736572395</v>
+        <v>1.032726832322552</v>
       </c>
       <c r="F7">
-        <v>1.03759610591812</v>
+        <v>1.053651702556123</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048019742381728</v>
+        <v>1.039135203317773</v>
       </c>
       <c r="J7">
-        <v>1.026805838483412</v>
+        <v>1.037998440156261</v>
       </c>
       <c r="K7">
-        <v>1.048877656123923</v>
+        <v>1.050204470336463</v>
       </c>
       <c r="L7">
-        <v>1.022394274255749</v>
+        <v>1.03521840930594</v>
       </c>
       <c r="M7">
-        <v>1.04725814759514</v>
+        <v>1.056091154192057</v>
       </c>
       <c r="N7">
-        <v>1.012610859294888</v>
+        <v>1.016605712634294</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001280752797359</v>
+        <v>1.032110308212458</v>
       </c>
       <c r="D8">
-        <v>1.035180363626206</v>
+        <v>1.046863935743253</v>
       </c>
       <c r="E8">
-        <v>1.007352313593409</v>
+        <v>1.031579192012585</v>
       </c>
       <c r="F8">
-        <v>1.032402906015946</v>
+        <v>1.052474739766236</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046298642389074</v>
+        <v>1.038835885169746</v>
       </c>
       <c r="J8">
-        <v>1.022851868260284</v>
+        <v>1.037123244043577</v>
       </c>
       <c r="K8">
-        <v>1.045903982385898</v>
+        <v>1.049565436423454</v>
       </c>
       <c r="L8">
-        <v>1.018433605687112</v>
+        <v>1.034323120559002</v>
       </c>
       <c r="M8">
-        <v>1.043161143368776</v>
+        <v>1.055161000537827</v>
       </c>
       <c r="N8">
-        <v>1.011253413136519</v>
+        <v>1.016309721836158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9896017105136258</v>
+        <v>1.029740413660409</v>
       </c>
       <c r="D9">
-        <v>1.027737725627349</v>
+        <v>1.045304000148307</v>
       </c>
       <c r="E9">
-        <v>0.9979890191544857</v>
+        <v>1.02956181418017</v>
       </c>
       <c r="F9">
-        <v>1.022876069407175</v>
+        <v>1.050406559310196</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043055380443167</v>
+        <v>1.038300632284336</v>
       </c>
       <c r="J9">
-        <v>1.015527079327654</v>
+        <v>1.035579199148571</v>
       </c>
       <c r="K9">
-        <v>1.040396254788552</v>
+        <v>1.048436522831822</v>
       </c>
       <c r="L9">
-        <v>1.011114807597809</v>
+        <v>1.032745538182151</v>
       </c>
       <c r="M9">
-        <v>1.035608589641099</v>
+        <v>1.053522846300444</v>
       </c>
       <c r="N9">
-        <v>1.008735123661486</v>
+        <v>1.015786645122144</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9814072771895438</v>
+        <v>1.028162208989328</v>
       </c>
       <c r="D10">
-        <v>1.022554779460769</v>
+        <v>1.044265726253921</v>
       </c>
       <c r="E10">
-        <v>0.991457878716332</v>
+        <v>1.028220249281495</v>
       </c>
       <c r="F10">
-        <v>1.016245529703132</v>
+        <v>1.049031735034516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040740594630576</v>
+        <v>1.037938568500056</v>
       </c>
       <c r="J10">
-        <v>1.010378497329633</v>
+        <v>1.034548634837703</v>
       </c>
       <c r="K10">
-        <v>1.036528401500826</v>
+        <v>1.047682050002491</v>
       </c>
       <c r="L10">
-        <v>1.00598309581569</v>
+        <v>1.03169387623018</v>
       </c>
       <c r="M10">
-        <v>1.030327532976689</v>
+        <v>1.052431409897015</v>
       </c>
       <c r="N10">
-        <v>1.006963020388286</v>
+        <v>1.015436933976413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9777514810757124</v>
+        <v>1.027479240968996</v>
       </c>
       <c r="D11">
-        <v>1.020253379972126</v>
+        <v>1.04381655821374</v>
       </c>
       <c r="E11">
-        <v>0.9885541770649902</v>
+        <v>1.027640142792193</v>
       </c>
       <c r="F11">
-        <v>1.013301724906626</v>
+        <v>1.048437376922608</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039699364906842</v>
+        <v>1.037780556174745</v>
       </c>
       <c r="J11">
-        <v>1.008080036421287</v>
+        <v>1.034102111051802</v>
       </c>
       <c r="K11">
-        <v>1.034803194362744</v>
+        <v>1.047354924325578</v>
       </c>
       <c r="L11">
-        <v>1.003695221755683</v>
+        <v>1.031238516941321</v>
       </c>
       <c r="M11">
-        <v>1.027977075537849</v>
+        <v>1.051958977259539</v>
       </c>
       <c r="N11">
-        <v>1.006171531933576</v>
+        <v>1.015285273079877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9763764086571076</v>
+        <v>1.027225617222364</v>
       </c>
       <c r="D12">
-        <v>1.019389522668268</v>
+        <v>1.043649780348703</v>
       </c>
       <c r="E12">
-        <v>0.9874635863048471</v>
+        <v>1.0274247863937</v>
       </c>
       <c r="F12">
-        <v>1.01219674222236</v>
+        <v>1.048216749827874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03930650951904</v>
+        <v>1.03772167802168</v>
       </c>
       <c r="J12">
-        <v>1.00721533861274</v>
+        <v>1.033936210261911</v>
       </c>
       <c r="K12">
-        <v>1.034154444964237</v>
+        <v>1.047233350978492</v>
       </c>
       <c r="L12">
-        <v>1.002834970937399</v>
+        <v>1.031069379398339</v>
       </c>
       <c r="M12">
-        <v>1.02709394389247</v>
+        <v>1.051783520798439</v>
       </c>
       <c r="N12">
-        <v>1.005873720443345</v>
+        <v>1.015228904626394</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9766721590132174</v>
+        <v>1.027280017615007</v>
       </c>
       <c r="D13">
-        <v>1.019575238160057</v>
+        <v>1.043685551888073</v>
       </c>
       <c r="E13">
-        <v>0.987698077050233</v>
+        <v>1.027470975584802</v>
       </c>
       <c r="F13">
-        <v>1.012434296186084</v>
+        <v>1.048264068553302</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039391058424579</v>
+        <v>1.037734315965915</v>
       </c>
       <c r="J13">
-        <v>1.007401324182402</v>
+        <v>1.033971798436059</v>
       </c>
       <c r="K13">
-        <v>1.03429396882916</v>
+        <v>1.047259431769757</v>
       </c>
       <c r="L13">
-        <v>1.00301997896114</v>
+        <v>1.031105659822662</v>
       </c>
       <c r="M13">
-        <v>1.02728384249292</v>
+        <v>1.051821155609231</v>
       </c>
       <c r="N13">
-        <v>1.005937777945769</v>
+        <v>1.015240997423572</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9776381729417203</v>
+        <v>1.027458275106091</v>
       </c>
       <c r="D14">
-        <v>1.020182159748433</v>
+        <v>1.043802771007554</v>
       </c>
       <c r="E14">
-        <v>0.988464277807017</v>
+        <v>1.027622338892535</v>
       </c>
       <c r="F14">
-        <v>1.013210625335222</v>
+        <v>1.048419136873839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039667017232717</v>
+        <v>1.037775693066788</v>
       </c>
       <c r="J14">
-        <v>1.00800878697812</v>
+        <v>1.034088398494183</v>
       </c>
       <c r="K14">
-        <v>1.034749732481275</v>
+        <v>1.047344876341431</v>
       </c>
       <c r="L14">
-        <v>1.003624329274043</v>
+        <v>1.031224535911213</v>
       </c>
       <c r="M14">
-        <v>1.027904283942628</v>
+        <v>1.051944473436209</v>
       </c>
       <c r="N14">
-        <v>1.006146993756482</v>
+        <v>1.015280614355219</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9782310630003038</v>
+        <v>1.027568113514905</v>
       </c>
       <c r="D15">
-        <v>1.020554896251849</v>
+        <v>1.043875001982907</v>
       </c>
       <c r="E15">
-        <v>0.988934745242541</v>
+        <v>1.027715614877</v>
       </c>
       <c r="F15">
-        <v>1.013687402009875</v>
+        <v>1.048514698699506</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039836228947319</v>
+        <v>1.037801162316993</v>
       </c>
       <c r="J15">
-        <v>1.008381596577399</v>
+        <v>1.034160234090943</v>
       </c>
       <c r="K15">
-        <v>1.035029481466922</v>
+        <v>1.047397513067675</v>
       </c>
       <c r="L15">
-        <v>1.00399529003014</v>
+        <v>1.031297779830334</v>
       </c>
       <c r="M15">
-        <v>1.028285209062641</v>
+        <v>1.052020457103037</v>
       </c>
       <c r="N15">
-        <v>1.006275386803237</v>
+        <v>1.015305019045008</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9816475516904816</v>
+        <v>1.028207543872253</v>
       </c>
       <c r="D16">
-        <v>1.022706275743036</v>
+        <v>1.044295544839336</v>
       </c>
       <c r="E16">
-        <v>0.9916489384329319</v>
+        <v>1.028258765960842</v>
       </c>
       <c r="F16">
-        <v>1.016439318034792</v>
+        <v>1.049071200745556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040808856842171</v>
+        <v>1.037949029244233</v>
       </c>
       <c r="J16">
-        <v>1.010529535513393</v>
+        <v>1.034578263237589</v>
       </c>
       <c r="K16">
-        <v>1.036641805902357</v>
+        <v>1.047703751189398</v>
       </c>
       <c r="L16">
-        <v>1.00613350232261</v>
+        <v>1.031724097339627</v>
       </c>
       <c r="M16">
-        <v>1.030482141183894</v>
+        <v>1.052462767292265</v>
       </c>
       <c r="N16">
-        <v>1.007015024180542</v>
+        <v>1.015446994309936</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9837611557525513</v>
+        <v>1.028608750170785</v>
       </c>
       <c r="D17">
-        <v>1.024040185010545</v>
+        <v>1.044559451351233</v>
       </c>
       <c r="E17">
-        <v>0.9933307706915562</v>
+        <v>1.028599685020245</v>
       </c>
       <c r="F17">
-        <v>1.018145641565261</v>
+        <v>1.049420534976668</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04140837176732</v>
+        <v>1.038041451547563</v>
       </c>
       <c r="J17">
-        <v>1.01185799616416</v>
+        <v>1.03484040655121</v>
       </c>
       <c r="K17">
-        <v>1.037639435426218</v>
+        <v>1.047895730718441</v>
       </c>
       <c r="L17">
-        <v>1.007456754951505</v>
+        <v>1.031991520081723</v>
       </c>
       <c r="M17">
-        <v>1.031842820370539</v>
+        <v>1.052740262104195</v>
       </c>
       <c r="N17">
-        <v>1.007472383371096</v>
+        <v>1.015535989269059</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9849836786777937</v>
+        <v>1.02884280608567</v>
       </c>
       <c r="D18">
-        <v>1.02481274810798</v>
+        <v>1.044713423160159</v>
       </c>
       <c r="E18">
-        <v>0.9943045003655923</v>
+        <v>1.028798614471324</v>
       </c>
       <c r="F18">
-        <v>1.019133935409572</v>
+        <v>1.04962438728749</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04175432206044</v>
+        <v>1.03809524059961</v>
       </c>
       <c r="J18">
-        <v>1.012626238994649</v>
+        <v>1.034993283007494</v>
       </c>
       <c r="K18">
-        <v>1.038216498389409</v>
+        <v>1.048007667198702</v>
       </c>
       <c r="L18">
-        <v>1.008222275139291</v>
+        <v>1.032147504870935</v>
       </c>
       <c r="M18">
-        <v>1.03263036808488</v>
+        <v>1.052902136131117</v>
       </c>
       <c r="N18">
-        <v>1.007736835984327</v>
+        <v>1.015587875960449</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9853988080107121</v>
+        <v>1.028922619726791</v>
       </c>
       <c r="D19">
-        <v>1.025075254590019</v>
+        <v>1.044765930245142</v>
       </c>
       <c r="E19">
-        <v>0.994635305690052</v>
+        <v>1.028866457332026</v>
       </c>
       <c r="F19">
-        <v>1.019469752232266</v>
+        <v>1.049693911149856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041871655675114</v>
+        <v>1.038113561026405</v>
       </c>
       <c r="J19">
-        <v>1.012887082625149</v>
+        <v>1.035045405282427</v>
       </c>
       <c r="K19">
-        <v>1.03841245190244</v>
+        <v>1.048045827506389</v>
       </c>
       <c r="L19">
-        <v>1.008482243245263</v>
+        <v>1.032200691911708</v>
       </c>
       <c r="M19">
-        <v>1.032897878965171</v>
+        <v>1.052957333673097</v>
       </c>
       <c r="N19">
-        <v>1.007826619931105</v>
+        <v>1.015605564146383</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9835354589962421</v>
+        <v>1.028565700489789</v>
       </c>
       <c r="D20">
-        <v>1.023897639371995</v>
+        <v>1.044531132573852</v>
       </c>
       <c r="E20">
-        <v>0.9931510809843471</v>
+        <v>1.028563099647718</v>
       </c>
       <c r="F20">
-        <v>1.017963294903304</v>
+        <v>1.049383045239671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041344437735743</v>
+        <v>1.038031547847356</v>
       </c>
       <c r="J20">
-        <v>1.011716154207515</v>
+        <v>1.034812283875098</v>
       </c>
       <c r="K20">
-        <v>1.037532902090732</v>
+        <v>1.047875137462503</v>
       </c>
       <c r="L20">
-        <v>1.007315439023998</v>
+        <v>1.03196282797974</v>
       </c>
       <c r="M20">
-        <v>1.031697468164873</v>
+        <v>1.052710487874797</v>
       </c>
       <c r="N20">
-        <v>1.007423554059582</v>
+        <v>1.015526443284035</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9773541875826753</v>
+        <v>1.027405781033303</v>
       </c>
       <c r="D21">
-        <v>1.020003688923039</v>
+        <v>1.043768251144676</v>
       </c>
       <c r="E21">
-        <v>0.9882389883013619</v>
+        <v>1.027577762824982</v>
       </c>
       <c r="F21">
-        <v>1.012982338814074</v>
+        <v>1.048373469133935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039585924631893</v>
+        <v>1.037763513654923</v>
       </c>
       <c r="J21">
-        <v>1.00783021128764</v>
+        <v>1.034054063838004</v>
       </c>
       <c r="K21">
-        <v>1.034615743377878</v>
+        <v>1.047319716812699</v>
       </c>
       <c r="L21">
-        <v>1.00344665574538</v>
+        <v>1.03118952977385</v>
       </c>
       <c r="M21">
-        <v>1.02772186143907</v>
+        <v>1.051908158682193</v>
       </c>
       <c r="N21">
-        <v>1.006085491878376</v>
+        <v>1.015268949116035</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9733680227042596</v>
+        <v>1.02667684654765</v>
       </c>
       <c r="D22">
-        <v>1.017503014648759</v>
+        <v>1.04328896330404</v>
       </c>
       <c r="E22">
-        <v>0.9850806160030249</v>
+        <v>1.026958942809259</v>
       </c>
       <c r="F22">
-        <v>1.009783622572796</v>
+        <v>1.047739542168882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038444868613185</v>
+        <v>1.037593917800947</v>
       </c>
       <c r="J22">
-        <v>1.005323315420166</v>
+        <v>1.033577098200291</v>
       </c>
       <c r="K22">
-        <v>1.032735528965144</v>
+        <v>1.046970130196124</v>
       </c>
       <c r="L22">
-        <v>1.000953538027594</v>
+        <v>1.030703345137119</v>
       </c>
       <c r="M22">
-        <v>1.025163723995881</v>
+        <v>1.051403853737122</v>
       </c>
       <c r="N22">
-        <v>1.005222008679554</v>
+        <v>1.015106850846655</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9754909702906497</v>
+        <v>1.027063235011294</v>
       </c>
       <c r="D23">
-        <v>1.018833786844476</v>
+        <v>1.043543007719773</v>
       </c>
       <c r="E23">
-        <v>0.9867617913877805</v>
+        <v>1.027286924356874</v>
       </c>
       <c r="F23">
-        <v>1.011485882303991</v>
+        <v>1.04807551940925</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039053208826944</v>
+        <v>1.037683925261487</v>
       </c>
       <c r="J23">
-        <v>1.006658502333173</v>
+        <v>1.033829969541771</v>
       </c>
       <c r="K23">
-        <v>1.033736760662032</v>
+        <v>1.047155487602225</v>
       </c>
       <c r="L23">
-        <v>1.002281129846466</v>
+        <v>1.030961078852518</v>
       </c>
       <c r="M23">
-        <v>1.026525561745105</v>
+        <v>1.051671180646077</v>
       </c>
       <c r="N23">
-        <v>1.0056819275197</v>
+        <v>1.015192801215607</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9836374734232917</v>
+        <v>1.028585152666763</v>
       </c>
       <c r="D24">
-        <v>1.023962066525316</v>
+        <v>1.044543928488151</v>
       </c>
       <c r="E24">
-        <v>0.9932322973994954</v>
+        <v>1.028579630764475</v>
       </c>
       <c r="F24">
-        <v>1.018045711025085</v>
+        <v>1.04939998495529</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041373338301581</v>
+        <v>1.038036023271862</v>
       </c>
       <c r="J24">
-        <v>1.011780266916438</v>
+        <v>1.034824991386261</v>
       </c>
       <c r="K24">
-        <v>1.03758105484255</v>
+        <v>1.047884442798075</v>
       </c>
       <c r="L24">
-        <v>1.00737931307085</v>
+        <v>1.031975792700566</v>
       </c>
       <c r="M24">
-        <v>1.031763165426553</v>
+        <v>1.052723941518101</v>
       </c>
       <c r="N24">
-        <v>1.007445625070922</v>
+        <v>1.015530756773491</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9926896262475104</v>
+        <v>1.030352785439876</v>
       </c>
       <c r="D25">
-        <v>1.0296993226897</v>
+        <v>1.045706990102518</v>
       </c>
       <c r="E25">
-        <v>1.000458319569024</v>
+        <v>1.030082767394429</v>
       </c>
       <c r="F25">
-        <v>1.025386155420456</v>
+        <v>1.05094054076575</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043919879654235</v>
+        <v>1.038439931499535</v>
       </c>
       <c r="J25">
-        <v>1.017465543336595</v>
+        <v>1.035978585983075</v>
       </c>
       <c r="K25">
-        <v>1.041853447746732</v>
+        <v>1.048728706599767</v>
       </c>
       <c r="L25">
-        <v>1.013049524880474</v>
+        <v>1.033153373385904</v>
       </c>
       <c r="M25">
-        <v>1.037602763334712</v>
+        <v>1.053946235694782</v>
       </c>
       <c r="N25">
-        <v>1.009401950750195</v>
+        <v>1.015922049337493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031763875314827</v>
+        <v>0.9996184344433006</v>
       </c>
       <c r="D2">
-        <v>1.046635844979365</v>
+        <v>1.034117178629182</v>
       </c>
       <c r="E2">
-        <v>1.031284073869498</v>
+        <v>1.006015594373016</v>
       </c>
       <c r="F2">
-        <v>1.05217213072702</v>
+        <v>1.031041385559619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038758296936026</v>
+        <v>1.045841659657009</v>
       </c>
       <c r="J2">
-        <v>1.036897806767848</v>
+        <v>1.021810564062059</v>
       </c>
       <c r="K2">
-        <v>1.049400727176832</v>
+        <v>1.045120820116842</v>
       </c>
       <c r="L2">
-        <v>1.034092637259812</v>
+        <v>1.017391753792607</v>
       </c>
       <c r="M2">
-        <v>1.054921599320609</v>
+        <v>1.042084561840721</v>
       </c>
       <c r="N2">
-        <v>1.016233419032144</v>
+        <v>1.010895666307757</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032789164789276</v>
+        <v>1.00449499547691</v>
       </c>
       <c r="D3">
-        <v>1.047310948525577</v>
+        <v>1.037239634676543</v>
       </c>
       <c r="E3">
-        <v>1.032157712858185</v>
+        <v>1.009940829891478</v>
       </c>
       <c r="F3">
-        <v>1.05306800373172</v>
+        <v>1.035040778613435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038987252654376</v>
+        <v>1.047177333925344</v>
       </c>
       <c r="J3">
-        <v>1.03756472235329</v>
+        <v>1.024863867943661</v>
       </c>
       <c r="K3">
-        <v>1.049887868018937</v>
+        <v>1.047417208231574</v>
       </c>
       <c r="L3">
-        <v>1.034774633236877</v>
+        <v>1.020448076590884</v>
       </c>
       <c r="M3">
-        <v>1.055630051627074</v>
+        <v>1.045244109333797</v>
       </c>
       <c r="N3">
-        <v>1.016459076482328</v>
+        <v>1.011944359453658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03345292540089</v>
+        <v>1.007583396568835</v>
       </c>
       <c r="D4">
-        <v>1.047748089067273</v>
+        <v>1.03922255831579</v>
       </c>
       <c r="E4">
-        <v>1.032723651785094</v>
+        <v>1.012432842695256</v>
       </c>
       <c r="F4">
-        <v>1.053648440332676</v>
+        <v>1.03758193364956</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039134379162751</v>
+        <v>1.048015094934768</v>
       </c>
       <c r="J4">
-        <v>1.037996017948617</v>
+        <v>1.026795087603781</v>
       </c>
       <c r="K4">
-        <v>1.050202702644199</v>
+        <v>1.048869571541206</v>
       </c>
       <c r="L4">
-        <v>1.035215930366329</v>
+        <v>1.022383494821717</v>
       </c>
       <c r="M4">
-        <v>1.056088578221575</v>
+        <v>1.047246987930781</v>
       </c>
       <c r="N4">
-        <v>1.01660489396788</v>
+        <v>1.012607170663427</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033732048975581</v>
+        <v>1.00886631401068</v>
       </c>
       <c r="D5">
-        <v>1.047931934224268</v>
+        <v>1.040047471694413</v>
       </c>
       <c r="E5">
-        <v>1.032961723894424</v>
+        <v>1.01346943404415</v>
       </c>
       <c r="F5">
-        <v>1.05389263335842</v>
+        <v>1.038639427938756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039195985748246</v>
+        <v>1.048361098934878</v>
       </c>
       <c r="J5">
-        <v>1.038177275747236</v>
+        <v>1.027596677178661</v>
       </c>
       <c r="K5">
-        <v>1.050334967670114</v>
+        <v>1.049472338310407</v>
       </c>
       <c r="L5">
-        <v>1.03540145103271</v>
+        <v>1.02318737462273</v>
       </c>
       <c r="M5">
-        <v>1.056281368176288</v>
+        <v>1.048079359835072</v>
       </c>
       <c r="N5">
-        <v>1.016666147944632</v>
+        <v>1.012882159257713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033778919652387</v>
+        <v>1.009080832786174</v>
       </c>
       <c r="D6">
-        <v>1.047962806774943</v>
+        <v>1.040185475356757</v>
       </c>
       <c r="E6">
-        <v>1.033001706100425</v>
+        <v>1.013642845830234</v>
       </c>
       <c r="F6">
-        <v>1.05393364481098</v>
+        <v>1.038816362774853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039206315361576</v>
+        <v>1.048418835878551</v>
       </c>
       <c r="J6">
-        <v>1.038207706259574</v>
+        <v>1.027730673762317</v>
       </c>
       <c r="K6">
-        <v>1.050357170159962</v>
+        <v>1.049573094071841</v>
       </c>
       <c r="L6">
-        <v>1.035432600711337</v>
+        <v>1.023321786196463</v>
       </c>
       <c r="M6">
-        <v>1.056313739914047</v>
+        <v>1.048218562312452</v>
       </c>
       <c r="N6">
-        <v>1.016676429951369</v>
+        <v>1.012928119865312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03345665475526</v>
+        <v>1.007600598886795</v>
       </c>
       <c r="D7">
-        <v>1.047750545336916</v>
+        <v>1.039233614711146</v>
       </c>
       <c r="E7">
-        <v>1.032726832322552</v>
+        <v>1.012446736572395</v>
       </c>
       <c r="F7">
-        <v>1.053651702556123</v>
+        <v>1.03759610591812</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039135203317773</v>
+        <v>1.048019742381728</v>
       </c>
       <c r="J7">
-        <v>1.037998440156261</v>
+        <v>1.026805838483412</v>
       </c>
       <c r="K7">
-        <v>1.050204470336463</v>
+        <v>1.048877656123923</v>
       </c>
       <c r="L7">
-        <v>1.03521840930594</v>
+        <v>1.022394274255749</v>
       </c>
       <c r="M7">
-        <v>1.056091154192057</v>
+        <v>1.04725814759514</v>
       </c>
       <c r="N7">
-        <v>1.016605712634294</v>
+        <v>1.012610859294888</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032110308212458</v>
+        <v>1.001280752797359</v>
       </c>
       <c r="D8">
-        <v>1.046863935743253</v>
+        <v>1.035180363626206</v>
       </c>
       <c r="E8">
-        <v>1.031579192012585</v>
+        <v>1.007352313593408</v>
       </c>
       <c r="F8">
-        <v>1.052474739766236</v>
+        <v>1.032402906015946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038835885169746</v>
+        <v>1.046298642389074</v>
       </c>
       <c r="J8">
-        <v>1.037123244043577</v>
+        <v>1.022851868260284</v>
       </c>
       <c r="K8">
-        <v>1.049565436423454</v>
+        <v>1.045903982385898</v>
       </c>
       <c r="L8">
-        <v>1.034323120559002</v>
+        <v>1.018433605687112</v>
       </c>
       <c r="M8">
-        <v>1.055161000537827</v>
+        <v>1.043161143368775</v>
       </c>
       <c r="N8">
-        <v>1.016309721836158</v>
+        <v>1.011253413136519</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029740413660409</v>
+        <v>0.9896017105136258</v>
       </c>
       <c r="D9">
-        <v>1.045304000148307</v>
+        <v>1.027737725627349</v>
       </c>
       <c r="E9">
-        <v>1.02956181418017</v>
+        <v>0.9979890191544856</v>
       </c>
       <c r="F9">
-        <v>1.050406559310196</v>
+        <v>1.022876069407175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038300632284336</v>
+        <v>1.043055380443167</v>
       </c>
       <c r="J9">
-        <v>1.035579199148571</v>
+        <v>1.015527079327654</v>
       </c>
       <c r="K9">
-        <v>1.048436522831822</v>
+        <v>1.040396254788552</v>
       </c>
       <c r="L9">
-        <v>1.032745538182151</v>
+        <v>1.011114807597808</v>
       </c>
       <c r="M9">
-        <v>1.053522846300444</v>
+        <v>1.0356085896411</v>
       </c>
       <c r="N9">
-        <v>1.015786645122144</v>
+        <v>1.008735123661486</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028162208989328</v>
+        <v>0.9814072771895439</v>
       </c>
       <c r="D10">
-        <v>1.044265726253921</v>
+        <v>1.022554779460769</v>
       </c>
       <c r="E10">
-        <v>1.028220249281495</v>
+        <v>0.9914578787163318</v>
       </c>
       <c r="F10">
-        <v>1.049031735034516</v>
+        <v>1.016245529703132</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037938568500056</v>
+        <v>1.040740594630577</v>
       </c>
       <c r="J10">
-        <v>1.034548634837703</v>
+        <v>1.010378497329633</v>
       </c>
       <c r="K10">
-        <v>1.047682050002491</v>
+        <v>1.036528401500826</v>
       </c>
       <c r="L10">
-        <v>1.03169387623018</v>
+        <v>1.00598309581569</v>
       </c>
       <c r="M10">
-        <v>1.052431409897015</v>
+        <v>1.030327532976688</v>
       </c>
       <c r="N10">
-        <v>1.015436933976413</v>
+        <v>1.006963020388286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027479240968996</v>
+        <v>0.977751481075712</v>
       </c>
       <c r="D11">
-        <v>1.04381655821374</v>
+        <v>1.020253379972126</v>
       </c>
       <c r="E11">
-        <v>1.027640142792193</v>
+        <v>0.9885541770649895</v>
       </c>
       <c r="F11">
-        <v>1.048437376922608</v>
+        <v>1.013301724906626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037780556174745</v>
+        <v>1.039699364906842</v>
       </c>
       <c r="J11">
-        <v>1.034102111051802</v>
+        <v>1.008080036421286</v>
       </c>
       <c r="K11">
-        <v>1.047354924325578</v>
+        <v>1.034803194362744</v>
       </c>
       <c r="L11">
-        <v>1.031238516941321</v>
+        <v>1.003695221755682</v>
       </c>
       <c r="M11">
-        <v>1.051958977259539</v>
+        <v>1.027977075537849</v>
       </c>
       <c r="N11">
-        <v>1.015285273079877</v>
+        <v>1.006171531933576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027225617222364</v>
+        <v>0.9763764086571074</v>
       </c>
       <c r="D12">
-        <v>1.043649780348703</v>
+        <v>1.019389522668268</v>
       </c>
       <c r="E12">
-        <v>1.0274247863937</v>
+        <v>0.987463586304847</v>
       </c>
       <c r="F12">
-        <v>1.048216749827874</v>
+        <v>1.01219674222236</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03772167802168</v>
+        <v>1.03930650951904</v>
       </c>
       <c r="J12">
-        <v>1.033936210261911</v>
+        <v>1.00721533861274</v>
       </c>
       <c r="K12">
-        <v>1.047233350978492</v>
+        <v>1.034154444964238</v>
       </c>
       <c r="L12">
-        <v>1.031069379398339</v>
+        <v>1.002834970937399</v>
       </c>
       <c r="M12">
-        <v>1.051783520798439</v>
+        <v>1.02709394389247</v>
       </c>
       <c r="N12">
-        <v>1.015228904626394</v>
+        <v>1.005873720443345</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027280017615007</v>
+        <v>0.9766721590132171</v>
       </c>
       <c r="D13">
-        <v>1.043685551888073</v>
+        <v>1.019575238160057</v>
       </c>
       <c r="E13">
-        <v>1.027470975584802</v>
+        <v>0.9876980770502329</v>
       </c>
       <c r="F13">
-        <v>1.048264068553302</v>
+        <v>1.012434296186084</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037734315965915</v>
+        <v>1.039391058424579</v>
       </c>
       <c r="J13">
-        <v>1.033971798436059</v>
+        <v>1.007401324182402</v>
       </c>
       <c r="K13">
-        <v>1.047259431769757</v>
+        <v>1.03429396882916</v>
       </c>
       <c r="L13">
-        <v>1.031105659822662</v>
+        <v>1.00301997896114</v>
       </c>
       <c r="M13">
-        <v>1.051821155609231</v>
+        <v>1.02728384249292</v>
       </c>
       <c r="N13">
-        <v>1.015240997423572</v>
+        <v>1.005937777945768</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027458275106091</v>
+        <v>0.9776381729417198</v>
       </c>
       <c r="D14">
-        <v>1.043802771007554</v>
+        <v>1.020182159748433</v>
       </c>
       <c r="E14">
-        <v>1.027622338892535</v>
+        <v>0.9884642778070165</v>
       </c>
       <c r="F14">
-        <v>1.048419136873839</v>
+        <v>1.013210625335222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037775693066788</v>
+        <v>1.039667017232717</v>
       </c>
       <c r="J14">
-        <v>1.034088398494183</v>
+        <v>1.00800878697812</v>
       </c>
       <c r="K14">
-        <v>1.047344876341431</v>
+        <v>1.034749732481275</v>
       </c>
       <c r="L14">
-        <v>1.031224535911213</v>
+        <v>1.003624329274042</v>
       </c>
       <c r="M14">
-        <v>1.051944473436209</v>
+        <v>1.027904283942628</v>
       </c>
       <c r="N14">
-        <v>1.015280614355219</v>
+        <v>1.006146993756481</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027568113514905</v>
+        <v>0.9782310630003035</v>
       </c>
       <c r="D15">
-        <v>1.043875001982907</v>
+        <v>1.020554896251849</v>
       </c>
       <c r="E15">
-        <v>1.027715614877</v>
+        <v>0.9889347452425404</v>
       </c>
       <c r="F15">
-        <v>1.048514698699506</v>
+        <v>1.013687402009875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037801162316993</v>
+        <v>1.039836228947319</v>
       </c>
       <c r="J15">
-        <v>1.034160234090943</v>
+        <v>1.008381596577398</v>
       </c>
       <c r="K15">
-        <v>1.047397513067675</v>
+        <v>1.035029481466922</v>
       </c>
       <c r="L15">
-        <v>1.031297779830334</v>
+        <v>1.003995290030139</v>
       </c>
       <c r="M15">
-        <v>1.052020457103037</v>
+        <v>1.028285209062641</v>
       </c>
       <c r="N15">
-        <v>1.015305019045008</v>
+        <v>1.006275386803237</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028207543872253</v>
+        <v>0.9816475516904811</v>
       </c>
       <c r="D16">
-        <v>1.044295544839336</v>
+        <v>1.022706275743036</v>
       </c>
       <c r="E16">
-        <v>1.028258765960842</v>
+        <v>0.9916489384329312</v>
       </c>
       <c r="F16">
-        <v>1.049071200745556</v>
+        <v>1.016439318034792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037949029244233</v>
+        <v>1.04080885684217</v>
       </c>
       <c r="J16">
-        <v>1.034578263237589</v>
+        <v>1.010529535513393</v>
       </c>
       <c r="K16">
-        <v>1.047703751189398</v>
+        <v>1.036641805902357</v>
       </c>
       <c r="L16">
-        <v>1.031724097339627</v>
+        <v>1.006133502322609</v>
       </c>
       <c r="M16">
-        <v>1.052462767292265</v>
+        <v>1.030482141183893</v>
       </c>
       <c r="N16">
-        <v>1.015446994309936</v>
+        <v>1.007015024180542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028608750170785</v>
+        <v>0.9837611557525507</v>
       </c>
       <c r="D17">
-        <v>1.044559451351233</v>
+        <v>1.024040185010545</v>
       </c>
       <c r="E17">
-        <v>1.028599685020245</v>
+        <v>0.9933307706915557</v>
       </c>
       <c r="F17">
-        <v>1.049420534976668</v>
+        <v>1.018145641565261</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038041451547563</v>
+        <v>1.04140837176732</v>
       </c>
       <c r="J17">
-        <v>1.03484040655121</v>
+        <v>1.01185799616416</v>
       </c>
       <c r="K17">
-        <v>1.047895730718441</v>
+        <v>1.037639435426217</v>
       </c>
       <c r="L17">
-        <v>1.031991520081723</v>
+        <v>1.007456754951505</v>
       </c>
       <c r="M17">
-        <v>1.052740262104195</v>
+        <v>1.031842820370539</v>
       </c>
       <c r="N17">
-        <v>1.015535989269059</v>
+        <v>1.007472383371096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02884280608567</v>
+        <v>0.984983678677794</v>
       </c>
       <c r="D18">
-        <v>1.044713423160159</v>
+        <v>1.02481274810798</v>
       </c>
       <c r="E18">
-        <v>1.028798614471324</v>
+        <v>0.9943045003655926</v>
       </c>
       <c r="F18">
-        <v>1.04962438728749</v>
+        <v>1.019133935409572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03809524059961</v>
+        <v>1.04175432206044</v>
       </c>
       <c r="J18">
-        <v>1.034993283007494</v>
+        <v>1.01262623899465</v>
       </c>
       <c r="K18">
-        <v>1.048007667198702</v>
+        <v>1.03821649838941</v>
       </c>
       <c r="L18">
-        <v>1.032147504870935</v>
+        <v>1.008222275139291</v>
       </c>
       <c r="M18">
-        <v>1.052902136131117</v>
+        <v>1.03263036808488</v>
       </c>
       <c r="N18">
-        <v>1.015587875960449</v>
+        <v>1.007736835984328</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028922619726791</v>
+        <v>0.985398808010713</v>
       </c>
       <c r="D19">
-        <v>1.044765930245142</v>
+        <v>1.025075254590019</v>
       </c>
       <c r="E19">
-        <v>1.028866457332026</v>
+        <v>0.9946353056900529</v>
       </c>
       <c r="F19">
-        <v>1.049693911149856</v>
+        <v>1.019469752232266</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038113561026405</v>
+        <v>1.041871655675114</v>
       </c>
       <c r="J19">
-        <v>1.035045405282427</v>
+        <v>1.012887082625149</v>
       </c>
       <c r="K19">
-        <v>1.048045827506389</v>
+        <v>1.038412451902439</v>
       </c>
       <c r="L19">
-        <v>1.032200691911708</v>
+        <v>1.008482243245264</v>
       </c>
       <c r="M19">
-        <v>1.052957333673097</v>
+        <v>1.032897878965171</v>
       </c>
       <c r="N19">
-        <v>1.015605564146383</v>
+        <v>1.007826619931105</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028565700489789</v>
+        <v>0.9835354589962422</v>
       </c>
       <c r="D20">
-        <v>1.044531132573852</v>
+        <v>1.023897639371995</v>
       </c>
       <c r="E20">
-        <v>1.028563099647718</v>
+        <v>0.9931510809843472</v>
       </c>
       <c r="F20">
-        <v>1.049383045239671</v>
+        <v>1.017963294903304</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038031547847356</v>
+        <v>1.041344437735743</v>
       </c>
       <c r="J20">
-        <v>1.034812283875098</v>
+        <v>1.011716154207515</v>
       </c>
       <c r="K20">
-        <v>1.047875137462503</v>
+        <v>1.037532902090732</v>
       </c>
       <c r="L20">
-        <v>1.03196282797974</v>
+        <v>1.007315439023998</v>
       </c>
       <c r="M20">
-        <v>1.052710487874797</v>
+        <v>1.031697468164873</v>
       </c>
       <c r="N20">
-        <v>1.015526443284035</v>
+        <v>1.007423554059582</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027405781033303</v>
+        <v>0.977354187582675</v>
       </c>
       <c r="D21">
-        <v>1.043768251144676</v>
+        <v>1.020003688923038</v>
       </c>
       <c r="E21">
-        <v>1.027577762824982</v>
+        <v>0.9882389883013613</v>
       </c>
       <c r="F21">
-        <v>1.048373469133935</v>
+        <v>1.012982338814074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037763513654923</v>
+        <v>1.039585924631893</v>
       </c>
       <c r="J21">
-        <v>1.034054063838004</v>
+        <v>1.00783021128764</v>
       </c>
       <c r="K21">
-        <v>1.047319716812699</v>
+        <v>1.034615743377878</v>
       </c>
       <c r="L21">
-        <v>1.03118952977385</v>
+        <v>1.003446655745379</v>
       </c>
       <c r="M21">
-        <v>1.051908158682193</v>
+        <v>1.02772186143907</v>
       </c>
       <c r="N21">
-        <v>1.015268949116035</v>
+        <v>1.006085491878376</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02667684654765</v>
+        <v>0.9733680227042588</v>
       </c>
       <c r="D22">
-        <v>1.04328896330404</v>
+        <v>1.017503014648758</v>
       </c>
       <c r="E22">
-        <v>1.026958942809259</v>
+        <v>0.9850806160030241</v>
       </c>
       <c r="F22">
-        <v>1.047739542168882</v>
+        <v>1.009783622572795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037593917800947</v>
+        <v>1.038444868613184</v>
       </c>
       <c r="J22">
-        <v>1.033577098200291</v>
+        <v>1.005323315420165</v>
       </c>
       <c r="K22">
-        <v>1.046970130196124</v>
+        <v>1.032735528965143</v>
       </c>
       <c r="L22">
-        <v>1.030703345137119</v>
+        <v>1.000953538027593</v>
       </c>
       <c r="M22">
-        <v>1.051403853737122</v>
+        <v>1.02516372399588</v>
       </c>
       <c r="N22">
-        <v>1.015106850846655</v>
+        <v>1.005222008679554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027063235011294</v>
+        <v>0.9754909702906497</v>
       </c>
       <c r="D23">
-        <v>1.043543007719773</v>
+        <v>1.018833786844475</v>
       </c>
       <c r="E23">
-        <v>1.027286924356874</v>
+        <v>0.9867617913877806</v>
       </c>
       <c r="F23">
-        <v>1.04807551940925</v>
+        <v>1.011485882303991</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037683925261487</v>
+        <v>1.039053208826944</v>
       </c>
       <c r="J23">
-        <v>1.033829969541771</v>
+        <v>1.006658502333172</v>
       </c>
       <c r="K23">
-        <v>1.047155487602225</v>
+        <v>1.033736760662032</v>
       </c>
       <c r="L23">
-        <v>1.030961078852518</v>
+        <v>1.002281129846466</v>
       </c>
       <c r="M23">
-        <v>1.051671180646077</v>
+        <v>1.026525561745105</v>
       </c>
       <c r="N23">
-        <v>1.015192801215607</v>
+        <v>1.0056819275197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028585152666763</v>
+        <v>0.9836374734232914</v>
       </c>
       <c r="D24">
-        <v>1.044543928488151</v>
+        <v>1.023962066525316</v>
       </c>
       <c r="E24">
-        <v>1.028579630764475</v>
+        <v>0.9932322973994953</v>
       </c>
       <c r="F24">
-        <v>1.04939998495529</v>
+        <v>1.018045711025085</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038036023271862</v>
+        <v>1.041373338301581</v>
       </c>
       <c r="J24">
-        <v>1.034824991386261</v>
+        <v>1.011780266916438</v>
       </c>
       <c r="K24">
-        <v>1.047884442798075</v>
+        <v>1.03758105484255</v>
       </c>
       <c r="L24">
-        <v>1.031975792700566</v>
+        <v>1.00737931307085</v>
       </c>
       <c r="M24">
-        <v>1.052723941518101</v>
+        <v>1.031763165426553</v>
       </c>
       <c r="N24">
-        <v>1.015530756773491</v>
+        <v>1.007445625070922</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030352785439876</v>
+        <v>0.9926896262475091</v>
       </c>
       <c r="D25">
-        <v>1.045706990102518</v>
+        <v>1.029699322689699</v>
       </c>
       <c r="E25">
-        <v>1.030082767394429</v>
+        <v>1.000458319569023</v>
       </c>
       <c r="F25">
-        <v>1.05094054076575</v>
+        <v>1.025386155420455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038439931499535</v>
+        <v>1.043919879654234</v>
       </c>
       <c r="J25">
-        <v>1.035978585983075</v>
+        <v>1.017465543336593</v>
       </c>
       <c r="K25">
-        <v>1.048728706599767</v>
+        <v>1.041853447746731</v>
       </c>
       <c r="L25">
-        <v>1.033153373385904</v>
+        <v>1.013049524880473</v>
       </c>
       <c r="M25">
-        <v>1.053946235694782</v>
+        <v>1.03760276333471</v>
       </c>
       <c r="N25">
-        <v>1.015922049337493</v>
+        <v>1.009401950750195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9996184344433006</v>
+        <v>0.9981228153626266</v>
       </c>
       <c r="D2">
-        <v>1.034117178629182</v>
+        <v>1.033507754478407</v>
       </c>
       <c r="E2">
-        <v>1.006015594373016</v>
+        <v>1.004688610406674</v>
       </c>
       <c r="F2">
-        <v>1.031041385559619</v>
+        <v>1.024802081334212</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045841659657009</v>
+        <v>1.045872495702363</v>
       </c>
       <c r="J2">
-        <v>1.021810564062059</v>
+        <v>1.020359818032212</v>
       </c>
       <c r="K2">
-        <v>1.045120820116842</v>
+        <v>1.044519205848072</v>
       </c>
       <c r="L2">
-        <v>1.017391753792607</v>
+        <v>1.016083009633339</v>
       </c>
       <c r="M2">
-        <v>1.042084561840721</v>
+        <v>1.03592636799932</v>
       </c>
       <c r="N2">
-        <v>1.010895666307757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010335908485416</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03700569229454</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042549214449479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00449499547691</v>
+        <v>1.002712390009794</v>
       </c>
       <c r="D3">
-        <v>1.037239634676543</v>
+        <v>1.035400137951573</v>
       </c>
       <c r="E3">
-        <v>1.009940829891478</v>
+        <v>1.008369955586627</v>
       </c>
       <c r="F3">
-        <v>1.035040778613435</v>
+        <v>1.027854674802791</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047177333925344</v>
+        <v>1.046813660310557</v>
       </c>
       <c r="J3">
-        <v>1.024863867943661</v>
+        <v>1.023129384659039</v>
       </c>
       <c r="K3">
-        <v>1.047417208231574</v>
+        <v>1.045599249919869</v>
       </c>
       <c r="L3">
-        <v>1.020448076590884</v>
+        <v>1.018896849821979</v>
       </c>
       <c r="M3">
-        <v>1.045244109333797</v>
+        <v>1.03814313570075</v>
       </c>
       <c r="N3">
-        <v>1.011944359453658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011303405318094</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03876012170191</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04331023794049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007583396568835</v>
+        <v>1.005620149433644</v>
       </c>
       <c r="D4">
-        <v>1.03922255831579</v>
+        <v>1.036608104997151</v>
       </c>
       <c r="E4">
-        <v>1.012432842695256</v>
+        <v>1.01070814495052</v>
       </c>
       <c r="F4">
-        <v>1.03758193364956</v>
+        <v>1.029798126544056</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048015094934768</v>
+        <v>1.04740243814607</v>
       </c>
       <c r="J4">
-        <v>1.026795087603781</v>
+        <v>1.024881175670861</v>
       </c>
       <c r="K4">
-        <v>1.048869571541206</v>
+        <v>1.046283901137826</v>
       </c>
       <c r="L4">
-        <v>1.022383494821717</v>
+        <v>1.020679027433883</v>
       </c>
       <c r="M4">
-        <v>1.047246987930781</v>
+        <v>1.039549739467567</v>
       </c>
       <c r="N4">
-        <v>1.012607170663427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011914865887422</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039873356105015</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043795229569827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00886631401068</v>
+        <v>1.006829594779355</v>
       </c>
       <c r="D5">
-        <v>1.040047471694413</v>
+        <v>1.037118050686218</v>
       </c>
       <c r="E5">
-        <v>1.01346943404415</v>
+        <v>1.011682301988112</v>
       </c>
       <c r="F5">
-        <v>1.038639427938756</v>
+        <v>1.030608528684685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048361098934878</v>
+        <v>1.047647364178472</v>
       </c>
       <c r="J5">
-        <v>1.027596677178661</v>
+        <v>1.025609578898167</v>
       </c>
       <c r="K5">
-        <v>1.049472338310407</v>
+        <v>1.046574316812685</v>
       </c>
       <c r="L5">
-        <v>1.02318737462273</v>
+        <v>1.021420630626103</v>
       </c>
       <c r="M5">
-        <v>1.048079359835072</v>
+        <v>1.04013535258186</v>
       </c>
       <c r="N5">
-        <v>1.012882159257713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012169385488167</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040336829874885</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044007707026284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009080832786174</v>
+        <v>1.007033469749465</v>
       </c>
       <c r="D6">
-        <v>1.040185475356757</v>
+        <v>1.037210714984504</v>
       </c>
       <c r="E6">
-        <v>1.013642845830234</v>
+        <v>1.011846910747752</v>
       </c>
       <c r="F6">
-        <v>1.038816362774853</v>
+        <v>1.030745080531352</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048418835878551</v>
+        <v>1.047690820261138</v>
       </c>
       <c r="J6">
-        <v>1.027730673762317</v>
+        <v>1.02573292964078</v>
       </c>
       <c r="K6">
-        <v>1.049573094071841</v>
+        <v>1.046630074476098</v>
       </c>
       <c r="L6">
-        <v>1.023321786196463</v>
+        <v>1.021546243154784</v>
       </c>
       <c r="M6">
-        <v>1.048218562312452</v>
+        <v>1.040234203639945</v>
       </c>
       <c r="N6">
-        <v>1.012928119865312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012212965107658</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040415063873056</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044055829430335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007600598886795</v>
+        <v>1.005640740259887</v>
       </c>
       <c r="D7">
-        <v>1.039233614711146</v>
+        <v>1.036634394722486</v>
       </c>
       <c r="E7">
-        <v>1.012446736572395</v>
+        <v>1.010725589214214</v>
       </c>
       <c r="F7">
-        <v>1.03759610591812</v>
+        <v>1.029811409484976</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048019742381728</v>
+        <v>1.047412706423404</v>
       </c>
       <c r="J7">
-        <v>1.026805838483412</v>
+        <v>1.02489520941427</v>
       </c>
       <c r="K7">
-        <v>1.048877656123923</v>
+        <v>1.046307040557837</v>
       </c>
       <c r="L7">
-        <v>1.022394274255749</v>
+        <v>1.020693308070001</v>
       </c>
       <c r="M7">
-        <v>1.04725814759514</v>
+        <v>1.039559988030476</v>
       </c>
       <c r="N7">
-        <v>1.012610859294888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01192109587139</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039881467162425</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043831593538978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001280752797359</v>
+        <v>0.999692483247954</v>
       </c>
       <c r="D8">
-        <v>1.035180363626206</v>
+        <v>1.034174742174917</v>
       </c>
       <c r="E8">
-        <v>1.007352313593408</v>
+        <v>1.005947543407354</v>
       </c>
       <c r="F8">
-        <v>1.032402906015946</v>
+        <v>1.025843406322972</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046298642389074</v>
+        <v>1.046203370306637</v>
       </c>
       <c r="J8">
-        <v>1.022851868260284</v>
+        <v>1.021309609674316</v>
       </c>
       <c r="K8">
-        <v>1.045903982385898</v>
+        <v>1.044910868375591</v>
       </c>
       <c r="L8">
-        <v>1.018433605687112</v>
+        <v>1.017047549656327</v>
       </c>
       <c r="M8">
-        <v>1.043161143368775</v>
+        <v>1.036684331223768</v>
       </c>
       <c r="N8">
-        <v>1.011253413136519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010669543329026</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037605572040803</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042848929771369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9896017105136258</v>
+        <v>0.9887039463271673</v>
       </c>
       <c r="D9">
-        <v>1.027737725627349</v>
+        <v>1.029678421308437</v>
       </c>
       <c r="E9">
-        <v>0.9979890191544856</v>
+        <v>0.9971682242848164</v>
       </c>
       <c r="F9">
-        <v>1.022876069407175</v>
+        <v>1.018592941343077</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043055380443167</v>
+        <v>1.043901840158946</v>
       </c>
       <c r="J9">
-        <v>1.015527079327654</v>
+        <v>1.014662001767331</v>
       </c>
       <c r="K9">
-        <v>1.040396254788552</v>
+        <v>1.04230766286086</v>
       </c>
       <c r="L9">
-        <v>1.011114807597808</v>
+        <v>1.010307412763733</v>
       </c>
       <c r="M9">
-        <v>1.0356085896411</v>
+        <v>1.03139139528864</v>
       </c>
       <c r="N9">
-        <v>1.008735123661486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008343298882359</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03341653885372</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041005161076491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9814072771895439</v>
+        <v>0.9811126250630731</v>
       </c>
       <c r="D10">
-        <v>1.022554779460769</v>
+        <v>1.026629629280272</v>
       </c>
       <c r="E10">
-        <v>0.9914578787163318</v>
+        <v>0.9911518327758431</v>
       </c>
       <c r="F10">
-        <v>1.016245529703132</v>
+        <v>1.013812005027411</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040740594630577</v>
+        <v>1.042307098774944</v>
       </c>
       <c r="J10">
-        <v>1.010378497329633</v>
+        <v>1.0100961807524</v>
       </c>
       <c r="K10">
-        <v>1.036528401500826</v>
+        <v>1.040534166275315</v>
       </c>
       <c r="L10">
-        <v>1.00598309581569</v>
+        <v>1.005682702708575</v>
       </c>
       <c r="M10">
-        <v>1.030327532976688</v>
+        <v>1.027936278510587</v>
       </c>
       <c r="N10">
-        <v>1.006963020388286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006753646215234</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.030733939361718</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039767922157834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.977751481075712</v>
+        <v>0.9785899621016918</v>
       </c>
       <c r="D11">
-        <v>1.020253379972126</v>
+        <v>1.025614832232601</v>
       </c>
       <c r="E11">
-        <v>0.9885541770649895</v>
+        <v>0.9892644033236441</v>
       </c>
       <c r="F11">
-        <v>1.013301724906626</v>
+        <v>1.013586158234458</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039699364906842</v>
+        <v>1.042012097223914</v>
       </c>
       <c r="J11">
-        <v>1.008080036421286</v>
+        <v>1.0088813682824</v>
       </c>
       <c r="K11">
-        <v>1.034803194362744</v>
+        <v>1.040069334319749</v>
       </c>
       <c r="L11">
-        <v>1.003695221755682</v>
+        <v>1.004391657425548</v>
       </c>
       <c r="M11">
-        <v>1.027977075537849</v>
+        <v>1.02825632846808</v>
       </c>
       <c r="N11">
-        <v>1.006171531933576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006415376947608</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031427012339661</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039471920158402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763764086571074</v>
+        <v>0.9779455303547998</v>
       </c>
       <c r="D12">
-        <v>1.019389522668268</v>
+        <v>1.025332066631464</v>
       </c>
       <c r="E12">
-        <v>0.987463586304847</v>
+        <v>0.9888361875920545</v>
       </c>
       <c r="F12">
-        <v>1.01219674222236</v>
+        <v>1.014151164617033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03930650951904</v>
+        <v>1.042045391770143</v>
       </c>
       <c r="J12">
-        <v>1.00721533861274</v>
+        <v>1.008713518569365</v>
       </c>
       <c r="K12">
-        <v>1.034154444964238</v>
+        <v>1.039989521027518</v>
       </c>
       <c r="L12">
-        <v>1.002834970937399</v>
+        <v>1.00418044022146</v>
       </c>
       <c r="M12">
-        <v>1.02709394389247</v>
+        <v>1.029012181341679</v>
       </c>
       <c r="N12">
-        <v>1.005873720443345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006426421949936</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032353462950343</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039415490215627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9766721590132171</v>
+        <v>0.978709174565397</v>
       </c>
       <c r="D13">
-        <v>1.019575238160057</v>
+        <v>1.025614086810011</v>
       </c>
       <c r="E13">
-        <v>0.9876980770502329</v>
+        <v>0.9895049311644392</v>
       </c>
       <c r="F13">
-        <v>1.012434296186084</v>
+        <v>1.015383648971355</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039391058424579</v>
+        <v>1.042344656303013</v>
       </c>
       <c r="J13">
-        <v>1.007401324182402</v>
+        <v>1.009346725308909</v>
       </c>
       <c r="K13">
-        <v>1.03429396882916</v>
+        <v>1.040224037270642</v>
       </c>
       <c r="L13">
-        <v>1.00301997896114</v>
+        <v>1.004791280403104</v>
       </c>
       <c r="M13">
-        <v>1.02728384249292</v>
+        <v>1.030178875284627</v>
       </c>
       <c r="N13">
-        <v>1.005937777945768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006710679103931</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033554106624051</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03957882139305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9776381729417198</v>
+        <v>0.9798718385594738</v>
       </c>
       <c r="D14">
-        <v>1.020182159748433</v>
+        <v>1.026068309746318</v>
       </c>
       <c r="E14">
-        <v>0.9884642778070165</v>
+        <v>0.9904616034666088</v>
       </c>
       <c r="F14">
-        <v>1.013210625335222</v>
+        <v>1.016532619407603</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039667017232717</v>
+        <v>1.042670943105156</v>
       </c>
       <c r="J14">
-        <v>1.00800878697812</v>
+        <v>1.01014351605959</v>
       </c>
       <c r="K14">
-        <v>1.034749732481275</v>
+        <v>1.040531156558977</v>
       </c>
       <c r="L14">
-        <v>1.003624329274042</v>
+        <v>1.005582878314285</v>
       </c>
       <c r="M14">
-        <v>1.027904283942628</v>
+        <v>1.031165916552483</v>
       </c>
       <c r="N14">
-        <v>1.006146993756481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007030199793916</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034508401210064</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039797378259901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9782310630003035</v>
+        <v>0.9804699513527549</v>
       </c>
       <c r="D15">
-        <v>1.020554896251849</v>
+        <v>1.02631066671073</v>
       </c>
       <c r="E15">
-        <v>0.9889347452425404</v>
+        <v>0.9909416212820853</v>
       </c>
       <c r="F15">
-        <v>1.013687402009875</v>
+        <v>1.01699079975295</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039836228947319</v>
+        <v>1.042815165779958</v>
       </c>
       <c r="J15">
-        <v>1.008381596577398</v>
+        <v>1.010522233347386</v>
       </c>
       <c r="K15">
-        <v>1.035029481466922</v>
+        <v>1.040683623299995</v>
       </c>
       <c r="L15">
-        <v>1.003995290030139</v>
+        <v>1.005963521006476</v>
       </c>
       <c r="M15">
-        <v>1.028285209062641</v>
+        <v>1.03152906484491</v>
       </c>
       <c r="N15">
-        <v>1.006275386803237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007171440045646</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03483310621905</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039911011542934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9816475516904811</v>
+        <v>0.9835300015353796</v>
       </c>
       <c r="D16">
-        <v>1.022706275743036</v>
+        <v>1.027544420214757</v>
       </c>
       <c r="E16">
-        <v>0.9916489384329312</v>
+        <v>0.9933461657923205</v>
       </c>
       <c r="F16">
-        <v>1.016439318034792</v>
+        <v>1.018820668975904</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04080885684217</v>
+        <v>1.043442918214877</v>
       </c>
       <c r="J16">
-        <v>1.010529535513393</v>
+        <v>1.012333732386852</v>
       </c>
       <c r="K16">
-        <v>1.036641805902357</v>
+        <v>1.041398273376625</v>
       </c>
       <c r="L16">
-        <v>1.006133502322609</v>
+        <v>1.007799571135274</v>
       </c>
       <c r="M16">
-        <v>1.030482141183893</v>
+        <v>1.032822521420462</v>
       </c>
       <c r="N16">
-        <v>1.007015024180542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007789308513099</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035816591459502</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04041943997186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9837611557525507</v>
+        <v>0.9852736430515712</v>
       </c>
       <c r="D17">
-        <v>1.024040185010545</v>
+        <v>1.028257770511686</v>
       </c>
       <c r="E17">
-        <v>0.9933307706915557</v>
+        <v>0.9946959467777872</v>
       </c>
       <c r="F17">
-        <v>1.018145641565261</v>
+        <v>1.019621643232153</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04140837176732</v>
+        <v>1.043753896030153</v>
       </c>
       <c r="J17">
-        <v>1.01185799616416</v>
+        <v>1.013309737566364</v>
       </c>
       <c r="K17">
-        <v>1.037639435426217</v>
+        <v>1.041787838032206</v>
       </c>
       <c r="L17">
-        <v>1.007456754951505</v>
+        <v>1.008797618821656</v>
       </c>
       <c r="M17">
-        <v>1.031842820370539</v>
+        <v>1.033294163741933</v>
       </c>
       <c r="N17">
-        <v>1.007472383371096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00809705216209</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036059861716305</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040697449074486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.984983678677794</v>
+        <v>0.986021737539048</v>
       </c>
       <c r="D18">
-        <v>1.02481274810798</v>
+        <v>1.028565798966729</v>
       </c>
       <c r="E18">
-        <v>0.9943045003655926</v>
+        <v>0.995236038748699</v>
       </c>
       <c r="F18">
-        <v>1.019133935409572</v>
+        <v>1.019499271307735</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04175432206044</v>
+        <v>1.043800363278813</v>
       </c>
       <c r="J18">
-        <v>1.01262623899465</v>
+        <v>1.013623430207516</v>
       </c>
       <c r="K18">
-        <v>1.03821649838941</v>
+        <v>1.041909017173678</v>
       </c>
       <c r="L18">
-        <v>1.008222275139291</v>
+        <v>1.009137514196071</v>
       </c>
       <c r="M18">
-        <v>1.03263036808488</v>
+        <v>1.032989701469859</v>
       </c>
       <c r="N18">
-        <v>1.007736835984328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008152730281171</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035580410070412</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040771558651374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.985398808010713</v>
+        <v>0.9858481614229988</v>
       </c>
       <c r="D19">
-        <v>1.025075254590019</v>
+        <v>1.028526186113548</v>
       </c>
       <c r="E19">
-        <v>0.9946353056900529</v>
+        <v>0.9950272498768291</v>
       </c>
       <c r="F19">
-        <v>1.019469752232266</v>
+        <v>1.018482230289143</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041871655675114</v>
+        <v>1.043607727870482</v>
       </c>
       <c r="J19">
-        <v>1.012887082625149</v>
+        <v>1.013318855292097</v>
       </c>
       <c r="K19">
-        <v>1.038412451902439</v>
+        <v>1.041808036164648</v>
       </c>
       <c r="L19">
-        <v>1.008482243245264</v>
+        <v>1.008867367466129</v>
       </c>
       <c r="M19">
-        <v>1.032897878965171</v>
+        <v>1.031926509376543</v>
       </c>
       <c r="N19">
-        <v>1.007826619931105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007981144048121</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034412369993612</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04070651986864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9835354589962422</v>
+        <v>0.9830984396806988</v>
       </c>
       <c r="D20">
-        <v>1.023897639371995</v>
+        <v>1.027465955260612</v>
       </c>
       <c r="E20">
-        <v>0.9931510809843472</v>
+        <v>0.992725992828673</v>
       </c>
       <c r="F20">
-        <v>1.017963294903304</v>
+        <v>1.015065049168676</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041344437735743</v>
+        <v>1.042742484351061</v>
       </c>
       <c r="J20">
-        <v>1.011716154207515</v>
+        <v>1.011296802834821</v>
       </c>
       <c r="K20">
-        <v>1.037532902090732</v>
+        <v>1.041042450433984</v>
       </c>
       <c r="L20">
-        <v>1.007315439023998</v>
+        <v>1.006897964258833</v>
       </c>
       <c r="M20">
-        <v>1.031697468164873</v>
+        <v>1.028848071257261</v>
       </c>
       <c r="N20">
-        <v>1.007423554059582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007176200663532</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031444885769008</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040169121135019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977354187582675</v>
+        <v>0.9772104660046838</v>
       </c>
       <c r="D21">
-        <v>1.020003688923038</v>
+        <v>1.025117611478674</v>
       </c>
       <c r="E21">
-        <v>0.9882389883013613</v>
+        <v>0.9880537659069367</v>
       </c>
       <c r="F21">
-        <v>1.012982338814074</v>
+        <v>1.011113211870929</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039585924631893</v>
+        <v>1.041444672271768</v>
       </c>
       <c r="J21">
-        <v>1.00783021128764</v>
+        <v>1.007692906102851</v>
       </c>
       <c r="K21">
-        <v>1.034615743377878</v>
+        <v>1.039638252021367</v>
       </c>
       <c r="L21">
-        <v>1.003446655745379</v>
+        <v>1.003265053772849</v>
       </c>
       <c r="M21">
-        <v>1.02772186143907</v>
+        <v>1.025887056070593</v>
       </c>
       <c r="N21">
-        <v>1.006085491878376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00590534255758</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029060166465282</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039179511124667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9733680227042588</v>
+        <v>0.9734659595015079</v>
       </c>
       <c r="D22">
-        <v>1.017503014648758</v>
+        <v>1.023619039077527</v>
       </c>
       <c r="E22">
-        <v>0.9850806160030241</v>
+        <v>0.9850963297227591</v>
       </c>
       <c r="F22">
-        <v>1.009783622572795</v>
+        <v>1.008700220889577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038444868613184</v>
+        <v>1.04062153329721</v>
       </c>
       <c r="J22">
-        <v>1.005323315420165</v>
+        <v>1.005416608147534</v>
       </c>
       <c r="K22">
-        <v>1.032735528965143</v>
+        <v>1.038736683185168</v>
       </c>
       <c r="L22">
-        <v>1.000953538027593</v>
+        <v>1.000968927890715</v>
       </c>
       <c r="M22">
-        <v>1.02516372399588</v>
+        <v>1.024101272783202</v>
       </c>
       <c r="N22">
-        <v>1.005222008679554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005105326948187</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027646814371389</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038528639174712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9754909702906497</v>
+        <v>0.9754558749604756</v>
       </c>
       <c r="D23">
-        <v>1.018833786844475</v>
+        <v>1.024398685259819</v>
       </c>
       <c r="E23">
-        <v>0.9867617913877806</v>
+        <v>0.9866661091244553</v>
       </c>
       <c r="F23">
-        <v>1.011485882303991</v>
+        <v>1.009981710091279</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039053208826944</v>
+        <v>1.041054484503219</v>
       </c>
       <c r="J23">
-        <v>1.006658502333172</v>
+        <v>1.006625019143846</v>
       </c>
       <c r="K23">
-        <v>1.033736760662032</v>
+        <v>1.039199823639352</v>
       </c>
       <c r="L23">
-        <v>1.002281129846466</v>
+        <v>1.002187365308352</v>
       </c>
       <c r="M23">
-        <v>1.026525561745105</v>
+        <v>1.025049694686615</v>
       </c>
       <c r="N23">
-        <v>1.0056819275197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005528533100827</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.028397440013845</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038846518105846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9836374734232914</v>
+        <v>0.9831048632288409</v>
       </c>
       <c r="D24">
-        <v>1.023962066525316</v>
+        <v>1.027446945434751</v>
       </c>
       <c r="E24">
-        <v>0.9932322973994953</v>
+        <v>0.9927199519962093</v>
       </c>
       <c r="F24">
-        <v>1.018045711025085</v>
+        <v>1.014935885287638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041373338301581</v>
+        <v>1.042712908832422</v>
       </c>
       <c r="J24">
-        <v>1.011780266916438</v>
+        <v>1.01126915549431</v>
       </c>
       <c r="K24">
-        <v>1.03758105484255</v>
+        <v>1.041008617083132</v>
       </c>
       <c r="L24">
-        <v>1.00737931307085</v>
+        <v>1.006876131089968</v>
       </c>
       <c r="M24">
-        <v>1.031763165426553</v>
+        <v>1.028705690488332</v>
       </c>
       <c r="N24">
-        <v>1.007445625070922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007156880283713</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031290959189565</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040117951569016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9926896262475091</v>
+        <v>0.9916145949515797</v>
       </c>
       <c r="D25">
-        <v>1.029699322689699</v>
+        <v>1.030887159000015</v>
       </c>
       <c r="E25">
-        <v>1.000458319569023</v>
+        <v>0.9994891968155313</v>
       </c>
       <c r="F25">
-        <v>1.025386155420455</v>
+        <v>1.020502824901333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043919879654234</v>
+        <v>1.044527104972953</v>
       </c>
       <c r="J25">
-        <v>1.017465543336593</v>
+        <v>1.016427494763187</v>
       </c>
       <c r="K25">
-        <v>1.041853447746731</v>
+        <v>1.043024192713982</v>
       </c>
       <c r="L25">
-        <v>1.013049524880473</v>
+        <v>1.012095447524163</v>
       </c>
       <c r="M25">
-        <v>1.03760276333471</v>
+        <v>1.032790985015686</v>
       </c>
       <c r="N25">
-        <v>1.009401950750195</v>
+        <v>1.008963845623715</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034524230438246</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041540208256329</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981228153626266</v>
+        <v>0.9985325304585726</v>
       </c>
       <c r="D2">
-        <v>1.033507754478407</v>
+        <v>1.031265268722025</v>
       </c>
       <c r="E2">
-        <v>1.004688610406674</v>
+        <v>1.005047532085214</v>
       </c>
       <c r="F2">
-        <v>1.024802081334212</v>
+        <v>1.024829580854176</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045872495702363</v>
+        <v>1.045255000610646</v>
       </c>
       <c r="J2">
-        <v>1.020359818032212</v>
+        <v>1.020757222053583</v>
       </c>
       <c r="K2">
-        <v>1.044519205848072</v>
+        <v>1.042305557360476</v>
       </c>
       <c r="L2">
-        <v>1.016083009633339</v>
+        <v>1.016436991833991</v>
       </c>
       <c r="M2">
-        <v>1.03592636799932</v>
+        <v>1.035953507312954</v>
       </c>
       <c r="N2">
-        <v>1.010335908485416</v>
+        <v>1.01241690462126</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03700569229454</v>
+        <v>1.037027171346115</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042549214449479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040992719732104</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023312260769286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002712390009794</v>
+        <v>1.002996569869546</v>
       </c>
       <c r="D3">
-        <v>1.035400137951573</v>
+        <v>1.032979331633276</v>
       </c>
       <c r="E3">
-        <v>1.008369955586627</v>
+        <v>1.008619391698898</v>
       </c>
       <c r="F3">
-        <v>1.027854674802791</v>
+        <v>1.027823929107509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046813660310557</v>
+        <v>1.046112827978545</v>
       </c>
       <c r="J3">
-        <v>1.023129384659039</v>
+        <v>1.023405877371031</v>
       </c>
       <c r="K3">
-        <v>1.045599249919869</v>
+        <v>1.043206933245235</v>
       </c>
       <c r="L3">
-        <v>1.018896849821979</v>
+        <v>1.019143161044033</v>
       </c>
       <c r="M3">
-        <v>1.03814313570075</v>
+        <v>1.03811275740554</v>
       </c>
       <c r="N3">
-        <v>1.011303405318094</v>
+        <v>1.013153289750869</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03876012170191</v>
+        <v>1.038736079259434</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04331023794049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041627136832335</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023454955056075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005620149433644</v>
+        <v>1.005825834559069</v>
       </c>
       <c r="D4">
-        <v>1.036608104997151</v>
+        <v>1.034074379932604</v>
       </c>
       <c r="E4">
-        <v>1.01070814495052</v>
+        <v>1.010889028064383</v>
       </c>
       <c r="F4">
-        <v>1.029798126544056</v>
+        <v>1.029730871041145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04740243814607</v>
+        <v>1.046648848008105</v>
       </c>
       <c r="J4">
-        <v>1.024881175670861</v>
+        <v>1.025081679862208</v>
       </c>
       <c r="K4">
-        <v>1.046283901137826</v>
+        <v>1.043778241031249</v>
       </c>
       <c r="L4">
-        <v>1.020679027433883</v>
+        <v>1.020857784814737</v>
       </c>
       <c r="M4">
-        <v>1.039549739467567</v>
+        <v>1.039483238890371</v>
       </c>
       <c r="N4">
-        <v>1.011914865887422</v>
+        <v>1.013618868856548</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039873356105015</v>
+        <v>1.039820725309164</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043795229569827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042032071927005</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023542996778627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006829594779355</v>
+        <v>1.007002716926248</v>
       </c>
       <c r="D5">
-        <v>1.037118050686218</v>
+        <v>1.034537030772263</v>
       </c>
       <c r="E5">
-        <v>1.011682301988112</v>
+        <v>1.011834714031624</v>
       </c>
       <c r="F5">
-        <v>1.030608528684685</v>
+        <v>1.030526102009892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047647364178472</v>
+        <v>1.046871684573274</v>
       </c>
       <c r="J5">
-        <v>1.025609578898167</v>
+        <v>1.025778472738332</v>
       </c>
       <c r="K5">
-        <v>1.046574316812685</v>
+        <v>1.044021142706558</v>
       </c>
       <c r="L5">
-        <v>1.021420630626103</v>
+        <v>1.021571300447941</v>
       </c>
       <c r="M5">
-        <v>1.04013535258186</v>
+        <v>1.040053826358824</v>
       </c>
       <c r="N5">
-        <v>1.012169385488167</v>
+        <v>1.013812662382607</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040336829874885</v>
+        <v>1.040272307318027</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044007707026284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042211672783977</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023580657036733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007033469749465</v>
+        <v>1.007200937408951</v>
       </c>
       <c r="D6">
-        <v>1.037210714984504</v>
+        <v>1.034621305876631</v>
       </c>
       <c r="E6">
-        <v>1.011846910747752</v>
+        <v>1.011994361542285</v>
       </c>
       <c r="F6">
-        <v>1.030745080531352</v>
+        <v>1.030660013119053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047690820261138</v>
+        <v>1.046911229998031</v>
       </c>
       <c r="J6">
-        <v>1.02573292964078</v>
+        <v>1.025896328448382</v>
       </c>
       <c r="K6">
-        <v>1.046630074476098</v>
+        <v>1.044068476549292</v>
       </c>
       <c r="L6">
-        <v>1.021546243154784</v>
+        <v>1.021692016348098</v>
       </c>
       <c r="M6">
-        <v>1.040234203639945</v>
+        <v>1.04015006125515</v>
       </c>
       <c r="N6">
-        <v>1.012212965107658</v>
+        <v>1.013845792549251</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040415063873056</v>
+        <v>1.040348470806149</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044055829430335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042254716689741</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023588938505501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005640740259887</v>
+        <v>1.005858761817308</v>
       </c>
       <c r="D7">
-        <v>1.036634394722486</v>
+        <v>1.034101749128193</v>
       </c>
       <c r="E7">
-        <v>1.010725589214214</v>
+        <v>1.010917786440702</v>
       </c>
       <c r="F7">
-        <v>1.029811409484976</v>
+        <v>1.029749584260655</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047412706423404</v>
+        <v>1.046662855169657</v>
       </c>
       <c r="J7">
-        <v>1.02489520941427</v>
+        <v>1.025107741701119</v>
       </c>
       <c r="K7">
-        <v>1.046307040557837</v>
+        <v>1.043802436837196</v>
       </c>
       <c r="L7">
-        <v>1.020693308070001</v>
+        <v>1.020883247485163</v>
       </c>
       <c r="M7">
-        <v>1.039559988030476</v>
+        <v>1.03949885652044</v>
       </c>
       <c r="N7">
-        <v>1.01192109587139</v>
+        <v>1.013653656459071</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039881467162425</v>
+        <v>1.039833085627788</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043831593538978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042071201492623</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02354982041075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.999692483247954</v>
+        <v>1.000099924343362</v>
       </c>
       <c r="D8">
-        <v>1.034174742174917</v>
+        <v>1.031879296744108</v>
       </c>
       <c r="E8">
-        <v>1.005947543407354</v>
+        <v>1.00630642576158</v>
       </c>
       <c r="F8">
-        <v>1.025843406322972</v>
+        <v>1.02586913087952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046203370306637</v>
+        <v>1.045571217694089</v>
       </c>
       <c r="J8">
-        <v>1.021309609674316</v>
+        <v>1.021705228405107</v>
       </c>
       <c r="K8">
-        <v>1.044910868375591</v>
+        <v>1.042644086458632</v>
       </c>
       <c r="L8">
-        <v>1.017047549656327</v>
+        <v>1.017401644789939</v>
       </c>
       <c r="M8">
-        <v>1.036684331223768</v>
+        <v>1.036709728923558</v>
       </c>
       <c r="N8">
-        <v>1.010669543329026</v>
+        <v>1.012762830355201</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037605572040803</v>
+        <v>1.03762567269818</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042848929771369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041257155131915</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023370905945529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9887039463271673</v>
+        <v>0.9894261917338203</v>
       </c>
       <c r="D9">
-        <v>1.029678421308437</v>
+        <v>1.027813372428519</v>
       </c>
       <c r="E9">
-        <v>0.9971682242848164</v>
+        <v>0.9978014914404754</v>
       </c>
       <c r="F9">
-        <v>1.018592941343077</v>
+        <v>1.018764319575978</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043901840158946</v>
+        <v>1.04347283065824</v>
       </c>
       <c r="J9">
-        <v>1.014662001767331</v>
+        <v>1.015357944449496</v>
       </c>
       <c r="K9">
-        <v>1.04230766286086</v>
+        <v>1.040470757342732</v>
       </c>
       <c r="L9">
-        <v>1.010307412763733</v>
+        <v>1.01093033890465</v>
       </c>
       <c r="M9">
-        <v>1.03139139528864</v>
+        <v>1.031560121756588</v>
       </c>
       <c r="N9">
-        <v>1.008343298882359</v>
+        <v>1.011005658576011</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03341653885372</v>
+        <v>1.033550075857055</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041005161076491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039717039567841</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023010586055009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9811126250630731</v>
+        <v>0.9821192093778067</v>
       </c>
       <c r="D10">
-        <v>1.026629629280272</v>
+        <v>1.025074447147144</v>
       </c>
       <c r="E10">
-        <v>0.9911518327758431</v>
+        <v>0.9920350960985943</v>
       </c>
       <c r="F10">
-        <v>1.013812005027411</v>
+        <v>1.014113977041058</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042307098774944</v>
+        <v>1.042039817788438</v>
       </c>
       <c r="J10">
-        <v>1.0100961807524</v>
+        <v>1.01106066808925</v>
       </c>
       <c r="K10">
-        <v>1.040534166275315</v>
+        <v>1.039005267076136</v>
       </c>
       <c r="L10">
-        <v>1.005682702708575</v>
+        <v>1.006549664052447</v>
       </c>
       <c r="M10">
-        <v>1.027936278510587</v>
+        <v>1.028232991011017</v>
       </c>
       <c r="N10">
-        <v>1.006753646215234</v>
+        <v>1.009937416938397</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030733939361718</v>
+        <v>1.030968755697326</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039767922157834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038699260121704</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022762081640999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9785899621016918</v>
+        <v>0.9797758922922213</v>
       </c>
       <c r="D11">
-        <v>1.025614832232601</v>
+        <v>1.024168293265328</v>
       </c>
       <c r="E11">
-        <v>0.9892644033236441</v>
+        <v>0.9903074060782188</v>
       </c>
       <c r="F11">
-        <v>1.013586158234458</v>
+        <v>1.013970005532282</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042012097223914</v>
+        <v>1.041825116708341</v>
       </c>
       <c r="J11">
-        <v>1.0088813682824</v>
+        <v>1.010014910714098</v>
       </c>
       <c r="K11">
-        <v>1.040069334319749</v>
+        <v>1.038648383429923</v>
       </c>
       <c r="L11">
-        <v>1.004391657425548</v>
+        <v>1.005414454993705</v>
       </c>
       <c r="M11">
-        <v>1.02825632846808</v>
+        <v>1.028633190732254</v>
       </c>
       <c r="N11">
-        <v>1.006415376947608</v>
+        <v>1.009949071987705</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031427012339661</v>
+        <v>1.031725106027277</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039471920158402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038482815107736</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022736127979801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9779455303547998</v>
+        <v>0.9791904669861778</v>
       </c>
       <c r="D12">
-        <v>1.025332066631464</v>
+        <v>1.023909643392579</v>
       </c>
       <c r="E12">
-        <v>0.9888361875920545</v>
+        <v>0.9899307100557193</v>
       </c>
       <c r="F12">
-        <v>1.014151164617033</v>
+        <v>1.014561738999576</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042045391770143</v>
+        <v>1.041881569477635</v>
       </c>
       <c r="J12">
-        <v>1.008713518569365</v>
+        <v>1.009902401940839</v>
       </c>
       <c r="K12">
-        <v>1.039989521027518</v>
+        <v>1.03859267399687</v>
       </c>
       <c r="L12">
-        <v>1.00418044022146</v>
+        <v>1.005253398214753</v>
       </c>
       <c r="M12">
-        <v>1.029012181341679</v>
+        <v>1.029415177282132</v>
       </c>
       <c r="N12">
-        <v>1.006426421949936</v>
+        <v>1.010075117492272</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032353462950343</v>
+        <v>1.032672118721379</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039415490215627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038443427900759</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022749050296186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.978709174565397</v>
+        <v>0.9799026485237678</v>
       </c>
       <c r="D13">
-        <v>1.025614086810011</v>
+        <v>1.024146382565368</v>
       </c>
       <c r="E13">
-        <v>0.9895049311644392</v>
+        <v>0.9905514956540326</v>
       </c>
       <c r="F13">
-        <v>1.015383648971355</v>
+        <v>1.015770711569058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042344656303013</v>
+        <v>1.042153947968941</v>
       </c>
       <c r="J13">
-        <v>1.009346725308909</v>
+        <v>1.010486776328881</v>
       </c>
       <c r="K13">
-        <v>1.040224037270642</v>
+        <v>1.038782618069028</v>
       </c>
       <c r="L13">
-        <v>1.004791280403104</v>
+        <v>1.005817329940486</v>
       </c>
       <c r="M13">
-        <v>1.030178875284627</v>
+        <v>1.030558839613163</v>
       </c>
       <c r="N13">
-        <v>1.006710679103931</v>
+        <v>1.010260016719378</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033554106624051</v>
+        <v>1.033854474709224</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03957882139305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038574998903909</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022799314704931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9798718385594738</v>
+        <v>0.9809807045198145</v>
       </c>
       <c r="D14">
-        <v>1.026068309746318</v>
+        <v>1.024538400924005</v>
       </c>
       <c r="E14">
-        <v>0.9904616034666088</v>
+        <v>0.9914312077881825</v>
       </c>
       <c r="F14">
-        <v>1.016532619407603</v>
+        <v>1.016881424444081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042670943105156</v>
+        <v>1.042439785931821</v>
       </c>
       <c r="J14">
-        <v>1.01014351605959</v>
+        <v>1.011203505886737</v>
       </c>
       <c r="K14">
-        <v>1.040531156558977</v>
+        <v>1.039028317603344</v>
       </c>
       <c r="L14">
-        <v>1.005582878314285</v>
+        <v>1.006533732278468</v>
       </c>
       <c r="M14">
-        <v>1.031165916552483</v>
+        <v>1.031508413462471</v>
       </c>
       <c r="N14">
-        <v>1.007030199793916</v>
+        <v>1.010415450313748</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034508401210064</v>
+        <v>1.034779113951334</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039797378259901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038750266868714</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022851900957861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9804699513527549</v>
+        <v>0.981535365596237</v>
       </c>
       <c r="D15">
-        <v>1.02631066671073</v>
+        <v>1.024750259269736</v>
       </c>
       <c r="E15">
-        <v>0.9909416212820853</v>
+        <v>0.9918721329855632</v>
       </c>
       <c r="F15">
-        <v>1.01699079975295</v>
+        <v>1.017320004333477</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042815165779958</v>
+        <v>1.042563736887771</v>
       </c>
       <c r="J15">
-        <v>1.010522233347386</v>
+        <v>1.011541117686762</v>
       </c>
       <c r="K15">
-        <v>1.040683623299995</v>
+        <v>1.039150621483493</v>
       </c>
       <c r="L15">
-        <v>1.005963521006476</v>
+        <v>1.006876183927701</v>
       </c>
       <c r="M15">
-        <v>1.03152906484491</v>
+        <v>1.03185236321503</v>
       </c>
       <c r="N15">
-        <v>1.007171440045646</v>
+        <v>1.01047260471443</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03483310621905</v>
+        <v>1.035088637519662</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039911011542934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038843147866207</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022875522356453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9835300015353796</v>
+        <v>0.9843918079633482</v>
       </c>
       <c r="D16">
-        <v>1.027544420214757</v>
+        <v>1.025841275518737</v>
       </c>
       <c r="E16">
-        <v>0.9933461657923205</v>
+        <v>0.994095589787454</v>
       </c>
       <c r="F16">
-        <v>1.018820668975904</v>
+        <v>1.019057965360586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043442918214877</v>
+        <v>1.04309699632563</v>
       </c>
       <c r="J16">
-        <v>1.012333732386852</v>
+        <v>1.013159855686232</v>
       </c>
       <c r="K16">
-        <v>1.041398273376625</v>
+        <v>1.039723767639465</v>
       </c>
       <c r="L16">
-        <v>1.007799571135274</v>
+        <v>1.008535280916285</v>
       </c>
       <c r="M16">
-        <v>1.032822521420462</v>
+        <v>1.033055748722778</v>
       </c>
       <c r="N16">
-        <v>1.007789308513099</v>
+        <v>1.010697621345974</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035816591459502</v>
+        <v>1.036000936947671</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04041943997186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039251834232626</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022971305332529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9852736430515712</v>
+        <v>0.9860393699815341</v>
       </c>
       <c r="D17">
-        <v>1.028257770511686</v>
+        <v>1.026480431917582</v>
       </c>
       <c r="E17">
-        <v>0.9946959467777872</v>
+        <v>0.9953607796238362</v>
       </c>
       <c r="F17">
-        <v>1.019621643232153</v>
+        <v>1.019815288132913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043753896030153</v>
+        <v>1.043361399140366</v>
       </c>
       <c r="J17">
-        <v>1.013309737566364</v>
+        <v>1.01404481134007</v>
       </c>
       <c r="K17">
-        <v>1.041787838032206</v>
+        <v>1.040039564787724</v>
       </c>
       <c r="L17">
-        <v>1.008797618821656</v>
+        <v>1.009450643090315</v>
       </c>
       <c r="M17">
-        <v>1.033294163741933</v>
+        <v>1.03348458040606</v>
       </c>
       <c r="N17">
-        <v>1.00809705216209</v>
+        <v>1.01082147630403</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036059861716305</v>
+        <v>1.036210384276333</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040697449074486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039477938963288</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023017824776169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.986021737539048</v>
+        <v>0.9867555294623447</v>
       </c>
       <c r="D18">
-        <v>1.028565798966729</v>
+        <v>1.026764145694202</v>
       </c>
       <c r="E18">
-        <v>0.995236038748699</v>
+        <v>0.9958735915632059</v>
       </c>
       <c r="F18">
-        <v>1.019499271307735</v>
+        <v>1.019677916817556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043800363278813</v>
+        <v>1.04339207183116</v>
       </c>
       <c r="J18">
-        <v>1.013623430207516</v>
+        <v>1.014328406614669</v>
       </c>
       <c r="K18">
-        <v>1.041909017173678</v>
+        <v>1.040136351470397</v>
       </c>
       <c r="L18">
-        <v>1.009137514196071</v>
+        <v>1.009763934373576</v>
       </c>
       <c r="M18">
-        <v>1.032989701469859</v>
+        <v>1.033165413825857</v>
       </c>
       <c r="N18">
-        <v>1.008152730281171</v>
+        <v>1.010817348910901</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035580410070412</v>
+        <v>1.035719338185097</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040771558651374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039533659425498</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023018628703755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9858481614229988</v>
+        <v>0.9865970218010255</v>
       </c>
       <c r="D19">
-        <v>1.028526186113548</v>
+        <v>1.026741712571428</v>
       </c>
       <c r="E19">
-        <v>0.9950272498768291</v>
+        <v>0.9956792362231226</v>
       </c>
       <c r="F19">
-        <v>1.018482230289143</v>
+        <v>1.018667047999172</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043607727870482</v>
+        <v>1.043207471186725</v>
       </c>
       <c r="J19">
-        <v>1.013318855292097</v>
+        <v>1.014038467146106</v>
       </c>
       <c r="K19">
-        <v>1.041808036164648</v>
+        <v>1.040052123065101</v>
       </c>
       <c r="L19">
-        <v>1.008867367466129</v>
+        <v>1.009508024416437</v>
       </c>
       <c r="M19">
-        <v>1.031926509376543</v>
+        <v>1.032108301062519</v>
       </c>
       <c r="N19">
-        <v>1.007981144048121</v>
+        <v>1.010675545981995</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034412369993612</v>
+        <v>1.034556152240965</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04070651986864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039481094154576</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022983718249738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9830984396806988</v>
+        <v>0.9839899534920252</v>
       </c>
       <c r="D20">
-        <v>1.027465955260612</v>
+        <v>1.02581717578839</v>
       </c>
       <c r="E20">
-        <v>0.992725992828673</v>
+        <v>0.9935062057612667</v>
       </c>
       <c r="F20">
-        <v>1.015065049168676</v>
+        <v>1.015314294101511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042742484351061</v>
+        <v>1.042417332801008</v>
       </c>
       <c r="J20">
-        <v>1.011296802834821</v>
+        <v>1.012152297876937</v>
       </c>
       <c r="K20">
-        <v>1.041042450433984</v>
+        <v>1.039420759787685</v>
       </c>
       <c r="L20">
-        <v>1.006897964258833</v>
+        <v>1.007664209951233</v>
       </c>
       <c r="M20">
-        <v>1.028848071257261</v>
+        <v>1.029093101119664</v>
       </c>
       <c r="N20">
-        <v>1.007176200663532</v>
+        <v>1.010140620984678</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031444885769008</v>
+        <v>1.031638803143351</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040169121135019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039038983994673</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022838193186658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9772104660046838</v>
+        <v>0.9785187970563723</v>
       </c>
       <c r="D21">
-        <v>1.025117611478674</v>
+        <v>1.023758798354485</v>
       </c>
       <c r="E21">
-        <v>0.9880537659069367</v>
+        <v>0.9892100303999475</v>
       </c>
       <c r="F21">
-        <v>1.011113211870929</v>
+        <v>1.011553925454729</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041444672271768</v>
+        <v>1.041316593627773</v>
       </c>
       <c r="J21">
-        <v>1.007692906102851</v>
+        <v>1.00894292672827</v>
       </c>
       <c r="K21">
-        <v>1.039638252021367</v>
+        <v>1.038303612704421</v>
       </c>
       <c r="L21">
-        <v>1.003265053772849</v>
+        <v>1.004398746610993</v>
       </c>
       <c r="M21">
-        <v>1.025887056070593</v>
+        <v>1.026319662227103</v>
       </c>
       <c r="N21">
-        <v>1.00590534255758</v>
+        <v>1.009675885837398</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029060166465282</v>
+        <v>1.029402550697362</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039179511124667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038252651072226</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022642977677952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9734659595015079</v>
+        <v>0.9750417467085667</v>
       </c>
       <c r="D22">
-        <v>1.023619039077527</v>
+        <v>1.022446465356758</v>
       </c>
       <c r="E22">
-        <v>0.9850963297227591</v>
+        <v>0.9864946238574507</v>
       </c>
       <c r="F22">
-        <v>1.008700220889577</v>
+        <v>1.009264952312895</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04062153329721</v>
+        <v>1.040621027681237</v>
       </c>
       <c r="J22">
-        <v>1.005416608147534</v>
+        <v>1.006917857594888</v>
       </c>
       <c r="K22">
-        <v>1.038736683185168</v>
+        <v>1.037585993578565</v>
       </c>
       <c r="L22">
-        <v>1.000968927890715</v>
+        <v>1.002338457960145</v>
       </c>
       <c r="M22">
-        <v>1.024101272783202</v>
+        <v>1.024655076259572</v>
       </c>
       <c r="N22">
-        <v>1.005105326948187</v>
+        <v>1.009381193628149</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027646814371389</v>
+        <v>1.02808512055456</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038528639174712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037730525135603</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022515025980248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,105 +1741,123 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9754558749604756</v>
+        <v>0.9768667273677091</v>
       </c>
       <c r="D23">
-        <v>1.024398685259819</v>
+        <v>1.023122588330195</v>
       </c>
       <c r="E23">
-        <v>0.9866661091244553</v>
+        <v>0.9879144407283833</v>
       </c>
       <c r="F23">
-        <v>1.009981710091279</v>
+        <v>1.010469839362938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041054484503219</v>
+        <v>1.040977990646959</v>
       </c>
       <c r="J23">
-        <v>1.006625019143846</v>
+        <v>1.007971193535795</v>
       </c>
       <c r="K23">
-        <v>1.039199823639352</v>
+        <v>1.037946951375795</v>
       </c>
       <c r="L23">
-        <v>1.002187365308352</v>
+        <v>1.003410715443746</v>
       </c>
       <c r="M23">
-        <v>1.025049694686615</v>
+        <v>1.025528626392275</v>
       </c>
       <c r="N23">
-        <v>1.005528533100827</v>
+        <v>1.009489058686982</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028397440013845</v>
+        <v>1.028776488750816</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038846518105846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037975211058669</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022576959182829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9831048632288409</v>
+        <v>0.9839972238400314</v>
       </c>
       <c r="D24">
-        <v>1.027446945434751</v>
+        <v>1.025800979266145</v>
       </c>
       <c r="E24">
-        <v>0.9927199519962093</v>
+        <v>0.9935010981859232</v>
       </c>
       <c r="F24">
-        <v>1.014935885287638</v>
+        <v>1.015185529741215</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042712908832422</v>
+        <v>1.042388855102249</v>
       </c>
       <c r="J24">
-        <v>1.01126915549431</v>
+        <v>1.012125514705936</v>
       </c>
       <c r="K24">
-        <v>1.041008617083132</v>
+        <v>1.039389660109912</v>
       </c>
       <c r="L24">
-        <v>1.006876131089968</v>
+        <v>1.007643311197855</v>
       </c>
       <c r="M24">
-        <v>1.028705690488332</v>
+        <v>1.028951117152222</v>
       </c>
       <c r="N24">
-        <v>1.007156880283713</v>
+        <v>1.010121843344542</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031290959189565</v>
+        <v>1.031485200435507</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040117951569016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03898705575056</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02282649733181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9916145949515797</v>
+        <v>0.9922347355569038</v>
       </c>
       <c r="D25">
-        <v>1.030887159000015</v>
+        <v>1.028902223629268</v>
       </c>
       <c r="E25">
-        <v>0.9994891968155313</v>
+        <v>1.000032662389688</v>
       </c>
       <c r="F25">
-        <v>1.020502824901333</v>
+        <v>1.020627219336789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044527104972953</v>
+        <v>1.0440373767412</v>
       </c>
       <c r="J25">
-        <v>1.016427494763187</v>
+        <v>1.017026287931513</v>
       </c>
       <c r="K25">
-        <v>1.043024192713982</v>
+        <v>1.041067845889463</v>
       </c>
       <c r="L25">
-        <v>1.012095447524163</v>
+        <v>1.012630471337761</v>
       </c>
       <c r="M25">
-        <v>1.032790985015686</v>
+        <v>1.032913545988268</v>
       </c>
       <c r="N25">
-        <v>1.008963845623715</v>
+        <v>1.011438001995536</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034524230438246</v>
+        <v>1.034621230036912</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041540208256329</v>
+        <v>1.040170464780601</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023114974202493</v>
       </c>
     </row>
   </sheetData>
